--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/www/erythrondb/project_home/ErythronDBWebsite/Model/lib/wdk/ontology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42526B6-9B51-A548-A395-0C25F752342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79503A4C-20D7-47EB-8BBA-9F71A02DF163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="49420" windowHeight="19060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="600">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1213,12 +1213,6 @@
     <t>## Gene Attributes ##</t>
   </si>
   <si>
-    <t>GeneQuestions.GeneTextSearch</t>
-  </si>
-  <si>
-    <t>GeneQuestions.GeneByIdentifier</t>
-  </si>
-  <si>
     <t>GeneRecordClasses.GeneRecordClass.organism_common</t>
   </si>
   <si>
@@ -1327,24 +1321,6 @@
     <t>##  Custom Categories ##</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GeneTextSearch</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GeneByIdentifier</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GeneUpload</t>
-  </si>
-  <si>
-    <t>GeneQuestions.GeneUpload</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GenesByProteomics_QuantitativeMassSpec</t>
-  </si>
-  <si>
-    <t>GeneQuestions.GenesByProteomics_QuantitativeMassSpec</t>
-  </si>
-  <si>
     <t>## Search Categories ##</t>
   </si>
   <si>
@@ -1597,27 +1573,9 @@
     <t>http://edamontology.org/topic_3305</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GenesByTranscriptomics_FC</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GenesByTranscriptomics_Expression</t>
-  </si>
-  <si>
-    <t>GeneQuestions.GenesByTranscriptomics</t>
-  </si>
-  <si>
-    <t>GeneQuestions.GenesByTranscriptomics_FC</t>
-  </si>
-  <si>
-    <t>GeneQuestions.GenesByTranscriptomics_Expression</t>
-  </si>
-  <si>
     <t>searchCategory-transcriptomics</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.GenesByTranscriptomics</t>
-  </si>
-  <si>
     <t>transcriptomics</t>
   </si>
   <si>
@@ -1871,6 +1829,78 @@
   </si>
   <si>
     <t>data_type</t>
+  </si>
+  <si>
+    <t>Searches</t>
+  </si>
+  <si>
+    <t>DatasetRecordClasses.DatasetRecordClass.Searches</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.upload</t>
+  </si>
+  <si>
+    <t>GeneQuestions.upload</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.id</t>
+  </si>
+  <si>
+    <t>GeneQuestions.id</t>
+  </si>
+  <si>
+    <t>GeneQuestions.keyword</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.keyword</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.GeneDataset.proteomics_comparison</t>
+  </si>
+  <si>
+    <t>GeneDataset.proteomics_comparison</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.Study001.study001_comparison</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.Study001.study001_expression</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.Study001.study002_comparison</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.Study001.study002_expression</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.Study005.study005_comparison</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.Study005.study005_expression</t>
+  </si>
+  <si>
+    <t>Study001.study001_comparison</t>
+  </si>
+  <si>
+    <t>Study001.study001_expression</t>
+  </si>
+  <si>
+    <t>Study002.study002_comparison</t>
+  </si>
+  <si>
+    <t>Study002.study002_expression</t>
+  </si>
+  <si>
+    <t>Study005.study005_comparison</t>
+  </si>
+  <si>
+    <t>Study005.study005_expression</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.go</t>
+  </si>
+  <si>
+    <t>GeneQuestions.go</t>
   </si>
 </sst>
 </file>
@@ -2200,29 +2230,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G91" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105:N105"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -2295,12 +2325,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -2314,7 +2344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2328,14 +2358,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
@@ -2350,7 +2380,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>370</v>
+        <v>582</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -2359,9 +2389,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
@@ -2376,7 +2406,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>371</v>
+        <v>581</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2385,9 +2415,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -2402,21 +2432,21 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>598</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
         <v>197</v>
@@ -2425,21 +2455,21 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>413</v>
+        <v>599</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>197</v>
@@ -2448,21 +2478,21 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>586</v>
       </c>
       <c r="B15" t="s">
         <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
         <v>197</v>
@@ -2471,21 +2501,24 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>502</v>
+        <v>592</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>587</v>
       </c>
       <c r="B16" t="s">
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
         <v>197</v>
@@ -2494,15 +2527,125 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>588</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>594</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>595</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>596</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>591</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>597</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -2531,7 +2674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -2563,7 +2706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -2595,7 +2738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -2627,9 +2770,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
         <v>195</v>
@@ -2644,7 +2787,7 @@
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J28" t="s">
         <v>200</v>
@@ -2659,9 +2802,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
         <v>195</v>
@@ -2676,7 +2819,7 @@
         <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J29" t="s">
         <v>200</v>
@@ -2691,7 +2834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -2723,7 +2866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -2755,7 +2898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -2781,7 +2924,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>234</v>
       </c>
@@ -2807,7 +2950,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>219</v>
       </c>
@@ -2833,7 +2976,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>221</v>
       </c>
@@ -2859,9 +3002,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
@@ -2876,7 +3019,7 @@
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J36" t="s">
         <v>200</v>
@@ -2891,7 +3034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>238</v>
       </c>
@@ -2923,7 +3066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>241</v>
       </c>
@@ -2949,7 +3092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>242</v>
       </c>
@@ -2978,9 +3121,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
         <v>180</v>
@@ -2995,7 +3138,7 @@
         <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J40" t="s">
         <v>200</v>
@@ -3004,9 +3147,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s">
         <v>155</v>
@@ -3021,7 +3164,7 @@
         <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
         <v>200</v>
@@ -3036,9 +3179,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
         <v>178</v>
@@ -3053,7 +3196,7 @@
         <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
         <v>200</v>
@@ -3062,9 +3205,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s">
         <v>162</v>
@@ -3079,7 +3222,7 @@
         <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
         <v>200</v>
@@ -3094,9 +3237,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s">
         <v>180</v>
@@ -3111,7 +3254,7 @@
         <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
         <v>200</v>
@@ -3126,9 +3269,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s">
         <v>180</v>
@@ -3143,7 +3286,7 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J45" t="s">
         <v>200</v>
@@ -3155,9 +3298,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s">
         <v>180</v>
@@ -3172,7 +3315,7 @@
         <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J46" t="s">
         <v>200</v>
@@ -3181,9 +3324,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s">
         <v>178</v>
@@ -3198,7 +3341,7 @@
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J47" t="s">
         <v>200</v>
@@ -3210,9 +3353,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s">
         <v>157</v>
@@ -3227,7 +3370,7 @@
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
         <v>200</v>
@@ -3239,9 +3382,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
         <v>157</v>
@@ -3256,7 +3399,7 @@
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -3268,9 +3411,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
         <v>157</v>
@@ -3285,7 +3428,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
         <v>200</v>
@@ -3297,9 +3440,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s">
         <v>157</v>
@@ -3314,7 +3457,7 @@
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
         <v>200</v>
@@ -3326,7 +3469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>213</v>
       </c>
@@ -3355,7 +3498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -3384,9 +3527,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s">
         <v>188</v>
@@ -3401,7 +3544,7 @@
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J54" t="s">
         <v>200</v>
@@ -3413,7 +3556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -3439,9 +3582,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
         <v>162</v>
@@ -3456,7 +3599,7 @@
         <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J56" t="s">
         <v>200</v>
@@ -3465,9 +3608,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s">
         <v>168</v>
@@ -3482,7 +3625,7 @@
         <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="J57" t="s">
         <v>200</v>
@@ -3494,9 +3637,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B58" t="s">
         <v>168</v>
@@ -3511,7 +3654,7 @@
         <v>85</v>
       </c>
       <c r="F58" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="J58" t="s">
         <v>200</v>
@@ -3520,12 +3663,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -3551,7 +3694,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -3577,7 +3720,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>265</v>
       </c>
@@ -3603,7 +3746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>270</v>
       </c>
@@ -3629,7 +3772,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>275</v>
       </c>
@@ -3655,7 +3798,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>280</v>
       </c>
@@ -3681,7 +3824,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>282</v>
       </c>
@@ -3707,7 +3850,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>287</v>
       </c>
@@ -3733,7 +3876,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -3759,7 +3902,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>296</v>
       </c>
@@ -3785,7 +3928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>298</v>
       </c>
@@ -3811,7 +3954,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>303</v>
       </c>
@@ -3837,7 +3980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3863,7 +4006,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>309</v>
       </c>
@@ -3889,7 +4032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -3915,7 +4058,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>315</v>
       </c>
@@ -3941,7 +4084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>321</v>
       </c>
@@ -3967,7 +4110,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>323</v>
       </c>
@@ -3993,7 +4136,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>328</v>
       </c>
@@ -4019,7 +4162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>333</v>
       </c>
@@ -4045,7 +4188,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>335</v>
       </c>
@@ -4071,7 +4214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>340</v>
       </c>
@@ -4097,7 +4240,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>345</v>
       </c>
@@ -4123,9 +4266,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B94" t="s">
         <v>168</v>
@@ -4134,64 +4277,64 @@
         <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="G94" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="H94" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="I94" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="L94" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B99" t="s">
         <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D99" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E99" t="s">
         <v>85</v>
       </c>
       <c r="F99" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G99" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H99" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I99" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="J99" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K99" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L99" t="s">
         <v>66</v>
@@ -4203,53 +4346,62 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D100" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F100" t="s">
-        <v>574</v>
-      </c>
-      <c r="L100" t="s">
-        <v>66</v>
+        <v>576</v>
+      </c>
+      <c r="G100" t="s">
+        <v>412</v>
+      </c>
+      <c r="H100" t="s">
+        <v>412</v>
+      </c>
+      <c r="I100" t="s">
+        <v>412</v>
+      </c>
+      <c r="J100" t="s">
+        <v>412</v>
+      </c>
+      <c r="K100" t="s">
+        <v>412</v>
       </c>
       <c r="M100" t="s">
         <v>64</v>
       </c>
-      <c r="N100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B101" t="s">
         <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D101" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E101" t="s">
         <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="L101" t="s">
         <v>66</v>
@@ -4261,24 +4413,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B102" t="s">
         <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D102" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E102" t="s">
         <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="L102" t="s">
         <v>66</v>
@@ -4286,25 +4438,28 @@
       <c r="M102" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B103" t="s">
         <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D103" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
         <v>62</v>
       </c>
       <c r="F103" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="L103" t="s">
         <v>66</v>
@@ -4312,28 +4467,25 @@
       <c r="M103" t="s">
         <v>64</v>
       </c>
-      <c r="N103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B104" t="s">
         <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D104" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
         <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="L104" t="s">
         <v>66</v>
@@ -4345,24 +4497,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B105" t="s">
         <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D105" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E105" t="s">
         <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="L105" t="s">
         <v>66</v>
@@ -4371,6 +4523,35 @@
         <v>64</v>
       </c>
       <c r="N105" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>574</v>
+      </c>
+      <c r="B106" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" t="s">
+        <v>571</v>
+      </c>
+      <c r="D106" t="s">
+        <v>413</v>
+      </c>
+      <c r="E106" t="s">
+        <v>62</v>
+      </c>
+      <c r="F106" t="s">
+        <v>575</v>
+      </c>
+      <c r="L106" t="s">
+        <v>66</v>
+      </c>
+      <c r="M106" t="s">
+        <v>64</v>
+      </c>
+      <c r="N106" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4387,22 +4568,22 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4440,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -4475,7 +4656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4489,12 +4670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4517,7 +4698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4540,7 +4721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4563,7 +4744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4586,7 +4767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4609,7 +4790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -4632,7 +4813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4655,7 +4836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -4678,7 +4859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -4701,7 +4882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -4724,7 +4905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -4747,7 +4928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -4770,7 +4951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -4793,7 +4974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -4816,7 +4997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4839,12 +5020,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4870,7 +5051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -4896,7 +5077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -4922,7 +5103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -4948,7 +5129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -4974,7 +5155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -5000,7 +5181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -5026,7 +5207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -5052,7 +5233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -5078,12 +5259,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -5106,7 +5287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -5129,7 +5310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -5152,7 +5333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -5175,7 +5356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -5198,7 +5379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5221,7 +5402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -5244,12 +5425,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -5272,7 +5453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -5295,7 +5476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -5318,7 +5499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5341,7 +5522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -5364,7 +5545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -5387,7 +5568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -5410,7 +5591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -5433,7 +5614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -5456,7 +5637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5479,7 +5660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -5502,7 +5683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -5525,12 +5706,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -5556,7 +5737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -5582,7 +5763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -5608,7 +5789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -5634,7 +5815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -5660,7 +5841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -5686,7 +5867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -5712,7 +5893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -5738,7 +5919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -5764,7 +5945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -5787,7 +5968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -5810,7 +5991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -5833,12 +6014,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -5861,7 +6042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -5897,48 +6078,48 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" t="s">
         <v>376</v>
       </c>
-      <c r="B1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5947,7 +6128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -5955,55 +6136,55 @@
         <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6017,21 +6198,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -6045,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -6059,7 +6240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -6073,7 +6254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -6087,7 +6268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -6095,15 +6276,15 @@
         <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
         <v>206</v>
@@ -6115,7 +6296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -6123,13 +6304,13 @@
         <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -6137,13 +6318,13 @@
         <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -6157,7 +6338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -6165,27 +6346,27 @@
         <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
         <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -6199,7 +6380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -6213,7 +6394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -6227,65 +6408,65 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B24" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B28" t="s">
         <v>251</v>
@@ -6297,9 +6478,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B29" t="s">
         <v>253</v>
@@ -6311,49 +6492,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B30" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C30" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C31" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D31">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B32" t="s">
         <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D32">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>356</v>
       </c>
@@ -6367,7 +6548,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>363</v>
       </c>
@@ -6381,7 +6562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -6395,77 +6576,77 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B36" t="s">
         <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D36">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B37" t="s">
         <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D37">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D38">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B39" t="s">
         <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D39">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C40" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D40">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -6473,13 +6654,13 @@
         <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D41">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>247</v>
       </c>
@@ -6487,27 +6668,27 @@
         <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D42">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B43" t="s">
         <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D43">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>249</v>
       </c>
@@ -6521,7 +6702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>360</v>
       </c>
@@ -6529,41 +6710,41 @@
         <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C46" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D46">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B47" t="s">
         <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D47">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -6571,13 +6752,13 @@
         <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D48">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -6591,133 +6772,133 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C50" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D50">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C51" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D51">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C52" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D52">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D53">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s">
         <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D54">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C55" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D55">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B56" t="s">
         <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D56">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B57" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C57" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D57">
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s">
         <v>367</v>
       </c>
       <c r="C58" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D58">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>354</v>
       </c>
@@ -6725,13 +6906,13 @@
         <v>353</v>
       </c>
       <c r="C59" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D59">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>348</v>
       </c>
@@ -6745,63 +6926,63 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s">
         <v>366</v>
       </c>
       <c r="C61" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D61">
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C62" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D62">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C63" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D63">
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C64" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D64">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -6809,7 +6990,7 @@
         <v>364</v>
       </c>
       <c r="C65" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D65">
         <v>303</v>
@@ -6832,23 +7013,23 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6886,7 +7067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -6921,12 +7102,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -6944,9 +7125,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
         <v>155</v>
@@ -6955,33 +7136,33 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
         <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -6993,9 +7174,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
@@ -7004,13 +7185,13 @@
         <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -7022,9 +7203,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
         <v>155</v>
@@ -7033,13 +7214,13 @@
         <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -7051,9 +7232,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
         <v>155</v>
@@ -7062,7 +7243,7 @@
         <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -7080,9 +7261,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B9" t="s">
         <v>157</v>
@@ -7091,13 +7272,13 @@
         <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -7109,9 +7290,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
@@ -7120,13 +7301,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -7138,9 +7319,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
@@ -7149,13 +7330,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -7167,9 +7348,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -7178,13 +7359,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="L12" t="s">
         <v>66</v>
@@ -7196,9 +7377,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B13" t="s">
         <v>157</v>
@@ -7207,24 +7388,24 @@
         <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="N13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D14" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
@@ -7239,9 +7420,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
         <v>155</v>
@@ -7250,13 +7431,13 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -7265,9 +7446,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B16" t="s">
         <v>155</v>
@@ -7276,13 +7457,13 @@
         <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="L16" t="s">
         <v>66</v>
@@ -7291,9 +7472,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s">
         <v>155</v>
@@ -7302,18 +7483,18 @@
         <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>155</v>
@@ -7322,18 +7503,18 @@
         <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
         <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s">
         <v>155</v>
@@ -7342,21 +7523,21 @@
         <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E19" t="s">
         <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
@@ -7365,21 +7546,21 @@
         <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="N20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B21" t="s">
         <v>155</v>
@@ -7388,21 +7569,21 @@
         <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="N21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B22" t="s">
         <v>155</v>
@@ -7411,7 +7592,7 @@
         <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -7429,9 +7610,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B23" t="s">
         <v>155</v>
@@ -7440,21 +7621,21 @@
         <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="N23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -7463,21 +7644,21 @@
         <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="N24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -7486,21 +7667,21 @@
         <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="N25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B26" t="s">
         <v>155</v>
@@ -7509,21 +7690,21 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="N26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
@@ -7532,21 +7713,21 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="N27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -7555,21 +7736,21 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="N28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -7578,7 +7759,7 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -7590,9 +7771,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -7601,13 +7782,13 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
@@ -7619,9 +7800,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="B31" t="s">
         <v>155</v>
@@ -7630,13 +7811,13 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="L31" t="s">
         <v>66</v>
@@ -7648,9 +7829,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B32" t="s">
         <v>155</v>
@@ -7659,7 +7840,7 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -7677,9 +7858,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B33" t="s">
         <v>155</v>
@@ -7688,13 +7869,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="L33" t="s">
         <v>66</v>
@@ -7706,9 +7887,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B34" t="s">
         <v>155</v>
@@ -7717,13 +7898,13 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="L34" t="s">
         <v>66</v>
@@ -7735,9 +7916,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
@@ -7746,21 +7927,21 @@
         <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="N35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
@@ -7769,13 +7950,13 @@
         <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="L36" t="s">
         <v>66</v>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79503A4C-20D7-47EB-8BBA-9F71A02DF163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB750D12-A5D6-4B7C-9812-25C176DED572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="6" r:id="rId1"/>
@@ -20,13 +20,21 @@
   </sheets>
   <definedNames>
     <definedName name="commonIndividuals" localSheetId="3">common!$A$1:$N$36</definedName>
-    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$93</definedName>
+    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$88</definedName>
     <definedName name="individuals" localSheetId="1">orthomcl!$A$1:$N$72</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -101,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="474">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -613,18 +621,6 @@
     <t>Transcriptomics</t>
   </si>
   <si>
-    <t>searchCategory-proteomics-direct-conf-comparison</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-fold-change</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-percentile</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_3173</t>
   </si>
   <si>
@@ -694,15 +690,9 @@
     <t>Taxonomy</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_0804</t>
   </si>
   <si>
-    <t>immunoproteins,genes,antigens</t>
-  </si>
-  <si>
     <t>gene</t>
   </si>
   <si>
@@ -733,21 +723,6 @@
     <t>Sequence sites, features and motifs</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.record_overview</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.MassSpecMod</t>
-  </si>
-  <si>
-    <t>MassSpecMod</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GOTerms</t>
-  </si>
-  <si>
-    <t>GOTerms</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_0128</t>
   </si>
   <si>
@@ -760,81 +735,36 @@
     <t>http://edamontology.org/topic_2885</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.start_min</t>
-  </si>
-  <si>
     <t>start_min</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.end_max</t>
-  </si>
-  <si>
     <t>end_max</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.source_id</t>
-  </si>
-  <si>
     <t>annot and cur</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.sequence_id</t>
-  </si>
-  <si>
     <t>sequence_id</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.chromosome</t>
-  </si>
-  <si>
     <t>chromosome</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.product</t>
-  </si>
-  <si>
     <t>gene_type</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.gene_type</t>
-  </si>
-  <si>
     <t>location_text</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.location_text</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.strand_plus_minus</t>
-  </si>
-  <si>
     <t>strand_plus_minus</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.organism_full</t>
-  </si>
-  <si>
     <t>organism_full</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.exon_count</t>
-  </si>
-  <si>
-    <t>exon_count</t>
-  </si>
-  <si>
     <t>is_pseudo</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.is_pseudo</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.transcript_count</t>
-  </si>
-  <si>
-    <t>transcript_count</t>
-  </si>
-  <si>
     <t>http://edamontology.org/data_2977</t>
   </si>
   <si>
@@ -859,291 +789,12 @@
     <t>http://edamontology.org/data_0916</t>
   </si>
   <si>
-    <t>Gene report</t>
-  </si>
-  <si>
     <t>http://edamontology.org/data_2711</t>
   </si>
   <si>
     <t>Genome report</t>
   </si>
   <si>
-    <t>searchCategory-association-to-genomic-segments</t>
-  </si>
-  <si>
-    <t>association-to-genomic-segments</t>
-  </si>
-  <si>
-    <t>Association to Genomic Segments</t>
-  </si>
-  <si>
-    <t>AGS</t>
-  </si>
-  <si>
-    <t>Search for genes which are associated to genomic segments by eQTL</t>
-  </si>
-  <si>
-    <t>searchCategory-similarity-of-association</t>
-  </si>
-  <si>
-    <t>similarity-of-association</t>
-  </si>
-  <si>
-    <t>Similarity of Association</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Search for genes by similarity of association.</t>
-  </si>
-  <si>
-    <t>searchCategory-T-test-2-sample-unequal-variance</t>
-  </si>
-  <si>
-    <t>T-test 2 sample unequal variance</t>
-  </si>
-  <si>
-    <t>T-Test (unequal variance)</t>
-  </si>
-  <si>
-    <t>TSTU</t>
-  </si>
-  <si>
-    <t>Search for genes based on P-Values calulated by a 2-sample T-Test assuming unequal variance</t>
-  </si>
-  <si>
-    <t>searchCategory-putative-function</t>
-  </si>
-  <si>
-    <t>putative-function</t>
-  </si>
-  <si>
-    <t>Putative Function</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Search for genes based on comparisons of RNAi target sequencing coverage.</t>
-  </si>
-  <si>
-    <t>searchCategory-eqtl-similarity</t>
-  </si>
-  <si>
-    <t>eqtl-similarity</t>
-  </si>
-  <si>
-    <t>Similarity</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Search for genes which have a similar profile for an experiment.</t>
-  </si>
-  <si>
-    <t>searchCategory-similarity</t>
-  </si>
-  <si>
-    <t>similarity</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-quantitative-ratio</t>
-  </si>
-  <si>
-    <t>proteomics-quantitative-ratio</t>
-  </si>
-  <si>
-    <t>Quantitative Ratio</t>
-  </si>
-  <si>
-    <t>QR</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentiated by log2 ratio of heavy to light to determine confidence Log2(H/L).</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-direct-comparison</t>
-  </si>
-  <si>
-    <t>proteomics-direct-comparison</t>
-  </si>
-  <si>
-    <t>Direct Comparison</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed in a 2 state direct comparison.</t>
-  </si>
-  <si>
-    <t>proteomics-direct-conf-comparison</t>
-  </si>
-  <si>
-    <t>Direct Confidence Comparison</t>
-  </si>
-  <si>
-    <t>DCC</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed in a 2 state direct comparison with confidence.</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-direct-comparison</t>
-  </si>
-  <si>
-    <t>transcriptomics-direct-comparison</t>
-  </si>
-  <si>
-    <t>searchCategory-splice-site-loc</t>
-  </si>
-  <si>
-    <t>splice-site-loc</t>
-  </si>
-  <si>
-    <t>Splice Site Loc</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>Search for genes near experimental splice site locations.</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-percentile</t>
-  </si>
-  <si>
-    <t>proteomics-percentile</t>
-  </si>
-  <si>
-    <t>Percentile</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Search for genes based on the rank of expression w/in an experiment.</t>
-  </si>
-  <si>
-    <t>transcriptomics-percentile</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-fold-change</t>
-  </si>
-  <si>
-    <t>proteomics-fold-change</t>
-  </si>
-  <si>
-    <t>Fold Change</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed between two sets of samples.</t>
-  </si>
-  <si>
-    <t>transcriptomics-fold-change</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-fold-difference</t>
-  </si>
-  <si>
-    <t>Proteomicss</t>
-  </si>
-  <si>
-    <t>proteomics-fold-difference</t>
-  </si>
-  <si>
-    <t>Fold Difference</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>Search for genes which are different between two sets of samples.</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-fold-difference</t>
-  </si>
-  <si>
-    <t>transcriptomics-fold-difference</t>
-  </si>
-  <si>
-    <t>searchCategory-fold-change-with-pvalue</t>
-  </si>
-  <si>
-    <t>fold-change-with-pvalue</t>
-  </si>
-  <si>
-    <t>Fold Change with pValue</t>
-  </si>
-  <si>
-    <t>FCpV</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed between 2 samples.  Fishers Exact Test p values for each gene/sample comparison were precomputed.</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-fold-change-with-confidence</t>
-  </si>
-  <si>
-    <t>proteomics-fold-change-with-confidence</t>
-  </si>
-  <si>
-    <t>Fold Change with Confidence</t>
-  </si>
-  <si>
-    <t>FCC</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed between 2 samples.  PaGE Confidence values for each gene/sample comparison were precomputed using all biological replicates.</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-fold-change-with-confidence</t>
-  </si>
-  <si>
-    <t>transcriptomics-fold-change-with-confidence</t>
-  </si>
-  <si>
-    <t>searchCategory-proteomics-fold-change-with-fdr</t>
-  </si>
-  <si>
-    <t>proteomics-fold-change-with-fdr</t>
-  </si>
-  <si>
-    <t>Fold Change with FDR</t>
-  </si>
-  <si>
-    <t>FCF</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed between 2 samples.  False Discovery Rates for each gene/sample comparison were precomputed using all biological replicates.</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-differential-expression</t>
-  </si>
-  <si>
-    <t>transcriptomics-differential_expression</t>
-  </si>
-  <si>
-    <t>Differential Expression</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Search for genes which are differentially expressed between 2 samples.  Adjusted p-values for each gene/sample were pre-computed using DESeq.</t>
-  </si>
-  <si>
-    <t>searchCategory-transcriptomics-fold-change-with-fdr</t>
-  </si>
-  <si>
-    <t>transcriptomics-fold-change-with-fdr</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_3127</t>
   </si>
   <si>
@@ -1210,135 +861,42 @@
     <t>## Gene Questions ##</t>
   </si>
   <si>
-    <t>## Gene Attributes ##</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.organism_common</t>
-  </si>
-  <si>
     <t>organism_common</t>
   </si>
   <si>
     <t>organism_abbrev</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.organism_abbrev</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.ortholog_record_link</t>
-  </si>
-  <si>
     <t>ortholog_record_link</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.symbol</t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.synonym</t>
-  </si>
-  <si>
     <t>synonym</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.is_pseudo_display</t>
-  </si>
-  <si>
     <t>is_pseudo_display</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.chromosomal_location</t>
-  </si>
-  <si>
     <t>chromosomal_location</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.gene_family</t>
-  </si>
-  <si>
     <t>gene_family</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.gene_family_id</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.gene_family_link</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.Transcripts</t>
-  </si>
-  <si>
     <t>Transcripts</t>
   </si>
   <si>
-    <t>ProteinLinkOuts</t>
-  </si>
-  <si>
-    <t>ClinicalLinkOuts</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.SequenceLinkOuts</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.ProteinLinkOuts</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.ClinicalLinkOuts</t>
-  </si>
-  <si>
-    <t>SequenceLinkOuts</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.MassSpecComparison</t>
-  </si>
-  <si>
-    <t>MassSpecComparison</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneLinkOuts</t>
-  </si>
-  <si>
-    <t>GeneLinkOuts</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.chromosomal_location_overview</t>
-  </si>
-  <si>
     <t>chromosomal_location_overview</t>
   </si>
   <si>
     <t>##  Custom Categories ##</t>
   </si>
   <si>
-    <t>## Search Categories ##</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.MicroarrayComparison</t>
-  </si>
-  <si>
-    <t>MicroarrayComparison</t>
-  </si>
-  <si>
-    <t>## Dataset Questions ##</t>
-  </si>
-  <si>
     <t>## Dataset Attributes ##</t>
   </si>
   <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1375,9 +933,6 @@
     <t xml:space="preserve">Literature </t>
   </si>
   <si>
-    <t>Literature</t>
-  </si>
-  <si>
     <t>Molecular interactions</t>
   </si>
   <si>
@@ -1573,21 +1128,6 @@
     <t>http://edamontology.org/topic_3305</t>
   </si>
   <si>
-    <t>searchCategory-transcriptomics</t>
-  </si>
-  <si>
-    <t>transcriptomics</t>
-  </si>
-  <si>
-    <t>Gene Expresssion Analysis</t>
-  </si>
-  <si>
-    <t>GEA</t>
-  </si>
-  <si>
-    <t>Search for genes based on analysis of expression data.</t>
-  </si>
-  <si>
     <t>DatasetRecordClasses.DatasetReleaseNotes.primary_key</t>
   </si>
   <si>
@@ -1792,12 +1332,6 @@
     <t>primary_publication</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.ExpressionProfile</t>
-  </si>
-  <si>
-    <t>ExpressionProfile</t>
-  </si>
-  <si>
     <t>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</t>
   </si>
   <si>
@@ -1837,48 +1371,18 @@
     <t>DatasetRecordClasses.DatasetRecordClass.Searches</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.upload</t>
-  </si>
-  <si>
     <t>GeneQuestions.upload</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.id</t>
-  </si>
-  <si>
     <t>GeneQuestions.id</t>
   </si>
   <si>
     <t>GeneQuestions.keyword</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.keyword</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneDataset.proteomics_comparison</t>
-  </si>
-  <si>
     <t>GeneDataset.proteomics_comparison</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.Study001.study001_comparison</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.Study001.study001_expression</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.Study001.study002_comparison</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.Study001.study002_expression</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.Study005.study005_comparison</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.GeneRecordClass.Study005.study005_expression</t>
-  </si>
-  <si>
     <t>Study001.study001_comparison</t>
   </si>
   <si>
@@ -1897,10 +1401,136 @@
     <t>Study005.study005_expression</t>
   </si>
   <si>
-    <t>GeneRecordClasses.GeneRecordClass.GeneQuestions.go</t>
-  </si>
-  <si>
     <t>GeneQuestions.go</t>
+  </si>
+  <si>
+    <t>## Mouse Gene Attributes ##</t>
+  </si>
+  <si>
+    <t>## Human Gene Attributes ##</t>
+  </si>
+  <si>
+    <t>transcripts</t>
+  </si>
+  <si>
+    <t>gene_link_outs</t>
+  </si>
+  <si>
+    <t>protein_link_outs</t>
+  </si>
+  <si>
+    <t>clinical_link_outs</t>
+  </si>
+  <si>
+    <t>sequence_link_outs</t>
+  </si>
+  <si>
+    <t>go_terms</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.MouseGeneRecordClass</t>
+  </si>
+  <si>
+    <t>GeneRecordClasses.HumanGeneRecordClass</t>
+  </si>
+  <si>
+    <t>gene_family_id</t>
+  </si>
+  <si>
+    <t>gene_family_link</t>
+  </si>
+  <si>
+    <t>study003_comparison</t>
+  </si>
+  <si>
+    <t>study003_modifications</t>
+  </si>
+  <si>
+    <t>pathways</t>
+  </si>
+  <si>
+    <t>study001_within_lineage_comparisons</t>
+  </si>
+  <si>
+    <t>study001_across_lineage_comparisons</t>
+  </si>
+  <si>
+    <t>study001_profiles</t>
+  </si>
+  <si>
+    <t>study002_profiles</t>
+  </si>
+  <si>
+    <t>study005_profiles</t>
+  </si>
+  <si>
+    <t>MouseGeneRecordClasses.MouseGeneRecordClass</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>locus</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>ortholog_source_id</t>
+  </si>
+  <si>
+    <t>ortholog_symbol</t>
+  </si>
+  <si>
+    <t>Study001</t>
+  </si>
+  <si>
+    <t>Study002</t>
+  </si>
+  <si>
+    <t>Study005</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study001</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study002</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study003</t>
+  </si>
+  <si>
+    <t>EPO-regulated targets in erythroid progenitors</t>
+  </si>
+  <si>
+    <t>Ontogeny of erythroid gene expression</t>
+  </si>
+  <si>
+    <t>Study003</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study005</t>
+  </si>
+  <si>
+    <t>EPO phosphorylation PTM targets in UT-7epo-E cells</t>
+  </si>
+  <si>
+    <t>EPO-targets in E1 cells with a truncated Epo receptor</t>
+  </si>
+  <si>
+    <t>study002_lineage_comparisons</t>
+  </si>
+  <si>
+    <t>study002_treatment_comparisons</t>
+  </si>
+  <si>
+    <t>study005_treatment_comparison</t>
+  </si>
+  <si>
+    <t>study005_genotype_comparisons</t>
+  </si>
+  <si>
+    <t>study005_treatment_comparisons</t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1566,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,10 +1861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2327,7 +1961,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2341,7 +1975,7 @@
         <v>163</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2360,12 +1994,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>583</v>
+      <c r="A10" t="str">
+        <f>CONCATENATE(D10,".",F10)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.keyword</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
@@ -2374,13 +2009,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>582</v>
+        <v>422</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -2390,8 +2025,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>580</v>
+      <c r="A11" t="str">
+        <f t="shared" ref="A11:A20" si="0">CONCATENATE(D11,".",F11)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.id</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
@@ -2400,13 +2036,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>581</v>
+        <v>421</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2416,8 +2052,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>578</v>
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.upload</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -2426,21 +2063,22 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>579</v>
+        <v>420</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>598</v>
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.go</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -2449,44 +2087,46 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>599</v>
+        <v>430</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>584</v>
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneDataset.proteomics_comparison</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>585</v>
+        <v>423</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>586</v>
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study001.study001_comparison</v>
       </c>
       <c r="B15" t="s">
         <v>168</v>
@@ -2495,13 +2135,13 @@
         <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>592</v>
+        <v>424</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2511,8 +2151,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>587</v>
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study001.study001_expression</v>
       </c>
       <c r="B16" t="s">
         <v>168</v>
@@ -2521,13 +2162,13 @@
         <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>593</v>
+        <v>425</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2537,8 +2178,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>588</v>
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study002.study002_comparison</v>
       </c>
       <c r="B17" t="s">
         <v>168</v>
@@ -2547,13 +2189,13 @@
         <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>594</v>
+        <v>426</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2563,8 +2205,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>589</v>
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study002.study002_expression</v>
       </c>
       <c r="B18" t="s">
         <v>168</v>
@@ -2573,13 +2216,13 @@
         <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>595</v>
+        <v>427</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2589,8 +2232,9 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>590</v>
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study005.study005_comparison</v>
       </c>
       <c r="B19" t="s">
         <v>168</v>
@@ -2599,13 +2243,13 @@
         <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>596</v>
+        <v>428</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2615,8 +2259,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>591</v>
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study005.study005_expression</v>
       </c>
       <c r="B20" t="s">
         <v>168</v>
@@ -2625,13 +2270,13 @@
         <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>429</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2642,21 +2287,22 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>223</v>
+      <c r="A24" t="str">
+        <f>CONCATENATE(D24,".",F24)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.source_id</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -2665,178 +2311,199 @@
         <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
-      </c>
-      <c r="L24" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="M24" t="s">
+        <v>199</v>
       </c>
       <c r="N24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>225</v>
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:A47" si="1">CONCATENATE(D25,".",F25)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.organism</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>66</v>
       </c>
       <c r="M25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>227</v>
+      <c r="A26" t="str">
+        <f>CONCATENATE(D26,".",F26)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.symbol</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
       </c>
       <c r="L26" t="s">
         <v>66</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>236</v>
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.product</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
       </c>
       <c r="L27" t="s">
         <v>66</v>
       </c>
       <c r="M27" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="N27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>370</v>
+      <c r="A28" t="str">
+        <f>CONCATENATE(D28,".",F28)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.synonym</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
       </c>
       <c r="L28" t="s">
         <v>66</v>
       </c>
       <c r="M28" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>373</v>
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_type</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>372</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
       </c>
       <c r="L29" t="s">
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="N29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>229</v>
+      <c r="A30" t="str">
+        <f>CONCATENATE(D30,".",F30)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -2845,88 +2512,91 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
       </c>
       <c r="M30" t="s">
-        <v>64</v>
-      </c>
-      <c r="N30" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>231</v>
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:A32" si="2">CONCATENATE(D31,".",F31)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>455</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
-      </c>
-      <c r="L31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" t="s">
-        <v>64</v>
+        <v>194</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>233</v>
+      <c r="A32" t="str">
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>456</v>
       </c>
       <c r="J32" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>234</v>
+        <v>194</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>CONCATENATE(D33,".",F33)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.locus</v>
       </c>
       <c r="B33" t="s">
         <v>162</v>
@@ -2935,242 +2605,280 @@
         <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>453</v>
       </c>
       <c r="J33" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
       </c>
       <c r="M33" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="N33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>219</v>
+      <c r="A34" t="str">
+        <f>CONCATENATE(D34,".",F34)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.location</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>454</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="N34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>221</v>
+      <c r="A35" t="str">
+        <f>CONCATENATE(D35,".",F35)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.chromosome</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J35" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
       </c>
       <c r="M35" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="N35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>379</v>
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.strand</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="J36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s">
         <v>66</v>
       </c>
       <c r="M36" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="N36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>238</v>
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.start_min</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s">
         <v>66</v>
       </c>
       <c r="M37" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="N37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>241</v>
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.end_max</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="J38" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="L38" t="s">
+        <v>66</v>
       </c>
       <c r="M38" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="N38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>242</v>
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>434</v>
       </c>
       <c r="J39" t="s">
-        <v>200</v>
-      </c>
-      <c r="L39" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s">
         <v>64</v>
       </c>
+      <c r="N39" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>377</v>
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="J40" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s">
         <v>64</v>
       </c>
+      <c r="N40" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>381</v>
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J41" t="s">
-        <v>200</v>
-      </c>
-      <c r="L41" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="M41" t="s">
         <v>64</v>
@@ -3180,55 +2888,57 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>383</v>
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="J42" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="N42" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>385</v>
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.pathways</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="J43" t="s">
-        <v>200</v>
-      </c>
-      <c r="L43" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="M43" t="s">
         <v>64</v>
@@ -3238,142 +2948,156 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>387</v>
+      <c r="A44" t="str">
+        <f t="shared" ref="A44" si="3">CONCATENATE(D44,".",F44)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.go_terms</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="J44" t="s">
-        <v>200</v>
-      </c>
-      <c r="L44" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="N44" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>389</v>
-      </c>
-      <c r="B45" t="s">
-        <v>180</v>
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="J45" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="N45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>390</v>
-      </c>
-      <c r="B46" t="s">
-        <v>180</v>
+      <c r="A46" t="str">
+        <f t="shared" ref="A46" si="4">CONCATENATE(D46,".",F46)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="J46" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
       </c>
       <c r="M46" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="N46" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>391</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_profiles</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="J47" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
       </c>
       <c r="M47" t="s">
         <v>64</v>
       </c>
-      <c r="N47" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>401</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
+      <c r="A48" t="str">
+        <f t="shared" ref="A48:A53" si="5">CONCATENATE(D48,".",F48)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
       </c>
       <c r="M48" t="s">
         <v>64</v>
@@ -3383,26 +3107,30 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>396</v>
-      </c>
-      <c r="B49" t="s">
-        <v>157</v>
+      <c r="A49" t="str">
+        <f t="shared" ref="A49" si="6">CONCATENATE(D49,".",F49)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
       </c>
       <c r="M49" t="s">
         <v>64</v>
@@ -3412,55 +3140,60 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>397</v>
-      </c>
-      <c r="B50" t="s">
-        <v>157</v>
+      <c r="A50" t="str">
+        <f t="shared" si="5"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_profiles</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="J50" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
       </c>
       <c r="M50" t="s">
         <v>64</v>
       </c>
-      <c r="N50" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>395</v>
-      </c>
-      <c r="B51" t="s">
-        <v>157</v>
+      <c r="A51" t="str">
+        <f t="shared" si="5"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>468</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="J51" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
       </c>
       <c r="M51" t="s">
         <v>64</v>
@@ -3470,26 +3203,30 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" t="s">
-        <v>176</v>
+      <c r="A52" t="str">
+        <f>CONCATENATE(D52,".",F52)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>468</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>214</v>
+        <v>473</v>
       </c>
       <c r="J52" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
@@ -3499,842 +3236,1192 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>211</v>
-      </c>
-      <c r="B53" t="s">
-        <v>188</v>
+      <c r="A53" t="str">
+        <f t="shared" si="5"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_profiles</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>468</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
       </c>
       <c r="M53" t="s">
         <v>64</v>
-      </c>
-      <c r="N53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>399</v>
-      </c>
-      <c r="B54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" t="s">
-        <v>400</v>
-      </c>
-      <c r="J54" t="s">
-        <v>200</v>
-      </c>
-      <c r="M54" t="s">
-        <v>64</v>
-      </c>
-      <c r="N54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" t="s">
-        <v>204</v>
-      </c>
-      <c r="J55" t="s">
-        <v>200</v>
-      </c>
-      <c r="L55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>403</v>
-      </c>
-      <c r="B56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" t="s">
-        <v>404</v>
-      </c>
-      <c r="J56" t="s">
-        <v>200</v>
-      </c>
-      <c r="M56" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>407</v>
-      </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" ref="A59:A90" si="7">CONCATENATE(D59,".",F59)</f>
+        <v>GeneRecordClasses.HumanGeneRecordClass.source_id</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>440</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" t="s">
+        <v>194</v>
+      </c>
+      <c r="L59" t="s">
+        <v>199</v>
+      </c>
+      <c r="N59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.sequence_id</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>440</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" t="s">
+        <v>194</v>
+      </c>
+      <c r="L60" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" t="s">
+        <v>199</v>
+      </c>
+      <c r="N60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.chromosome</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>440</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61" t="s">
+        <v>66</v>
+      </c>
+      <c r="M61" t="s">
+        <v>199</v>
+      </c>
+      <c r="N61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.organism_full</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" t="s">
+        <v>440</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" t="s">
+        <v>64</v>
+      </c>
+      <c r="N62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.organism_common</v>
+      </c>
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
+        <v>440</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" t="s">
+        <v>250</v>
+      </c>
+      <c r="J63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" t="s">
+        <v>64</v>
+      </c>
+      <c r="N63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.organism_abbrev</v>
+      </c>
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
+        <v>440</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>251</v>
+      </c>
+      <c r="J64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L64" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" t="s">
+        <v>64</v>
+      </c>
+      <c r="N64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.product</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>440</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+      <c r="J65" t="s">
+        <v>194</v>
+      </c>
+      <c r="L65" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.gene_type</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>440</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
+      </c>
+      <c r="J66" t="s">
+        <v>194</v>
+      </c>
+      <c r="L66" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" t="s">
+        <v>64</v>
+      </c>
+      <c r="N66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.location_text</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>440</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" t="s">
+        <v>194</v>
+      </c>
+      <c r="M67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.strand_plus_minus</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" t="s">
+        <v>215</v>
+      </c>
+      <c r="J68" t="s">
+        <v>194</v>
+      </c>
+      <c r="M68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.start_min</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>440</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" t="s">
+        <v>208</v>
+      </c>
+      <c r="J69" t="s">
+        <v>194</v>
+      </c>
+      <c r="M69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.end_max</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" t="s">
+        <v>440</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" t="s">
+        <v>209</v>
+      </c>
+      <c r="J70" t="s">
+        <v>194</v>
+      </c>
+      <c r="M70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.symbol</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
+        <v>440</v>
+      </c>
+      <c r="E71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" t="s">
+        <v>253</v>
+      </c>
+      <c r="J71" t="s">
+        <v>194</v>
+      </c>
+      <c r="L71" t="s">
+        <v>66</v>
+      </c>
+      <c r="M71" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.is_pseudo</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" t="s">
+        <v>440</v>
+      </c>
+      <c r="E72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" t="s">
+        <v>217</v>
+      </c>
+      <c r="J72" t="s">
+        <v>194</v>
+      </c>
+      <c r="M72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
+      </c>
+      <c r="B73" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" t="s">
+        <v>440</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" t="s">
+        <v>252</v>
+      </c>
+      <c r="J73" t="s">
+        <v>194</v>
+      </c>
+      <c r="M73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.synonym</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="s">
+        <v>440</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" t="s">
+        <v>254</v>
+      </c>
+      <c r="J74" t="s">
+        <v>194</v>
+      </c>
+      <c r="L74" t="s">
+        <v>66</v>
+      </c>
+      <c r="M74" t="s">
+        <v>64</v>
+      </c>
+      <c r="N74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.is_pseudo_display</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>255</v>
+      </c>
+      <c r="J75" t="s">
+        <v>194</v>
+      </c>
+      <c r="M75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.chromosomal_location</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>440</v>
+      </c>
+      <c r="E76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" t="s">
+        <v>256</v>
+      </c>
+      <c r="J76" t="s">
+        <v>194</v>
+      </c>
+      <c r="L76" t="s">
+        <v>66</v>
+      </c>
+      <c r="M76" t="s">
+        <v>64</v>
+      </c>
+      <c r="N76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.gene_family</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" t="s">
+        <v>440</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" t="s">
+        <v>257</v>
+      </c>
+      <c r="J77" t="s">
+        <v>194</v>
+      </c>
+      <c r="L77" t="s">
+        <v>66</v>
+      </c>
+      <c r="M77" t="s">
+        <v>199</v>
+      </c>
+      <c r="N77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.gene_family_id</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" t="s">
+        <v>440</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" t="s">
+        <v>441</v>
+      </c>
+      <c r="J78" t="s">
+        <v>194</v>
+      </c>
+      <c r="M78" t="s">
+        <v>199</v>
+      </c>
+      <c r="N78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.gene_family_link</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" t="s">
+        <v>442</v>
+      </c>
+      <c r="J79" t="s">
+        <v>194</v>
+      </c>
+      <c r="M79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.transcripts</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+      <c r="E80" t="s">
         <v>85</v>
       </c>
-      <c r="F57" t="s">
-        <v>408</v>
-      </c>
-      <c r="J57" t="s">
-        <v>200</v>
-      </c>
-      <c r="M57" t="s">
-        <v>64</v>
-      </c>
-      <c r="N57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>563</v>
-      </c>
-      <c r="B58" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F80" t="s">
+        <v>433</v>
+      </c>
+      <c r="J80" t="s">
+        <v>194</v>
+      </c>
+      <c r="M80" t="s">
+        <v>64</v>
+      </c>
+      <c r="N80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" t="s">
+        <v>440</v>
+      </c>
+      <c r="E81" t="s">
         <v>85</v>
       </c>
-      <c r="F58" t="s">
-        <v>564</v>
-      </c>
-      <c r="J58" t="s">
-        <v>200</v>
-      </c>
-      <c r="M58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J81" t="s">
+        <v>194</v>
+      </c>
+      <c r="M81" t="s">
+        <v>64</v>
+      </c>
+      <c r="N81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" t="s">
+        <v>440</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s">
+        <v>435</v>
+      </c>
+      <c r="J82" t="s">
+        <v>194</v>
+      </c>
+      <c r="M82" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" t="s">
+        <v>440</v>
+      </c>
+      <c r="E83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" t="s">
+        <v>436</v>
+      </c>
+      <c r="J83" t="s">
+        <v>194</v>
+      </c>
+      <c r="M83" t="s">
+        <v>64</v>
+      </c>
+      <c r="N83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
+      </c>
+      <c r="B84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" t="s">
+        <v>440</v>
+      </c>
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" t="s">
+        <v>437</v>
+      </c>
+      <c r="J84" t="s">
+        <v>194</v>
+      </c>
+      <c r="M84" t="s">
+        <v>64</v>
+      </c>
+      <c r="N84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.go_terms</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>440</v>
+      </c>
+      <c r="E85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" t="s">
+        <v>438</v>
+      </c>
+      <c r="J85" t="s">
+        <v>194</v>
+      </c>
+      <c r="M85" t="s">
+        <v>64</v>
+      </c>
+      <c r="N85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.study003_modifications</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" t="s">
+        <v>440</v>
+      </c>
+      <c r="E86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s">
+        <v>444</v>
+      </c>
+      <c r="J86" t="s">
+        <v>194</v>
+      </c>
+      <c r="M86" t="s">
+        <v>64</v>
+      </c>
+      <c r="N86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.study003_comparison</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
+        <v>440</v>
+      </c>
+      <c r="E87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" t="s">
+        <v>443</v>
+      </c>
+      <c r="J87" t="s">
+        <v>194</v>
+      </c>
+      <c r="M87" t="s">
+        <v>64</v>
+      </c>
+      <c r="N87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.record_overview</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" t="s">
+        <v>440</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>198</v>
+      </c>
+      <c r="J88" t="s">
+        <v>194</v>
+      </c>
+      <c r="L88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.HumanGeneRecordClass.chromosomal_location_overview</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" t="s">
+        <v>440</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>259</v>
+      </c>
+      <c r="J89" t="s">
+        <v>194</v>
+      </c>
+      <c r="M89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneRecordClasses.MouseGeneRecordClass.pathways</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" t="s">
+        <v>439</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="J90" t="s">
+        <v>194</v>
+      </c>
+      <c r="M90" t="s">
+        <v>64</v>
+      </c>
+      <c r="N90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>412</v>
+      </c>
+      <c r="B94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" t="s">
+        <v>411</v>
+      </c>
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" t="s">
+        <v>411</v>
+      </c>
+      <c r="G94" t="s">
+        <v>262</v>
+      </c>
+      <c r="H94" t="s">
+        <v>262</v>
+      </c>
+      <c r="I94" t="s">
+        <v>262</v>
+      </c>
+      <c r="J94" t="s">
+        <v>262</v>
+      </c>
+      <c r="K94" t="s">
+        <v>262</v>
+      </c>
+      <c r="L94" t="s">
+        <v>66</v>
+      </c>
+      <c r="M94" t="s">
+        <v>64</v>
+      </c>
+      <c r="N94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>419</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" t="s">
+        <v>418</v>
+      </c>
+      <c r="G95" t="s">
+        <v>262</v>
+      </c>
+      <c r="H95" t="s">
+        <v>262</v>
+      </c>
+      <c r="I95" t="s">
+        <v>262</v>
+      </c>
+      <c r="J95" t="s">
+        <v>262</v>
+      </c>
+      <c r="K95" t="s">
+        <v>262</v>
+      </c>
+      <c r="M95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>413</v>
+      </c>
+      <c r="D96" t="s">
+        <v>263</v>
+      </c>
+      <c r="E96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s">
+        <v>404</v>
+      </c>
+      <c r="L96" t="s">
+        <v>66</v>
+      </c>
+      <c r="M96" t="s">
+        <v>64</v>
+      </c>
+      <c r="N96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>405</v>
+      </c>
+      <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
+        <v>413</v>
+      </c>
+      <c r="D97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>255</v>
-      </c>
-      <c r="B71" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" t="s">
-        <v>185</v>
-      </c>
-      <c r="F71" t="s">
-        <v>256</v>
-      </c>
-      <c r="G71" t="s">
-        <v>257</v>
-      </c>
-      <c r="H71" t="s">
-        <v>258</v>
-      </c>
-      <c r="I71" t="s">
-        <v>259</v>
-      </c>
-      <c r="L71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" t="s">
-        <v>185</v>
-      </c>
-      <c r="F72" t="s">
-        <v>261</v>
-      </c>
-      <c r="G72" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" t="s">
-        <v>263</v>
-      </c>
-      <c r="I72" t="s">
-        <v>264</v>
-      </c>
-      <c r="L72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" t="s">
-        <v>199</v>
-      </c>
-      <c r="F73" t="s">
-        <v>266</v>
-      </c>
-      <c r="G73" t="s">
-        <v>267</v>
-      </c>
-      <c r="H73" t="s">
-        <v>268</v>
-      </c>
-      <c r="I73" t="s">
-        <v>269</v>
-      </c>
-      <c r="L73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>270</v>
-      </c>
-      <c r="B74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" t="s">
-        <v>185</v>
-      </c>
-      <c r="F74" t="s">
-        <v>271</v>
-      </c>
-      <c r="G74" t="s">
-        <v>272</v>
-      </c>
-      <c r="H74" t="s">
-        <v>273</v>
-      </c>
-      <c r="I74" t="s">
-        <v>274</v>
-      </c>
-      <c r="L74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
-      </c>
-      <c r="F75" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75" t="s">
-        <v>277</v>
-      </c>
-      <c r="H75" t="s">
-        <v>278</v>
-      </c>
-      <c r="I75" t="s">
-        <v>279</v>
-      </c>
-      <c r="L75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="F76" t="s">
-        <v>281</v>
-      </c>
-      <c r="G76" t="s">
-        <v>277</v>
-      </c>
-      <c r="H76" t="s">
-        <v>278</v>
-      </c>
-      <c r="I76" t="s">
-        <v>279</v>
-      </c>
-      <c r="L76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>282</v>
-      </c>
-      <c r="B77" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77" t="s">
-        <v>283</v>
-      </c>
-      <c r="G77" t="s">
-        <v>284</v>
-      </c>
-      <c r="H77" t="s">
-        <v>285</v>
-      </c>
-      <c r="I77" t="s">
-        <v>286</v>
-      </c>
-      <c r="L77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" t="s">
-        <v>288</v>
-      </c>
-      <c r="G78" t="s">
-        <v>289</v>
-      </c>
-      <c r="H78" t="s">
-        <v>290</v>
-      </c>
-      <c r="I78" t="s">
-        <v>291</v>
-      </c>
-      <c r="L78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" t="s">
-        <v>189</v>
-      </c>
-      <c r="F79" t="s">
-        <v>292</v>
-      </c>
-      <c r="G79" t="s">
-        <v>293</v>
-      </c>
-      <c r="H79" t="s">
-        <v>294</v>
-      </c>
-      <c r="I79" t="s">
-        <v>295</v>
-      </c>
-      <c r="L79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>296</v>
-      </c>
-      <c r="B80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="F80" t="s">
-        <v>297</v>
-      </c>
-      <c r="G80" t="s">
-        <v>289</v>
-      </c>
-      <c r="H80" t="s">
-        <v>290</v>
-      </c>
-      <c r="I80" t="s">
-        <v>291</v>
-      </c>
-      <c r="L80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>298</v>
-      </c>
-      <c r="B81" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" t="s">
-        <v>299</v>
-      </c>
-      <c r="G81" t="s">
-        <v>300</v>
-      </c>
-      <c r="H81" t="s">
-        <v>301</v>
-      </c>
-      <c r="I81" t="s">
-        <v>302</v>
-      </c>
-      <c r="L81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" t="s">
-        <v>189</v>
-      </c>
-      <c r="F82" t="s">
-        <v>304</v>
-      </c>
-      <c r="G82" t="s">
-        <v>305</v>
-      </c>
-      <c r="H82" t="s">
-        <v>306</v>
-      </c>
-      <c r="I82" t="s">
-        <v>307</v>
-      </c>
-      <c r="L82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>173</v>
-      </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" t="s">
-        <v>308</v>
-      </c>
-      <c r="G83" t="s">
-        <v>305</v>
-      </c>
-      <c r="H83" t="s">
-        <v>306</v>
-      </c>
-      <c r="I83" t="s">
-        <v>307</v>
-      </c>
-      <c r="L83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>309</v>
-      </c>
-      <c r="B84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" t="s">
-        <v>189</v>
-      </c>
-      <c r="F84" t="s">
-        <v>310</v>
-      </c>
-      <c r="G84" t="s">
-        <v>311</v>
-      </c>
-      <c r="H84" t="s">
-        <v>312</v>
-      </c>
-      <c r="I84" t="s">
-        <v>313</v>
-      </c>
-      <c r="L84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" t="s">
-        <v>311</v>
-      </c>
-      <c r="H85" t="s">
-        <v>312</v>
-      </c>
-      <c r="I85" t="s">
-        <v>313</v>
-      </c>
-      <c r="L85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>315</v>
-      </c>
-      <c r="B86" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" t="s">
-        <v>316</v>
-      </c>
-      <c r="F86" t="s">
-        <v>317</v>
-      </c>
-      <c r="G86" t="s">
-        <v>318</v>
-      </c>
-      <c r="H86" t="s">
-        <v>319</v>
-      </c>
-      <c r="I86" t="s">
-        <v>320</v>
-      </c>
-      <c r="L86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>321</v>
-      </c>
-      <c r="B87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>322</v>
-      </c>
-      <c r="G87" t="s">
-        <v>318</v>
-      </c>
-      <c r="H87" t="s">
-        <v>319</v>
-      </c>
-      <c r="I87" t="s">
-        <v>320</v>
-      </c>
-      <c r="L87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>323</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G88" t="s">
-        <v>325</v>
-      </c>
-      <c r="H88" t="s">
-        <v>326</v>
-      </c>
-      <c r="I88" t="s">
-        <v>327</v>
-      </c>
-      <c r="L88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>328</v>
-      </c>
-      <c r="B89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89" t="s">
-        <v>329</v>
-      </c>
-      <c r="G89" t="s">
-        <v>330</v>
-      </c>
-      <c r="H89" t="s">
-        <v>331</v>
-      </c>
-      <c r="I89" t="s">
-        <v>332</v>
-      </c>
-      <c r="L89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>333</v>
-      </c>
-      <c r="B90" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>334</v>
-      </c>
-      <c r="G90" t="s">
-        <v>330</v>
-      </c>
-      <c r="H90" t="s">
-        <v>331</v>
-      </c>
-      <c r="I90" t="s">
-        <v>332</v>
-      </c>
-      <c r="L90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>335</v>
-      </c>
-      <c r="B91" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91" t="s">
-        <v>336</v>
-      </c>
-      <c r="G91" t="s">
-        <v>337</v>
-      </c>
-      <c r="H91" t="s">
-        <v>338</v>
-      </c>
-      <c r="I91" t="s">
-        <v>339</v>
-      </c>
-      <c r="L91" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>340</v>
-      </c>
-      <c r="B92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>341</v>
-      </c>
-      <c r="G92" t="s">
-        <v>342</v>
-      </c>
-      <c r="H92" t="s">
-        <v>343</v>
-      </c>
-      <c r="I92" t="s">
-        <v>344</v>
-      </c>
-      <c r="L92" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>345</v>
-      </c>
-      <c r="B93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="F93" t="s">
-        <v>346</v>
-      </c>
-      <c r="G93" t="s">
-        <v>337</v>
-      </c>
-      <c r="H93" t="s">
-        <v>338</v>
-      </c>
-      <c r="I93" t="s">
-        <v>339</v>
-      </c>
-      <c r="L93" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>490</v>
-      </c>
-      <c r="B94" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" t="s">
-        <v>491</v>
-      </c>
-      <c r="G94" t="s">
-        <v>492</v>
-      </c>
-      <c r="H94" t="s">
-        <v>493</v>
-      </c>
-      <c r="I94" t="s">
-        <v>494</v>
-      </c>
-      <c r="L94" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>409</v>
+      <c r="L97" t="s">
+        <v>66</v>
+      </c>
+      <c r="M97" t="s">
+        <v>64</v>
+      </c>
+      <c r="N97" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>413</v>
+      </c>
+      <c r="D98" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98" t="s">
+        <v>409</v>
+      </c>
+      <c r="L98" t="s">
+        <v>66</v>
+      </c>
+      <c r="M98" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>570</v>
+        <v>408</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>569</v>
+        <v>413</v>
       </c>
       <c r="D99" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>569</v>
-      </c>
-      <c r="G99" t="s">
-        <v>412</v>
-      </c>
-      <c r="H99" t="s">
-        <v>412</v>
-      </c>
-      <c r="I99" t="s">
-        <v>412</v>
-      </c>
-      <c r="J99" t="s">
-        <v>412</v>
-      </c>
-      <c r="K99" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L99" t="s">
         <v>66</v>
@@ -4348,60 +4435,51 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>577</v>
+        <v>414</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>576</v>
+        <v>413</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E100" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>576</v>
-      </c>
-      <c r="G100" t="s">
-        <v>412</v>
-      </c>
-      <c r="H100" t="s">
-        <v>412</v>
-      </c>
-      <c r="I100" t="s">
-        <v>412</v>
-      </c>
-      <c r="J100" t="s">
-        <v>412</v>
-      </c>
-      <c r="K100" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+      <c r="L100" t="s">
+        <v>66</v>
       </c>
       <c r="M100" t="s">
         <v>64</v>
+      </c>
+      <c r="N100" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>571</v>
+        <v>413</v>
       </c>
       <c r="D101" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E101" t="s">
         <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>560</v>
+        <v>417</v>
       </c>
       <c r="L101" t="s">
         <v>66</v>
@@ -4410,148 +4488,6 @@
         <v>64</v>
       </c>
       <c r="N101" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>561</v>
-      </c>
-      <c r="B102" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" t="s">
-        <v>571</v>
-      </c>
-      <c r="D102" t="s">
-        <v>413</v>
-      </c>
-      <c r="E102" t="s">
-        <v>62</v>
-      </c>
-      <c r="F102" t="s">
-        <v>562</v>
-      </c>
-      <c r="L102" t="s">
-        <v>66</v>
-      </c>
-      <c r="M102" t="s">
-        <v>64</v>
-      </c>
-      <c r="N102" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>565</v>
-      </c>
-      <c r="B103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" t="s">
-        <v>571</v>
-      </c>
-      <c r="D103" t="s">
-        <v>413</v>
-      </c>
-      <c r="E103" t="s">
-        <v>62</v>
-      </c>
-      <c r="F103" t="s">
-        <v>567</v>
-      </c>
-      <c r="L103" t="s">
-        <v>66</v>
-      </c>
-      <c r="M103" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>566</v>
-      </c>
-      <c r="B104" t="s">
-        <v>217</v>
-      </c>
-      <c r="C104" t="s">
-        <v>571</v>
-      </c>
-      <c r="D104" t="s">
-        <v>413</v>
-      </c>
-      <c r="E104" t="s">
-        <v>62</v>
-      </c>
-      <c r="F104" t="s">
-        <v>568</v>
-      </c>
-      <c r="L104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M104" t="s">
-        <v>64</v>
-      </c>
-      <c r="N104" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>572</v>
-      </c>
-      <c r="B105" t="s">
-        <v>217</v>
-      </c>
-      <c r="C105" t="s">
-        <v>571</v>
-      </c>
-      <c r="D105" t="s">
-        <v>413</v>
-      </c>
-      <c r="E105" t="s">
-        <v>62</v>
-      </c>
-      <c r="F105" t="s">
-        <v>573</v>
-      </c>
-      <c r="L105" t="s">
-        <v>66</v>
-      </c>
-      <c r="M105" t="s">
-        <v>64</v>
-      </c>
-      <c r="N105" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>574</v>
-      </c>
-      <c r="B106" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" t="s">
-        <v>571</v>
-      </c>
-      <c r="D106" t="s">
-        <v>413</v>
-      </c>
-      <c r="E106" t="s">
-        <v>62</v>
-      </c>
-      <c r="F106" t="s">
-        <v>575</v>
-      </c>
-      <c r="L106" t="s">
-        <v>66</v>
-      </c>
-      <c r="M106" t="s">
-        <v>64</v>
-      </c>
-      <c r="N106" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6072,256 +6008,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0452A-4FB9-4500-9B58-DC3A1BF00BD2}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A29" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" t="s">
-        <v>375</v>
-      </c>
       <c r="C1" t="s">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B2" t="s">
-        <v>412</v>
-      </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+        <v>265</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>270</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>192</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>171</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>276</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>429</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6332,38 +6256,38 @@
         <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>179</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>185</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6374,626 +6298,668 @@
         <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>284</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>435</v>
+        <v>286</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>440</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>486</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>487</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>486</v>
+        <v>237</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
-        <v>489</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>392</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>392</v>
+        <v>239</v>
       </c>
       <c r="D32">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="D33">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="D34">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="D35">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>441</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>294</v>
       </c>
       <c r="D36">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>442</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>295</v>
       </c>
       <c r="D37">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>443</v>
+        <v>297</v>
       </c>
       <c r="D38">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>298</v>
       </c>
       <c r="D39">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>446</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s">
-        <v>447</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>446</v>
+        <v>299</v>
       </c>
       <c r="D40">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>223</v>
       </c>
       <c r="D41">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>449</v>
+        <v>300</v>
       </c>
       <c r="D42">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="D43">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="D44">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>359</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>305</v>
       </c>
       <c r="D45">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>452</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>203</v>
       </c>
       <c r="D46">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>454</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>306</v>
       </c>
       <c r="D47">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="C48" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="D48">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="D49">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>458</v>
+        <v>313</v>
       </c>
       <c r="C50" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="D50">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>459</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>459</v>
+        <v>315</v>
       </c>
       <c r="D51">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>461</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>317</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>316</v>
       </c>
       <c r="D52">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="D53">
-        <v>124</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>465</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
-        <v>466</v>
+        <v>319</v>
       </c>
       <c r="D54">
-        <v>125</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>468</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
       <c r="D55">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>323</v>
       </c>
       <c r="D56">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>470</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>471</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>229</v>
       </c>
       <c r="D57">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="D58">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s">
-        <v>474</v>
+        <v>328</v>
       </c>
       <c r="D59">
-        <v>203</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D60">
-        <v>204</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>475</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>476</v>
+        <v>333</v>
       </c>
       <c r="D61">
-        <v>205</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>477</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>478</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>479</v>
+        <v>334</v>
       </c>
       <c r="D62">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>481</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>335</v>
       </c>
       <c r="D63">
-        <v>301</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>482</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s">
-        <v>484</v>
+        <v>337</v>
       </c>
       <c r="D64">
-        <v>302</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>365</v>
-      </c>
-      <c r="B65" t="s">
-        <v>364</v>
+        <v>457</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C65" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="D65">
-        <v>303</v>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" t="s">
+        <v>463</v>
+      </c>
+      <c r="D66">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>459</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>465</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C68" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68">
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -7104,10 +7070,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>340</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -7127,7 +7093,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>155</v>
@@ -7136,33 +7102,33 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>498</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>344</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -7176,7 +7142,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
@@ -7185,13 +7151,13 @@
         <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>347</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -7205,7 +7171,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>155</v>
@@ -7214,13 +7180,13 @@
         <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>505</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -7234,7 +7200,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>155</v>
@@ -7243,7 +7209,7 @@
         <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -7263,7 +7229,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>157</v>
@@ -7272,13 +7238,13 @@
         <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>508</v>
+        <v>352</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -7292,7 +7258,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
@@ -7301,13 +7267,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>510</v>
+        <v>354</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -7321,7 +7287,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
@@ -7330,13 +7296,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -7350,7 +7316,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -7359,13 +7325,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>514</v>
+        <v>358</v>
       </c>
       <c r="L12" t="s">
         <v>66</v>
@@ -7379,7 +7345,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>157</v>
@@ -7388,13 +7354,13 @@
         <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>516</v>
+        <v>360</v>
       </c>
       <c r="N13" t="s">
         <v>65</v>
@@ -7402,10 +7368,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>361</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
@@ -7422,7 +7388,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
         <v>155</v>
@@ -7431,13 +7397,13 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>519</v>
+        <v>363</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -7448,7 +7414,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>155</v>
@@ -7457,13 +7423,13 @@
         <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>521</v>
+        <v>365</v>
       </c>
       <c r="L16" t="s">
         <v>66</v>
@@ -7474,7 +7440,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>155</v>
@@ -7483,18 +7449,18 @@
         <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>523</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>524</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
         <v>155</v>
@@ -7503,18 +7469,18 @@
         <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
         <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>525</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>155</v>
@@ -7523,13 +7489,13 @@
         <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E19" t="s">
         <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>527</v>
+        <v>371</v>
       </c>
       <c r="N19" t="s">
         <v>65</v>
@@ -7537,7 +7503,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>372</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
@@ -7546,13 +7512,13 @@
         <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>529</v>
+        <v>373</v>
       </c>
       <c r="N20" t="s">
         <v>65</v>
@@ -7560,7 +7526,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
         <v>155</v>
@@ -7569,13 +7535,13 @@
         <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>531</v>
+        <v>375</v>
       </c>
       <c r="N21" t="s">
         <v>65</v>
@@ -7583,7 +7549,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>532</v>
+        <v>376</v>
       </c>
       <c r="B22" t="s">
         <v>155</v>
@@ -7592,7 +7558,7 @@
         <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -7612,7 +7578,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
         <v>155</v>
@@ -7621,13 +7587,13 @@
         <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>534</v>
+        <v>378</v>
       </c>
       <c r="N23" t="s">
         <v>65</v>
@@ -7635,7 +7601,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>535</v>
+        <v>379</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -7644,13 +7610,13 @@
         <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>536</v>
+        <v>380</v>
       </c>
       <c r="N24" t="s">
         <v>65</v>
@@ -7658,7 +7624,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>537</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -7667,13 +7633,13 @@
         <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>538</v>
+        <v>382</v>
       </c>
       <c r="N25" t="s">
         <v>65</v>
@@ -7681,7 +7647,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>539</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
         <v>155</v>
@@ -7690,13 +7656,13 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>540</v>
+        <v>384</v>
       </c>
       <c r="N26" t="s">
         <v>65</v>
@@ -7704,7 +7670,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>541</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
@@ -7713,13 +7679,13 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>542</v>
+        <v>386</v>
       </c>
       <c r="N27" t="s">
         <v>65</v>
@@ -7727,7 +7693,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>543</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -7736,13 +7702,13 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="N28" t="s">
         <v>65</v>
@@ -7750,7 +7716,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -7759,7 +7725,7 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -7773,7 +7739,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>546</v>
+        <v>390</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -7782,13 +7748,13 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
@@ -7802,7 +7768,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>548</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
         <v>155</v>
@@ -7811,19 +7777,19 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>549</v>
+        <v>393</v>
       </c>
       <c r="L31" t="s">
         <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
@@ -7831,7 +7797,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
       <c r="B32" t="s">
         <v>155</v>
@@ -7840,7 +7806,7 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -7860,7 +7826,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>551</v>
+        <v>395</v>
       </c>
       <c r="B33" t="s">
         <v>155</v>
@@ -7869,13 +7835,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="L33" t="s">
         <v>66</v>
@@ -7889,7 +7855,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>553</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
         <v>155</v>
@@ -7898,13 +7864,13 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>554</v>
+        <v>398</v>
       </c>
       <c r="L34" t="s">
         <v>66</v>
@@ -7918,7 +7884,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>555</v>
+        <v>399</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
@@ -7927,13 +7893,13 @@
         <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N35" t="s">
         <v>65</v>
@@ -7941,7 +7907,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>557</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
@@ -7950,13 +7916,13 @@
         <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>558</v>
+        <v>402</v>
       </c>
       <c r="L36" t="s">
         <v>66</v>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB750D12-A5D6-4B7C-9812-25C176DED572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE169FB-7E8D-4AE2-BCE4-BCE6FB713F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="commonIndividuals" localSheetId="3">common!$A$1:$N$36</definedName>
-    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$88</definedName>
+    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$59</definedName>
     <definedName name="individuals" localSheetId="1">orthomcl!$A$1:$N$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,8 +108,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="455">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -642,9 +664,6 @@
     <t>http://edamontology.org/topic_3299</t>
   </si>
   <si>
-    <t>Evolutionary Biology</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_0140</t>
   </si>
   <si>
@@ -705,9 +724,6 @@
     <t>Genetic variation</t>
   </si>
   <si>
-    <t>record_overview</t>
-  </si>
-  <si>
     <t>record-internal</t>
   </si>
   <si>
@@ -741,30 +757,12 @@
     <t>end_max</t>
   </si>
   <si>
-    <t>annot and cur</t>
-  </si>
-  <si>
-    <t>sequence_id</t>
-  </si>
-  <si>
     <t>chromosome</t>
   </si>
   <si>
     <t>gene_type</t>
   </si>
   <si>
-    <t>location_text</t>
-  </si>
-  <si>
-    <t>strand_plus_minus</t>
-  </si>
-  <si>
-    <t>organism_full</t>
-  </si>
-  <si>
-    <t>is_pseudo</t>
-  </si>
-  <si>
     <t>http://edamontology.org/data_2977</t>
   </si>
   <si>
@@ -861,12 +859,6 @@
     <t>## Gene Questions ##</t>
   </si>
   <si>
-    <t>organism_common</t>
-  </si>
-  <si>
-    <t>organism_abbrev</t>
-  </si>
-  <si>
     <t>ortholog_record_link</t>
   </si>
   <si>
@@ -876,21 +868,9 @@
     <t>synonym</t>
   </si>
   <si>
-    <t>is_pseudo_display</t>
-  </si>
-  <si>
-    <t>chromosomal_location</t>
-  </si>
-  <si>
-    <t>gene_family</t>
-  </si>
-  <si>
     <t>Transcripts</t>
   </si>
   <si>
-    <t>chromosomal_location_overview</t>
-  </si>
-  <si>
     <t>##  Custom Categories ##</t>
   </si>
   <si>
@@ -1410,9 +1390,6 @@
     <t>## Human Gene Attributes ##</t>
   </si>
   <si>
-    <t>transcripts</t>
-  </si>
-  <si>
     <t>gene_link_outs</t>
   </si>
   <si>
@@ -1428,24 +1405,6 @@
     <t>go_terms</t>
   </si>
   <si>
-    <t>GeneRecordClasses.MouseGeneRecordClass</t>
-  </si>
-  <si>
-    <t>GeneRecordClasses.HumanGeneRecordClass</t>
-  </si>
-  <si>
-    <t>gene_family_id</t>
-  </si>
-  <si>
-    <t>gene_family_link</t>
-  </si>
-  <si>
-    <t>study003_comparison</t>
-  </si>
-  <si>
-    <t>study003_modifications</t>
-  </si>
-  <si>
     <t>pathways</t>
   </si>
   <si>
@@ -1524,13 +1483,19 @@
     <t>study002_treatment_comparisons</t>
   </si>
   <si>
-    <t>study005_treatment_comparison</t>
-  </si>
-  <si>
     <t>study005_genotype_comparisons</t>
   </si>
   <si>
     <t>study005_treatment_comparisons</t>
+  </si>
+  <si>
+    <t>HumanGeneRecordClasses.HumanGeneRecordClass</t>
+  </si>
+  <si>
+    <t>study003_ptm</t>
+  </si>
+  <si>
+    <t>study003_comparisons</t>
   </si>
 </sst>
 </file>
@@ -1861,13 +1826,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1926,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1994,7 +1959,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2009,13 +1974,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -2036,13 +2001,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2063,13 +2028,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -2087,13 +2052,13 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -2105,19 +2070,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneDataset.proteomics_comparison</v>
       </c>
       <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
         <v>184</v>
       </c>
-      <c r="C14" t="s">
-        <v>185</v>
-      </c>
       <c r="D14" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -2135,13 +2100,13 @@
         <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2162,13 +2127,13 @@
         <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2189,13 +2154,13 @@
         <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2216,13 +2181,13 @@
         <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2243,13 +2208,13 @@
         <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2270,13 +2235,13 @@
         <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2287,7 +2252,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2302,7 +2267,7 @@
         <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -2311,10 +2276,10 @@
         <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N24" t="s">
         <v>65</v>
@@ -2332,16 +2297,16 @@
         <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2350,7 +2315,7 @@
         <v>66</v>
       </c>
       <c r="M25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N25" t="s">
         <v>65</v>
@@ -2368,16 +2333,16 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2386,7 +2351,7 @@
         <v>66</v>
       </c>
       <c r="M26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s">
         <v>65</v>
@@ -2404,7 +2369,7 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
@@ -2413,7 +2378,7 @@
         <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2422,7 +2387,7 @@
         <v>66</v>
       </c>
       <c r="M27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s">
         <v>65</v>
@@ -2440,16 +2405,16 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -2458,7 +2423,7 @@
         <v>66</v>
       </c>
       <c r="M28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s">
         <v>65</v>
@@ -2476,16 +2441,16 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -2494,7 +2459,7 @@
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N29" t="s">
         <v>65</v>
@@ -2512,16 +2477,16 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -2530,7 +2495,7 @@
         <v>66</v>
       </c>
       <c r="M30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2545,16 +2510,16 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="J31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -2575,16 +2540,16 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="J32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -2605,16 +2570,16 @@
         <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2623,7 +2588,7 @@
         <v>66</v>
       </c>
       <c r="M33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N33" t="s">
         <v>65</v>
@@ -2641,16 +2606,16 @@
         <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="J34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2659,7 +2624,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N34" t="s">
         <v>65</v>
@@ -2677,22 +2642,22 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s">
         <v>66</v>
       </c>
       <c r="M35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N35" t="s">
         <v>65</v>
@@ -2710,22 +2675,22 @@
         <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="J36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s">
         <v>66</v>
       </c>
       <c r="M36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s">
         <v>65</v>
@@ -2743,22 +2708,22 @@
         <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s">
         <v>66</v>
       </c>
       <c r="M37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N37" t="s">
         <v>65</v>
@@ -2776,22 +2741,22 @@
         <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s">
         <v>66</v>
       </c>
       <c r="M38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N38" t="s">
         <v>65</v>
@@ -2809,16 +2774,16 @@
         <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="J39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M39" t="s">
         <v>64</v>
@@ -2839,16 +2804,16 @@
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E40" t="s">
         <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="J40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s">
         <v>64</v>
@@ -2869,16 +2834,16 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="J41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s">
         <v>64</v>
@@ -2899,16 +2864,16 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s">
         <v>64</v>
@@ -2929,16 +2894,16 @@
         <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E43" t="s">
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="J43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M43" t="s">
         <v>64</v>
@@ -2959,16 +2924,16 @@
         <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M44" t="s">
         <v>64</v>
@@ -2983,22 +2948,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C45" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D45" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="J45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -3016,22 +2981,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C46" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D46" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E46" t="s">
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="J46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -3049,22 +3014,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_profiles</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C47" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D47" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3079,22 +3044,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C48" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -3112,22 +3077,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C49" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="J49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -3145,22 +3110,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_profiles</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D50" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3175,22 +3140,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C51" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -3208,22 +3173,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="J52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -3241,22 +3206,22 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_profiles</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C53" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D53" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="J53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3267,22 +3232,22 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" ref="A59:A90" si="7">CONCATENATE(D59,".",F59)</f>
-        <v>GeneRecordClasses.HumanGeneRecordClass.source_id</v>
+        <f t="shared" ref="A59:A60" si="7">CONCATENATE(D59,".",F59)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
       </c>
       <c r="B59" t="s">
         <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E59" t="s">
         <v>62</v>
@@ -3291,10 +3256,10 @@
         <v>127</v>
       </c>
       <c r="J59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N59" t="s">
         <v>65</v>
@@ -3303,31 +3268,34 @@
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.sequence_id</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E60" t="s">
         <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
       </c>
       <c r="L60" t="s">
         <v>66</v>
       </c>
       <c r="M60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N60" t="s">
         <v>65</v>
@@ -3335,32 +3303,35 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.chromosome</v>
+        <f>CONCATENATE(D61,".",F61)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E61" t="s">
         <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="J61" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
       </c>
       <c r="L61" t="s">
         <v>66</v>
       </c>
       <c r="M61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N61" t="s">
         <v>65</v>
@@ -3368,32 +3339,35 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.organism_full</v>
+        <f t="shared" ref="A62" si="8">CONCATENATE(D62,".",F62)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E62" t="s">
         <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="J62" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
       </c>
       <c r="L62" t="s">
         <v>66</v>
       </c>
       <c r="M62" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N62" t="s">
         <v>65</v>
@@ -3401,32 +3375,35 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.organism_common</v>
+        <f>CONCATENATE(D63,".",F63)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E63" t="s">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J63" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
       </c>
       <c r="L63" t="s">
         <v>66</v>
       </c>
       <c r="M63" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N63" t="s">
         <v>65</v>
@@ -3434,32 +3411,35 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.organism_abbrev</v>
+        <f t="shared" ref="A64" si="9">CONCATENATE(D64,".",F64)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="J64" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
       </c>
       <c r="L64" t="s">
         <v>66</v>
       </c>
       <c r="M64" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N64" t="s">
         <v>65</v>
@@ -3467,8 +3447,8 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.product</v>
+        <f>CONCATENATE(D65,".",F65)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -3477,55 +3457,52 @@
         <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E65" t="s">
         <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="J65" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
       </c>
       <c r="L65" t="s">
         <v>66</v>
       </c>
       <c r="M65" t="s">
-        <v>64</v>
-      </c>
-      <c r="N65" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.gene_type</v>
+        <f t="shared" ref="A66:A67" si="10">CONCATENATE(D66,".",F66)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>213</v>
+        <v>434</v>
       </c>
       <c r="J66" t="s">
-        <v>194</v>
-      </c>
-      <c r="L66" t="s">
-        <v>66</v>
-      </c>
-      <c r="M66" t="s">
-        <v>64</v>
+        <v>193</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
       </c>
       <c r="N66" t="s">
         <v>65</v>
@@ -3533,35 +3510,38 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.location_text</v>
+        <f t="shared" si="10"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E67" t="s">
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>435</v>
       </c>
       <c r="J67" t="s">
-        <v>194</v>
-      </c>
-      <c r="M67" t="s">
-        <v>199</v>
+        <v>193</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="N67" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.strand_plus_minus</v>
+        <f>CONCATENATE(D68,".",F68)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -3570,103 +3550,127 @@
         <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="J68" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>66</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="N68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.start_min</v>
+        <f>CONCATENATE(D69,".",F69)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E69" t="s">
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="J69" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>66</v>
       </c>
       <c r="M69" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="N69" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.end_max</v>
+        <f>CONCATENATE(D70,".",F70)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J70" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="L70" t="s">
+        <v>66</v>
       </c>
       <c r="M70" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="N70" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.symbol</v>
+        <f t="shared" ref="A71:A81" si="11">CONCATENATE(D71,".",F71)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>253</v>
+        <v>431</v>
       </c>
       <c r="J71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L71" t="s">
         <v>66</v>
       </c>
       <c r="M71" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N71" t="s">
         <v>65</v>
@@ -3674,8 +3678,8 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.is_pseudo</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
       </c>
       <c r="B72" t="s">
         <v>174</v>
@@ -3684,73 +3688,82 @@
         <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J72" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="L72" t="s">
+        <v>66</v>
       </c>
       <c r="M72" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="N72" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E73" t="s">
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="J73" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="L73" t="s">
+        <v>66</v>
       </c>
       <c r="M73" t="s">
-        <v>64</v>
+        <v>197</v>
+      </c>
+      <c r="N73" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.synonym</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="J74" t="s">
-        <v>194</v>
-      </c>
-      <c r="L74" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="M74" t="s">
         <v>64</v>
@@ -3761,56 +3774,56 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.is_pseudo_display</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="J75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M75" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="N75" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.chromosomal_location</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="J76" t="s">
-        <v>194</v>
-      </c>
-      <c r="L76" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="M76" t="s">
         <v>64</v>
@@ -3821,32 +3834,29 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.gene_family</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>422</v>
       </c>
       <c r="J77" t="s">
-        <v>194</v>
-      </c>
-      <c r="L77" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
@@ -3854,29 +3864,29 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.gene_family_id</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M78" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="N78" t="s">
         <v>65</v>
@@ -3884,53 +3894,59 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.gene_family_link</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="J79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M79" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="N79" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.transcripts</v>
-      </c>
-      <c r="B80" t="s">
-        <v>174</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>446</v>
       </c>
       <c r="D80" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="J80" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
       </c>
       <c r="M80" t="s">
         <v>64</v>
@@ -3941,26 +3957,29 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
-      </c>
-      <c r="B81" t="s">
-        <v>157</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="D81" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E81" t="s">
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="J81" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
       </c>
       <c r="M81" t="s">
         <v>64</v>
@@ -3969,525 +3988,267 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" t="s">
-        <v>440</v>
-      </c>
-      <c r="E82" t="s">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" cm="1">
+        <f t="array" aca="1" ref="A157" ca="1">157:184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>398</v>
+      </c>
+      <c r="B160" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" t="s">
+        <v>397</v>
+      </c>
+      <c r="D160" t="s">
+        <v>249</v>
+      </c>
+      <c r="E160" t="s">
         <v>85</v>
       </c>
-      <c r="F82" t="s">
-        <v>435</v>
-      </c>
-      <c r="J82" t="s">
-        <v>194</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="F160" t="s">
+        <v>397</v>
+      </c>
+      <c r="G160" t="s">
+        <v>248</v>
+      </c>
+      <c r="H160" t="s">
+        <v>248</v>
+      </c>
+      <c r="I160" t="s">
+        <v>248</v>
+      </c>
+      <c r="J160" t="s">
+        <v>248</v>
+      </c>
+      <c r="K160" t="s">
+        <v>248</v>
+      </c>
+      <c r="L160" t="s">
+        <v>66</v>
+      </c>
+      <c r="M160" t="s">
         <v>64</v>
       </c>
-      <c r="N82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
-      </c>
-      <c r="B83" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" t="s">
-        <v>440</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="N160" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" t="s">
+        <v>217</v>
+      </c>
+      <c r="C161" t="s">
+        <v>404</v>
+      </c>
+      <c r="D161" t="s">
+        <v>249</v>
+      </c>
+      <c r="E161" t="s">
         <v>85</v>
       </c>
-      <c r="F83" t="s">
-        <v>436</v>
-      </c>
-      <c r="J83" t="s">
-        <v>194</v>
-      </c>
-      <c r="M83" t="s">
+      <c r="F161" t="s">
+        <v>404</v>
+      </c>
+      <c r="G161" t="s">
+        <v>248</v>
+      </c>
+      <c r="H161" t="s">
+        <v>248</v>
+      </c>
+      <c r="I161" t="s">
+        <v>248</v>
+      </c>
+      <c r="J161" t="s">
+        <v>248</v>
+      </c>
+      <c r="K161" t="s">
+        <v>248</v>
+      </c>
+      <c r="M161" t="s">
         <v>64</v>
       </c>
-      <c r="N83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
-      </c>
-      <c r="B84" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" t="s">
-        <v>440</v>
-      </c>
-      <c r="E84" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" t="s">
-        <v>437</v>
-      </c>
-      <c r="J84" t="s">
-        <v>194</v>
-      </c>
-      <c r="M84" t="s">
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>389</v>
+      </c>
+      <c r="B162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" t="s">
+        <v>399</v>
+      </c>
+      <c r="D162" t="s">
+        <v>249</v>
+      </c>
+      <c r="E162" t="s">
+        <v>62</v>
+      </c>
+      <c r="F162" t="s">
+        <v>390</v>
+      </c>
+      <c r="L162" t="s">
+        <v>66</v>
+      </c>
+      <c r="M162" t="s">
         <v>64</v>
       </c>
-      <c r="N84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.go_terms</v>
-      </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" t="s">
-        <v>440</v>
-      </c>
-      <c r="E85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" t="s">
-        <v>438</v>
-      </c>
-      <c r="J85" t="s">
-        <v>194</v>
-      </c>
-      <c r="M85" t="s">
+      <c r="N162" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>391</v>
+      </c>
+      <c r="B163" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" t="s">
+        <v>249</v>
+      </c>
+      <c r="E163" t="s">
+        <v>62</v>
+      </c>
+      <c r="F163" t="s">
+        <v>392</v>
+      </c>
+      <c r="L163" t="s">
+        <v>66</v>
+      </c>
+      <c r="M163" t="s">
         <v>64</v>
       </c>
-      <c r="N85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.study003_modifications</v>
-      </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" t="s">
-        <v>440</v>
-      </c>
-      <c r="E86" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" t="s">
-        <v>444</v>
-      </c>
-      <c r="J86" t="s">
-        <v>194</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="N163" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>393</v>
+      </c>
+      <c r="B164" t="s">
+        <v>204</v>
+      </c>
+      <c r="C164" t="s">
+        <v>399</v>
+      </c>
+      <c r="D164" t="s">
+        <v>249</v>
+      </c>
+      <c r="E164" t="s">
+        <v>62</v>
+      </c>
+      <c r="F164" t="s">
+        <v>395</v>
+      </c>
+      <c r="L164" t="s">
+        <v>66</v>
+      </c>
+      <c r="M164" t="s">
         <v>64</v>
       </c>
-      <c r="N86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.study003_comparison</v>
-      </c>
-      <c r="B87" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" t="s">
-        <v>440</v>
-      </c>
-      <c r="E87" t="s">
-        <v>85</v>
-      </c>
-      <c r="F87" t="s">
-        <v>443</v>
-      </c>
-      <c r="J87" t="s">
-        <v>194</v>
-      </c>
-      <c r="M87" t="s">
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>394</v>
+      </c>
+      <c r="B165" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" t="s">
+        <v>399</v>
+      </c>
+      <c r="D165" t="s">
+        <v>249</v>
+      </c>
+      <c r="E165" t="s">
+        <v>62</v>
+      </c>
+      <c r="F165" t="s">
+        <v>396</v>
+      </c>
+      <c r="L165" t="s">
+        <v>66</v>
+      </c>
+      <c r="M165" t="s">
         <v>64</v>
       </c>
-      <c r="N87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.record_overview</v>
-      </c>
-      <c r="B88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" t="s">
-        <v>440</v>
-      </c>
-      <c r="E88" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" t="s">
-        <v>198</v>
-      </c>
-      <c r="J88" t="s">
-        <v>194</v>
-      </c>
-      <c r="L88" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.HumanGeneRecordClass.chromosomal_location_overview</v>
-      </c>
-      <c r="B89" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" t="s">
-        <v>440</v>
-      </c>
-      <c r="E89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F89" t="s">
-        <v>259</v>
-      </c>
-      <c r="J89" t="s">
-        <v>194</v>
-      </c>
-      <c r="M89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f t="shared" si="7"/>
-        <v>GeneRecordClasses.MouseGeneRecordClass.pathways</v>
-      </c>
-      <c r="B90" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" t="s">
-        <v>439</v>
-      </c>
-      <c r="E90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" t="s">
-        <v>445</v>
-      </c>
-      <c r="J90" t="s">
-        <v>194</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="N165" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>400</v>
+      </c>
+      <c r="B166" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" t="s">
+        <v>399</v>
+      </c>
+      <c r="D166" t="s">
+        <v>249</v>
+      </c>
+      <c r="E166" t="s">
+        <v>62</v>
+      </c>
+      <c r="F166" t="s">
+        <v>401</v>
+      </c>
+      <c r="L166" t="s">
+        <v>66</v>
+      </c>
+      <c r="M166" t="s">
         <v>64</v>
       </c>
-      <c r="N90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>412</v>
-      </c>
-      <c r="B94" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" t="s">
-        <v>263</v>
-      </c>
-      <c r="E94" t="s">
-        <v>85</v>
-      </c>
-      <c r="F94" t="s">
-        <v>411</v>
-      </c>
-      <c r="G94" t="s">
-        <v>262</v>
-      </c>
-      <c r="H94" t="s">
-        <v>262</v>
-      </c>
-      <c r="I94" t="s">
-        <v>262</v>
-      </c>
-      <c r="J94" t="s">
-        <v>262</v>
-      </c>
-      <c r="K94" t="s">
-        <v>262</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="N166" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>402</v>
+      </c>
+      <c r="B167" t="s">
+        <v>204</v>
+      </c>
+      <c r="C167" t="s">
+        <v>399</v>
+      </c>
+      <c r="D167" t="s">
+        <v>249</v>
+      </c>
+      <c r="E167" t="s">
+        <v>62</v>
+      </c>
+      <c r="F167" t="s">
+        <v>403</v>
+      </c>
+      <c r="L167" t="s">
         <v>66</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M167" t="s">
         <v>64</v>
       </c>
-      <c r="N94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>419</v>
-      </c>
-      <c r="B95" t="s">
-        <v>225</v>
-      </c>
-      <c r="C95" t="s">
-        <v>418</v>
-      </c>
-      <c r="D95" t="s">
-        <v>263</v>
-      </c>
-      <c r="E95" t="s">
-        <v>85</v>
-      </c>
-      <c r="F95" t="s">
-        <v>418</v>
-      </c>
-      <c r="G95" t="s">
-        <v>262</v>
-      </c>
-      <c r="H95" t="s">
-        <v>262</v>
-      </c>
-      <c r="I95" t="s">
-        <v>262</v>
-      </c>
-      <c r="J95" t="s">
-        <v>262</v>
-      </c>
-      <c r="K95" t="s">
-        <v>262</v>
-      </c>
-      <c r="M95" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>403</v>
-      </c>
-      <c r="B96" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" t="s">
-        <v>413</v>
-      </c>
-      <c r="D96" t="s">
-        <v>263</v>
-      </c>
-      <c r="E96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F96" t="s">
-        <v>404</v>
-      </c>
-      <c r="L96" t="s">
-        <v>66</v>
-      </c>
-      <c r="M96" t="s">
-        <v>64</v>
-      </c>
-      <c r="N96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>405</v>
-      </c>
-      <c r="B97" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" t="s">
-        <v>413</v>
-      </c>
-      <c r="D97" t="s">
-        <v>263</v>
-      </c>
-      <c r="E97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F97" t="s">
-        <v>406</v>
-      </c>
-      <c r="L97" t="s">
-        <v>66</v>
-      </c>
-      <c r="M97" t="s">
-        <v>64</v>
-      </c>
-      <c r="N97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>407</v>
-      </c>
-      <c r="B98" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" t="s">
-        <v>413</v>
-      </c>
-      <c r="D98" t="s">
-        <v>263</v>
-      </c>
-      <c r="E98" t="s">
-        <v>62</v>
-      </c>
-      <c r="F98" t="s">
-        <v>409</v>
-      </c>
-      <c r="L98" t="s">
-        <v>66</v>
-      </c>
-      <c r="M98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>408</v>
-      </c>
-      <c r="B99" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" t="s">
-        <v>413</v>
-      </c>
-      <c r="D99" t="s">
-        <v>263</v>
-      </c>
-      <c r="E99" t="s">
-        <v>62</v>
-      </c>
-      <c r="F99" t="s">
-        <v>410</v>
-      </c>
-      <c r="L99" t="s">
-        <v>66</v>
-      </c>
-      <c r="M99" t="s">
-        <v>64</v>
-      </c>
-      <c r="N99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>414</v>
-      </c>
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" t="s">
-        <v>413</v>
-      </c>
-      <c r="D100" t="s">
-        <v>263</v>
-      </c>
-      <c r="E100" t="s">
-        <v>62</v>
-      </c>
-      <c r="F100" t="s">
-        <v>415</v>
-      </c>
-      <c r="L100" t="s">
-        <v>66</v>
-      </c>
-      <c r="M100" t="s">
-        <v>64</v>
-      </c>
-      <c r="N100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>416</v>
-      </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" t="s">
-        <v>413</v>
-      </c>
-      <c r="D101" t="s">
-        <v>263</v>
-      </c>
-      <c r="E101" t="s">
-        <v>62</v>
-      </c>
-      <c r="F101" t="s">
-        <v>417</v>
-      </c>
-      <c r="L101" t="s">
-        <v>66</v>
-      </c>
-      <c r="M101" t="s">
-        <v>64</v>
-      </c>
-      <c r="N101" t="s">
+      <c r="N167" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6010,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0452A-4FB9-4500-9B58-DC3A1BF00BD2}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:C67"/>
+    <sheetView topLeftCell="A47" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6024,10 +5785,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,7 +5807,7 @@
         <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -6054,13 +5815,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6068,13 +5829,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6088,7 +5849,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -6096,13 +5857,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
         <v>191</v>
-      </c>
-      <c r="C7" t="s">
-        <v>192</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -6110,13 +5871,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
         <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -6124,13 +5885,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -6138,13 +5899,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -6152,13 +5913,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -6166,13 +5927,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -6180,13 +5941,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -6228,7 +5989,7 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -6236,10 +5997,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -6250,13 +6011,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -6264,13 +6025,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
         <v>178</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -6278,13 +6039,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -6292,13 +6053,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -6320,13 +6081,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D23">
         <v>23</v>
@@ -6334,13 +6095,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -6348,13 +6109,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -6362,13 +6123,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -6376,13 +6137,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -6390,13 +6151,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -6404,13 +6165,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D29">
         <v>102</v>
@@ -6418,13 +6179,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D30">
         <v>103</v>
@@ -6432,13 +6193,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D31">
         <v>104</v>
@@ -6446,13 +6207,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D32">
         <v>105</v>
@@ -6460,13 +6221,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D33">
         <v>106</v>
@@ -6474,13 +6235,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D34">
         <v>107</v>
@@ -6488,13 +6249,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D35">
         <v>108</v>
@@ -6502,13 +6263,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D36">
         <v>109</v>
@@ -6516,13 +6277,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D37">
         <v>110</v>
@@ -6530,13 +6291,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D38">
         <v>112</v>
@@ -6544,13 +6305,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D39">
         <v>113</v>
@@ -6558,13 +6319,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D40">
         <v>114</v>
@@ -6572,13 +6333,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D41">
         <v>115</v>
@@ -6586,13 +6347,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D42">
         <v>116</v>
@@ -6600,13 +6361,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D43">
         <v>117</v>
@@ -6614,13 +6375,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D44">
         <v>118</v>
@@ -6628,13 +6389,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D45">
         <v>119</v>
@@ -6642,13 +6403,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D46">
         <v>120</v>
@@ -6656,13 +6417,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D47">
         <v>121</v>
@@ -6670,13 +6431,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D48">
         <v>122</v>
@@ -6684,13 +6445,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D49">
         <v>123</v>
@@ -6698,13 +6459,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D50">
         <v>124</v>
@@ -6712,13 +6473,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D51">
         <v>125</v>
@@ -6726,13 +6487,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D52">
         <v>126</v>
@@ -6740,13 +6501,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -6754,13 +6515,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D54">
         <v>201</v>
@@ -6768,13 +6529,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D55">
         <v>202</v>
@@ -6782,13 +6543,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D56">
         <v>203</v>
@@ -6796,13 +6557,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D57">
         <v>204</v>
@@ -6810,13 +6571,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D58">
         <v>205</v>
@@ -6824,13 +6585,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B59" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C59" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D59">
         <v>300</v>
@@ -6838,13 +6599,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D60">
         <v>301</v>
@@ -6852,13 +6613,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D61">
         <v>302</v>
@@ -6866,13 +6627,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D62">
         <v>303</v>
@@ -6880,13 +6641,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C63" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -6894,13 +6655,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D64">
         <v>35</v>
@@ -6908,13 +6669,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D65">
         <v>900</v>
@@ -6922,13 +6683,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C66" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D66">
         <v>901</v>
@@ -6936,13 +6697,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C67" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D67">
         <v>902</v>
@@ -6950,13 +6711,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="D68">
         <v>950</v>
@@ -7070,10 +6831,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -7093,7 +6854,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>155</v>
@@ -7102,33 +6863,33 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
         <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -7142,7 +6903,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
@@ -7151,13 +6912,13 @@
         <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -7171,7 +6932,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
         <v>155</v>
@@ -7180,13 +6941,13 @@
         <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -7200,7 +6961,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>155</v>
@@ -7209,7 +6970,7 @@
         <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -7229,7 +6990,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>157</v>
@@ -7238,13 +6999,13 @@
         <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -7258,7 +7019,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
@@ -7267,13 +7028,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -7287,7 +7048,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
@@ -7296,13 +7057,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -7316,7 +7077,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -7325,13 +7086,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="L12" t="s">
         <v>66</v>
@@ -7345,7 +7106,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
         <v>157</v>
@@ -7354,13 +7115,13 @@
         <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="N13" t="s">
         <v>65</v>
@@ -7368,10 +7129,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
@@ -7388,7 +7149,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
         <v>155</v>
@@ -7397,13 +7158,13 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -7414,7 +7175,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>155</v>
@@ -7423,13 +7184,13 @@
         <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="L16" t="s">
         <v>66</v>
@@ -7440,7 +7201,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>155</v>
@@ -7449,18 +7210,18 @@
         <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
         <v>155</v>
@@ -7469,18 +7230,18 @@
         <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
         <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
         <v>155</v>
@@ -7489,13 +7250,13 @@
         <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
         <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N19" t="s">
         <v>65</v>
@@ -7503,7 +7264,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
@@ -7512,13 +7273,13 @@
         <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="N20" t="s">
         <v>65</v>
@@ -7526,7 +7287,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
         <v>155</v>
@@ -7535,13 +7296,13 @@
         <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="N21" t="s">
         <v>65</v>
@@ -7549,7 +7310,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B22" t="s">
         <v>155</v>
@@ -7558,7 +7319,7 @@
         <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -7578,7 +7339,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B23" t="s">
         <v>155</v>
@@ -7587,13 +7348,13 @@
         <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="N23" t="s">
         <v>65</v>
@@ -7601,7 +7362,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -7610,13 +7371,13 @@
         <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="N24" t="s">
         <v>65</v>
@@ -7624,7 +7385,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -7633,13 +7394,13 @@
         <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="N25" t="s">
         <v>65</v>
@@ -7647,7 +7408,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
         <v>155</v>
@@ -7656,13 +7417,13 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="N26" t="s">
         <v>65</v>
@@ -7670,7 +7431,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
@@ -7679,13 +7440,13 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="N27" t="s">
         <v>65</v>
@@ -7693,7 +7454,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -7702,13 +7463,13 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="N28" t="s">
         <v>65</v>
@@ -7716,7 +7477,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -7725,7 +7486,7 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -7739,7 +7500,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -7748,13 +7509,13 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
@@ -7768,7 +7529,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
         <v>155</v>
@@ -7777,19 +7538,19 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L31" t="s">
         <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
@@ -7797,7 +7558,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B32" t="s">
         <v>155</v>
@@ -7806,7 +7567,7 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -7826,7 +7587,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
         <v>155</v>
@@ -7835,13 +7596,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="L33" t="s">
         <v>66</v>
@@ -7855,7 +7616,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B34" t="s">
         <v>155</v>
@@ -7864,13 +7625,13 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L34" t="s">
         <v>66</v>
@@ -7884,7 +7645,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
@@ -7893,13 +7654,13 @@
         <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="N35" t="s">
         <v>65</v>
@@ -7907,7 +7668,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
@@ -7916,13 +7677,13 @@
         <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="L36" t="s">
         <v>66</v>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE169FB-7E8D-4AE2-BCE4-BCE6FB713F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A334B3-22EF-49E5-96B6-179EB96F4AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,30 +108,8 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="459">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1351,39 +1329,9 @@
     <t>DatasetRecordClasses.DatasetRecordClass.Searches</t>
   </si>
   <si>
-    <t>GeneQuestions.upload</t>
-  </si>
-  <si>
-    <t>GeneQuestions.id</t>
-  </si>
-  <si>
-    <t>GeneQuestions.keyword</t>
-  </si>
-  <si>
-    <t>GeneDataset.proteomics_comparison</t>
-  </si>
-  <si>
-    <t>Study001.study001_comparison</t>
-  </si>
-  <si>
-    <t>Study001.study001_expression</t>
-  </si>
-  <si>
-    <t>Study002.study002_comparison</t>
-  </si>
-  <si>
-    <t>Study002.study002_expression</t>
-  </si>
-  <si>
-    <t>Study005.study005_comparison</t>
-  </si>
-  <si>
     <t>Study005.study005_expression</t>
   </si>
   <si>
-    <t>GeneQuestions.go</t>
-  </si>
-  <si>
     <t>## Mouse Gene Attributes ##</t>
   </si>
   <si>
@@ -1496,6 +1444,48 @@
   </si>
   <si>
     <t>study003_comparisons</t>
+  </si>
+  <si>
+    <t>MouseGeneQuestions.go</t>
+  </si>
+  <si>
+    <t>HumanGeneQuestions.go</t>
+  </si>
+  <si>
+    <t>MouseGeneQuestions.upload</t>
+  </si>
+  <si>
+    <t>HumanGeneQuestions.upload</t>
+  </si>
+  <si>
+    <t>MouseGeneQuestions.pathways</t>
+  </si>
+  <si>
+    <t>HumanGeneQuestions.pathways</t>
+  </si>
+  <si>
+    <t>study003_questions.study003_comparison</t>
+  </si>
+  <si>
+    <t>Attributes ##</t>
+  </si>
+  <si>
+    <t>study001_questions.study001_comparison</t>
+  </si>
+  <si>
+    <t>study001_questions.study001_expression</t>
+  </si>
+  <si>
+    <t>study002_questions.study002_comparison</t>
+  </si>
+  <si>
+    <t>study002_questions.study002_expression</t>
+  </si>
+  <si>
+    <t>study005_questions.study005_comparison</t>
+  </si>
+  <si>
+    <t>study005_questions.study005_expression</t>
   </si>
 </sst>
 </file>
@@ -1826,21 +1816,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
@@ -1965,7 +1955,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(D10,".",F10)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.keyword</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.HumanGeneQuestions.upload</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
@@ -1974,25 +1964,22 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
       </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" ref="A11:A20" si="0">CONCATENATE(D11,".",F11)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.id</v>
+        <f t="shared" ref="A11:A22" si="0">CONCATENATE(D11,".",F11)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.upload</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
@@ -2001,25 +1988,22 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.upload</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.go</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -2028,13 +2012,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -2042,8 +2026,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneQuestions.go</v>
+        <f t="shared" ref="A13:A14" si="1">CONCATENATE(D13,".",F13)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.HumanGeneQuestions.go</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -2052,13 +2036,13 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -2066,23 +2050,23 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.GeneDataset.proteomics_comparison</v>
+        <f t="shared" si="1"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.pathways</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -2090,26 +2074,23 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study001.study001_comparison</v>
+        <f t="shared" ref="A15" si="2">CONCATENATE(D15,".",F15)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.HumanGeneQuestions.pathways</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
@@ -2117,26 +2098,23 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study001.study001_expression</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
+        <f>CONCATENATE(D16,".",F16)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_questions.study003_comparison</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>411</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="L16" t="s">
         <v>27</v>
@@ -2145,25 +2123,25 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study002.study002_comparison</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_comparison</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>433</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>27</v>
@@ -2172,25 +2150,25 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study002.study002_expression</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_expression</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>433</v>
       </c>
       <c r="D18" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
         <v>27</v>
@@ -2199,25 +2177,25 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study005.study005_comparison</v>
-      </c>
-      <c r="B19" t="s">
-        <v>168</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_comparison</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="D19" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
         <v>27</v>
@@ -2226,105 +2204,93 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.Study005.study005_expression</v>
-      </c>
-      <c r="B20" t="s">
-        <v>168</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_expression</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L20" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_comparison</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>457</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>417</v>
+      <c r="A22" t="str">
+        <f>CONCATENATE(D22,".",F22)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_expression</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>458</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>CONCATENATE(D24,".",F24)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.source_id</v>
-      </c>
-      <c r="B24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
-      <c r="J24" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" t="s">
-        <v>197</v>
-      </c>
-      <c r="N24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" ref="A25:A47" si="1">CONCATENATE(D25,".",F25)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.organism</v>
-      </c>
-      <c r="B25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" t="s">
-        <v>430</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>396</v>
-      </c>
-      <c r="J25" t="s">
-        <v>193</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" t="s">
-        <v>197</v>
-      </c>
-      <c r="N25" t="s">
-        <v>65</v>
+      <c r="A24" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(D26,".",F26)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.symbol</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.source_id</v>
       </c>
       <c r="B26" t="s">
         <v>155</v>
@@ -2333,23 +2299,17 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
         <v>193</v>
       </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
       <c r="M26" t="s">
         <v>197</v>
       </c>
@@ -2359,8 +2319,8 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.product</v>
+        <f t="shared" ref="A27:A49" si="3">CONCATENATE(D27,".",F27)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.organism</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
@@ -2369,19 +2329,19 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="J27" t="s">
         <v>193</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>66</v>
@@ -2396,7 +2356,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>CONCATENATE(D28,".",F28)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.synonym</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.symbol</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -2405,19 +2365,19 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
         <v>193</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
         <v>66</v>
@@ -2431,8 +2391,8 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_type</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.product</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -2441,19 +2401,19 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="J29" t="s">
         <v>193</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
         <v>66</v>
@@ -2468,7 +2428,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>CONCATENATE(D30,".",F30)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_record_link</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.synonym</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -2477,19 +2437,19 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
         <v>193</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
@@ -2497,11 +2457,14 @@
       <c r="M30" t="s">
         <v>197</v>
       </c>
+      <c r="N30" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" ref="A31:A32" si="2">CONCATENATE(D31,".",F31)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_source_id</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_type</v>
       </c>
       <c r="B31" t="s">
         <v>155</v>
@@ -2510,19 +2473,25 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>209</v>
       </c>
       <c r="J31" t="s">
         <v>193</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" t="s">
+        <v>197</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
@@ -2530,8 +2499,8 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="2"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_symbol</v>
+        <f>CONCATENATE(D32,".",F32)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B32" t="s">
         <v>155</v>
@@ -2540,13 +2509,13 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
         <v>193</v>
@@ -2554,41 +2523,38 @@
       <c r="K32">
         <v>6</v>
       </c>
-      <c r="N32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>CONCATENATE(D33,".",F33)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.locus</v>
+        <f t="shared" ref="A33:A34" si="4">CONCATENATE(D33,".",F33)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J33" t="s">
         <v>193</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="N33" t="s">
         <v>65</v>
@@ -2596,44 +2562,38 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>CONCATENATE(D34,".",F34)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.location</v>
+        <f t="shared" si="4"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J34" t="s">
         <v>193</v>
       </c>
       <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="N34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>CONCATENATE(D35,".",F35)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.chromosome</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.locus</v>
       </c>
       <c r="B35" t="s">
         <v>162</v>
@@ -2642,17 +2602,20 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>422</v>
       </c>
       <c r="J35" t="s">
         <v>193</v>
       </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
       <c r="L35" t="s">
         <v>66</v>
       </c>
@@ -2665,8 +2628,8 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.strand</v>
+        <f>CONCATENATE(D36,".",F36)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.location</v>
       </c>
       <c r="B36" t="s">
         <v>162</v>
@@ -2675,17 +2638,20 @@
         <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J36" t="s">
         <v>193</v>
       </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
       <c r="L36" t="s">
         <v>66</v>
       </c>
@@ -2698,23 +2664,23 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.start_min</v>
+        <f>CONCATENATE(D37,".",F37)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.chromosome</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
         <v>193</v>
@@ -2731,23 +2697,23 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.end_max</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.strand</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>421</v>
       </c>
       <c r="J38" t="s">
         <v>193</v>
@@ -2764,29 +2730,32 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_link_outs</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.start_min</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>419</v>
+        <v>206</v>
       </c>
       <c r="J39" t="s">
         <v>193</v>
       </c>
+      <c r="L39" t="s">
+        <v>66</v>
+      </c>
       <c r="M39" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N39" t="s">
         <v>65</v>
@@ -2794,29 +2763,32 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.protein_link_outs</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.end_max</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>207</v>
       </c>
       <c r="J40" t="s">
         <v>193</v>
       </c>
+      <c r="L40" t="s">
+        <v>66</v>
+      </c>
       <c r="M40" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N40" t="s">
         <v>65</v>
@@ -2824,8 +2796,8 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.clinical_link_outs</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B41" t="s">
         <v>157</v>
@@ -2834,13 +2806,13 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
         <v>193</v>
@@ -2854,8 +2826,8 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.sequence_link_outs</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B42" t="s">
         <v>157</v>
@@ -2864,13 +2836,13 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="J42" t="s">
         <v>193</v>
@@ -2884,23 +2856,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.pathways</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E43" t="s">
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="J43" t="s">
         <v>193</v>
@@ -2914,23 +2886,23 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" ref="A44" si="3">CONCATENATE(D44,".",F44)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.go_terms</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="J44" t="s">
         <v>193</v>
@@ -2944,30 +2916,27 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>439</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.pathways</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
         <v>193</v>
       </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
       <c r="M45" t="s">
         <v>64</v>
       </c>
@@ -2977,30 +2946,27 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" ref="A46" si="4">CONCATENATE(D46,".",F46)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>439</v>
+        <f t="shared" ref="A46" si="5">CONCATENATE(D46,".",F46)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.go_terms</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>443</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E46" t="s">
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
       </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
       <c r="M46" t="s">
         <v>64</v>
       </c>
@@ -3010,59 +2976,62 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_profiles</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C47" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="J47" t="s">
         <v>193</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="s">
         <v>64</v>
       </c>
+      <c r="N47" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" ref="A48:A53" si="5">CONCATENATE(D48,".",F48)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
+        <f t="shared" ref="A48" si="6">CONCATENATE(D48,".",F48)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C48" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D48" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
         <v>193</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48" t="s">
         <v>64</v>
@@ -3073,86 +3042,86 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" ref="A49" si="6">CONCATENATE(D49,".",F49)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_profiles</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D49" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
         <v>193</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" t="s">
         <v>64</v>
       </c>
-      <c r="N49" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_profiles</v>
+        <f t="shared" ref="A50:A55" si="7">CONCATENATE(D50,".",F50)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="J50" t="s">
         <v>193</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="s">
         <v>64</v>
       </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
+        <f t="shared" ref="A51" si="8">CONCATENATE(D51,".",F51)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D51" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
         <v>193</v>
@@ -3169,75 +3138,138 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>CONCATENATE(D52,".",F52)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
+        <f t="shared" si="7"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_profiles</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C52" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
         <v>193</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
       </c>
-      <c r="N52" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_profiles</v>
+        <f t="shared" si="7"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C53" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D53" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="J53" t="s">
         <v>193</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="s">
         <v>64</v>
       </c>
+      <c r="N53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>CONCATENATE(D54,".",F54)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C54" t="s">
+        <v>437</v>
+      </c>
+      <c r="D54" t="s">
+        <v>420</v>
+      </c>
+      <c r="E54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="7"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_profiles</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55" t="s">
+        <v>437</v>
+      </c>
+      <c r="D55" t="s">
+        <v>420</v>
+      </c>
+      <c r="E55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" t="s">
+        <v>419</v>
+      </c>
+      <c r="J55" t="s">
+        <v>193</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" ref="A59:A60" si="7">CONCATENATE(D59,".",F59)</f>
+        <f t="shared" ref="A59:A60" si="9">CONCATENATE(D59,".",F59)</f>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
       </c>
       <c r="B59" t="s">
@@ -3247,7 +3279,7 @@
         <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E59" t="s">
         <v>62</v>
@@ -3258,7 +3290,7 @@
       <c r="J59" t="s">
         <v>193</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>197</v>
       </c>
       <c r="N59" t="s">
@@ -3267,7 +3299,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
       </c>
       <c r="B60" t="s">
@@ -3277,7 +3309,7 @@
         <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E60" t="s">
         <v>62</v>
@@ -3313,7 +3345,7 @@
         <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E61" t="s">
         <v>62</v>
@@ -3339,7 +3371,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" ref="A62" si="8">CONCATENATE(D62,".",F62)</f>
+        <f t="shared" ref="A62" si="10">CONCATENATE(D62,".",F62)</f>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
       </c>
       <c r="B62" t="s">
@@ -3349,7 +3381,7 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E62" t="s">
         <v>62</v>
@@ -3385,7 +3417,7 @@
         <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E63" t="s">
         <v>62</v>
@@ -3411,7 +3443,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" ref="A64" si="9">CONCATENATE(D64,".",F64)</f>
+        <f t="shared" ref="A64" si="11">CONCATENATE(D64,".",F64)</f>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
       </c>
       <c r="B64" t="s">
@@ -3421,7 +3453,7 @@
         <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -3457,7 +3489,7 @@
         <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E65" t="s">
         <v>62</v>
@@ -3480,7 +3512,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A67" si="10">CONCATENATE(D66,".",F66)</f>
+        <f t="shared" ref="A66:A67" si="12">CONCATENATE(D66,".",F66)</f>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B66" t="s">
@@ -3490,13 +3522,13 @@
         <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="J66" t="s">
         <v>193</v>
@@ -3510,7 +3542,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B67" t="s">
@@ -3520,13 +3552,13 @@
         <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E67" t="s">
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J67" t="s">
         <v>193</v>
@@ -3550,13 +3582,13 @@
         <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J68" t="s">
         <v>193</v>
@@ -3586,13 +3618,13 @@
         <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E69" t="s">
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J69" t="s">
         <v>193</v>
@@ -3622,7 +3654,7 @@
         <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -3645,7 +3677,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" ref="A71:A81" si="11">CONCATENATE(D71,".",F71)</f>
+        <f t="shared" ref="A71:A81" si="13">CONCATENATE(D71,".",F71)</f>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
       </c>
       <c r="B71" t="s">
@@ -3655,13 +3687,13 @@
         <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J71" t="s">
         <v>193</v>
@@ -3678,7 +3710,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
       </c>
       <c r="B72" t="s">
@@ -3688,7 +3720,7 @@
         <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -3711,7 +3743,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
       </c>
       <c r="B73" t="s">
@@ -3721,7 +3753,7 @@
         <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E73" t="s">
         <v>62</v>
@@ -3744,7 +3776,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B74" t="s">
@@ -3754,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E74" t="s">
         <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J74" t="s">
         <v>193</v>
@@ -3774,7 +3806,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B75" t="s">
@@ -3784,13 +3816,13 @@
         <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E75" t="s">
         <v>85</v>
       </c>
       <c r="F75" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="J75" t="s">
         <v>193</v>
@@ -3804,7 +3836,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B76" t="s">
@@ -3814,13 +3846,13 @@
         <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
         <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="J76" t="s">
         <v>193</v>
@@ -3834,7 +3866,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B77" t="s">
@@ -3844,13 +3876,13 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E77" t="s">
         <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="J77" t="s">
         <v>193</v>
@@ -3864,7 +3896,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
       </c>
       <c r="B78" t="s">
@@ -3874,13 +3906,13 @@
         <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E78" t="s">
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="J78" t="s">
         <v>193</v>
@@ -3894,7 +3926,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
       </c>
       <c r="B79" t="s">
@@ -3904,13 +3936,13 @@
         <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -3924,23 +3956,23 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J80" t="s">
         <v>193</v>
@@ -3957,23 +3989,23 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C81" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D81" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E81" t="s">
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="J81" t="s">
         <v>193</v>
@@ -3988,267 +4020,261 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" cm="1">
-        <f t="array" aca="1" ref="A157" ca="1">157:184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>398</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B85" t="s">
         <v>217</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C85" t="s">
         <v>397</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D85" t="s">
         <v>249</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E85" t="s">
         <v>85</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F85" t="s">
         <v>397</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G85" t="s">
         <v>248</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H85" t="s">
         <v>248</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I85" t="s">
         <v>248</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J85" t="s">
         <v>248</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K85" t="s">
         <v>248</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L85" t="s">
         <v>66</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M85" t="s">
         <v>64</v>
       </c>
-      <c r="N160" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="N85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>405</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B86" t="s">
         <v>217</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C86" t="s">
         <v>404</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D86" t="s">
         <v>249</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E86" t="s">
         <v>85</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F86" t="s">
         <v>404</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G86" t="s">
         <v>248</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H86" t="s">
         <v>248</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I86" t="s">
         <v>248</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J86" t="s">
         <v>248</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K86" t="s">
         <v>248</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M86" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>389</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B87" t="s">
         <v>204</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C87" t="s">
         <v>399</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D87" t="s">
         <v>249</v>
       </c>
-      <c r="E162" t="s">
-        <v>62</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" t="s">
         <v>390</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L87" t="s">
         <v>66</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M87" t="s">
         <v>64</v>
       </c>
-      <c r="N162" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="N87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>391</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B88" t="s">
         <v>204</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C88" t="s">
         <v>399</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D88" t="s">
         <v>249</v>
       </c>
-      <c r="E163" t="s">
-        <v>62</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
         <v>392</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L88" t="s">
         <v>66</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M88" t="s">
         <v>64</v>
       </c>
-      <c r="N163" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="N88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>393</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B89" t="s">
         <v>204</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C89" t="s">
         <v>399</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D89" t="s">
         <v>249</v>
       </c>
-      <c r="E164" t="s">
-        <v>62</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" t="s">
         <v>395</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L89" t="s">
         <v>66</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M89" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>394</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B90" t="s">
         <v>204</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C90" t="s">
         <v>399</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D90" t="s">
         <v>249</v>
       </c>
-      <c r="E165" t="s">
-        <v>62</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
         <v>396</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L90" t="s">
         <v>66</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M90" t="s">
         <v>64</v>
       </c>
-      <c r="N165" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="N90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>400</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B91" t="s">
         <v>204</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C91" t="s">
         <v>399</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D91" t="s">
         <v>249</v>
       </c>
-      <c r="E166" t="s">
-        <v>62</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91" t="s">
         <v>401</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L91" t="s">
         <v>66</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M91" t="s">
         <v>64</v>
       </c>
-      <c r="N166" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="N91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>402</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B92" t="s">
         <v>204</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C92" t="s">
         <v>399</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D92" t="s">
         <v>249</v>
       </c>
-      <c r="E167" t="s">
-        <v>62</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92" t="s">
         <v>403</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L92" t="s">
         <v>66</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M92" t="s">
         <v>64</v>
       </c>
-      <c r="N167" t="s">
+      <c r="N92" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5771,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0452A-4FB9-4500-9B58-DC3A1BF00BD2}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6048,7 +6074,7 @@
         <v>184</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,13 +6695,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C65" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D65">
         <v>900</v>
@@ -6683,13 +6709,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C66" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D66">
         <v>901</v>
@@ -6697,13 +6723,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C67" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D67">
         <v>902</v>
@@ -6711,13 +6737,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C68" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D68">
         <v>950</v>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\ErythronDBWebsite\Model\lib\wdk\ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A334B3-22EF-49E5-96B6-179EB96F4AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC5EFB-BF6F-488F-8236-F47DDDD28C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="commonIndividuals" localSheetId="3">common!$A$1:$N$36</definedName>
-    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$59</definedName>
+    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$62</definedName>
     <definedName name="individuals" localSheetId="1">orthomcl!$A$1:$N$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="461">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1329,9 +1329,6 @@
     <t>DatasetRecordClasses.DatasetRecordClass.Searches</t>
   </si>
   <si>
-    <t>Study005.study005_expression</t>
-  </si>
-  <si>
     <t>## Mouse Gene Attributes ##</t>
   </si>
   <si>
@@ -1362,15 +1359,6 @@
     <t>study001_across_lineage_comparisons</t>
   </si>
   <si>
-    <t>study001_profiles</t>
-  </si>
-  <si>
-    <t>study002_profiles</t>
-  </si>
-  <si>
-    <t>study005_profiles</t>
-  </si>
-  <si>
     <t>MouseGeneRecordClasses.MouseGeneRecordClass</t>
   </si>
   <si>
@@ -1467,9 +1455,6 @@
     <t>study003_questions.study003_comparison</t>
   </si>
   <si>
-    <t>Attributes ##</t>
-  </si>
-  <si>
     <t>study001_questions.study001_comparison</t>
   </si>
   <si>
@@ -1486,6 +1471,27 @@
   </si>
   <si>
     <t>study005_questions.study005_expression</t>
+  </si>
+  <si>
+    <t>DatasetRecordClasses.DatasetRecordClass.primary_publication_pubmed_url</t>
+  </si>
+  <si>
+    <t>study001_gene_profiles</t>
+  </si>
+  <si>
+    <t>study001_reporter_profiles</t>
+  </si>
+  <si>
+    <t>study005_reporter_profiles</t>
+  </si>
+  <si>
+    <t>study005_gene_profiles</t>
+  </si>
+  <si>
+    <t>study002_reporter_profiles</t>
+  </si>
+  <si>
+    <t>study002_gene_profiles</t>
   </si>
 </sst>
 </file>
@@ -1816,13 +1822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1964,13 +1970,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" ref="A11:A22" si="0">CONCATENATE(D11,".",F11)</f>
+        <f t="shared" ref="A11:A21" si="0">CONCATENATE(D11,".",F11)</f>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.upload</v>
       </c>
       <c r="B11" t="s">
@@ -1988,13 +1994,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2012,13 +2018,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -2036,13 +2042,13 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -2060,13 +2066,13 @@
         <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -2084,13 +2090,13 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
@@ -2102,19 +2108,19 @@
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_questions.study003_comparison</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L16" t="s">
         <v>27</v>
@@ -2126,19 +2132,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_comparison</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" t="s">
         <v>429</v>
       </c>
-      <c r="C17" t="s">
-        <v>433</v>
-      </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2153,19 +2159,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_expression</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" t="s">
         <v>429</v>
       </c>
-      <c r="C18" t="s">
-        <v>433</v>
-      </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2180,19 +2186,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_comparison</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2207,19 +2213,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_expression</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2234,19 +2240,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_comparison</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D21" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2261,19 +2267,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_expression</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2299,7 +2305,7 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" ref="A27:A49" si="3">CONCATENATE(D27,".",F27)</f>
+        <f t="shared" ref="A27:A47" si="3">CONCATENATE(D27,".",F27)</f>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.organism</v>
       </c>
       <c r="B27" t="s">
@@ -2329,7 +2335,7 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
@@ -2365,7 +2371,7 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
@@ -2401,7 +2407,7 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -2437,7 +2443,7 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
@@ -2473,7 +2479,7 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
@@ -2509,7 +2515,7 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -2542,13 +2548,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>420</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" t="s">
-        <v>424</v>
       </c>
       <c r="J33" t="s">
         <v>193</v>
@@ -2572,13 +2578,13 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J34" t="s">
         <v>193</v>
@@ -2602,13 +2608,13 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J35" t="s">
         <v>193</v>
@@ -2638,13 +2644,13 @@
         <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J36" t="s">
         <v>193</v>
@@ -2674,7 +2680,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
@@ -2707,13 +2713,13 @@
         <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J38" t="s">
         <v>193</v>
@@ -2740,7 +2746,7 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -2773,7 +2779,7 @@
         <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E40" t="s">
         <v>62</v>
@@ -2806,13 +2812,13 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J41" t="s">
         <v>193</v>
@@ -2836,13 +2842,13 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J42" t="s">
         <v>193</v>
@@ -2866,13 +2872,13 @@
         <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E43" t="s">
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J43" t="s">
         <v>193</v>
@@ -2896,13 +2902,13 @@
         <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J44" t="s">
         <v>193</v>
@@ -2926,13 +2932,13 @@
         <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J45" t="s">
         <v>193</v>
@@ -2956,13 +2962,13 @@
         <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E46" t="s">
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
@@ -2980,25 +2986,25 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C47" t="s">
         <v>429</v>
       </c>
-      <c r="C47" t="s">
-        <v>433</v>
-      </c>
       <c r="D47" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J47" t="s">
         <v>193</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="s">
         <v>64</v>
@@ -3009,29 +3015,29 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" ref="A48" si="6">CONCATENATE(D48,".",F48)</f>
+        <f t="shared" ref="A48:A51" si="6">CONCATENATE(D48,".",F48)</f>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C48" t="s">
         <v>429</v>
       </c>
-      <c r="C48" t="s">
-        <v>433</v>
-      </c>
       <c r="D48" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
         <v>193</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="s">
         <v>64</v>
@@ -3042,29 +3048,29 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_profiles</v>
+        <f>CONCATENATE(D49,".",F49)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_reporter_profiles</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" t="s">
         <v>429</v>
       </c>
-      <c r="C49" t="s">
-        <v>433</v>
-      </c>
       <c r="D49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="J49" t="s">
         <v>193</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="s">
         <v>64</v>
@@ -3072,62 +3078,59 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" ref="A50:A55" si="7">CONCATENATE(D50,".",F50)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
+        <f t="shared" si="6"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_gene_profiles</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="J50" t="s">
         <v>193</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" t="s">
         <v>64</v>
       </c>
-      <c r="N50" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" ref="A51" si="8">CONCATENATE(D51,".",F51)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
+        <f t="shared" si="6"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D51" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
         <v>193</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="s">
         <v>64</v>
@@ -3138,53 +3141,56 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="7"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_profiles</v>
+        <f t="shared" ref="A52" si="7">CONCATENATE(D52,".",F52)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C52" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D52" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="J52" t="s">
         <v>193</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
       </c>
+      <c r="N52" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="7"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
+        <f t="shared" ref="A53:A57" si="8">CONCATENATE(D53,".",F53)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_reporter_profiles</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C53" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D53" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
         <v>193</v>
@@ -3195,184 +3201,172 @@
       <c r="M53" t="s">
         <v>64</v>
       </c>
-      <c r="N53" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>CONCATENATE(D54,".",F54)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
+        <f t="shared" ref="A54" si="9">CONCATENATE(D54,".",F54)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_gene_profiles</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C54" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E54" t="s">
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="J54" t="s">
         <v>193</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" t="s">
         <v>64</v>
       </c>
-      <c r="N54" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="7"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_profiles</v>
+        <f t="shared" si="8"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C55" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D55" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E55" t="s">
         <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="J55" t="s">
         <v>193</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M55" t="s">
         <v>64</v>
       </c>
+      <c r="N55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>CONCATENATE(D56,".",F56)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" t="s">
+        <v>416</v>
+      </c>
+      <c r="E56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="J56" t="s">
+        <v>193</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="M56" t="s">
+        <v>64</v>
+      </c>
+      <c r="N56" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" ref="A59:A60" si="9">CONCATENATE(D59,".",F59)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
-      </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" t="s">
-        <v>442</v>
-      </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" t="s">
-        <v>127</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="A57" t="str">
+        <f t="shared" si="8"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_reporter_profiles</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C57" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="J57" t="s">
         <v>193</v>
       </c>
-      <c r="M59" t="s">
-        <v>197</v>
-      </c>
-      <c r="N59" t="s">
-        <v>65</v>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" ref="A58" si="10">CONCATENATE(D58,".",F58)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_gene_profiles</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C58" t="s">
+        <v>433</v>
+      </c>
+      <c r="D58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f t="shared" si="9"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
-      </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" t="s">
-        <v>442</v>
-      </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" t="s">
-        <v>396</v>
-      </c>
-      <c r="J60" t="s">
-        <v>193</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>66</v>
-      </c>
-      <c r="M60" t="s">
-        <v>197</v>
-      </c>
-      <c r="N60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>CONCATENATE(D61,".",F61)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
-      </c>
-      <c r="B61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" t="s">
-        <v>442</v>
-      </c>
-      <c r="E61" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" t="s">
-        <v>243</v>
-      </c>
-      <c r="J61" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61" t="s">
-        <v>66</v>
-      </c>
-      <c r="M61" t="s">
-        <v>197</v>
-      </c>
-      <c r="N61" t="s">
-        <v>65</v>
+      <c r="A60" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" ref="A62" si="10">CONCATENATE(D62,".",F62)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
+        <f t="shared" ref="A62:A63" si="11">CONCATENATE(D62,".",F62)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
       </c>
       <c r="B62" t="s">
         <v>155</v>
@@ -3381,23 +3375,17 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E62" t="s">
         <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J62" t="s">
         <v>193</v>
       </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="L62" t="s">
-        <v>66</v>
-      </c>
       <c r="M62" t="s">
         <v>197</v>
       </c>
@@ -3407,8 +3395,8 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>CONCATENATE(D63,".",F63)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
       </c>
       <c r="B63" t="s">
         <v>155</v>
@@ -3417,19 +3405,19 @@
         <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>244</v>
+        <v>396</v>
       </c>
       <c r="J63" t="s">
         <v>193</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63" t="s">
         <v>66</v>
@@ -3443,8 +3431,8 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" ref="A64" si="11">CONCATENATE(D64,".",F64)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
+        <f>CONCATENATE(D64,".",F64)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
       </c>
       <c r="B64" t="s">
         <v>155</v>
@@ -3453,19 +3441,19 @@
         <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="J64" t="s">
         <v>193</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L64" t="s">
         <v>66</v>
@@ -3479,8 +3467,8 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>CONCATENATE(D65,".",F65)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
+        <f t="shared" ref="A65" si="12">CONCATENATE(D65,".",F65)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -3489,19 +3477,19 @@
         <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E65" t="s">
         <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="J65" t="s">
         <v>193</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L65" t="s">
         <v>66</v>
@@ -3509,11 +3497,14 @@
       <c r="M65" t="s">
         <v>197</v>
       </c>
+      <c r="N65" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A67" si="12">CONCATENATE(D66,".",F66)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
+        <f>CONCATENATE(D66,".",F66)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
       </c>
       <c r="B66" t="s">
         <v>155</v>
@@ -3522,19 +3513,25 @@
         <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="J66" t="s">
         <v>193</v>
       </c>
       <c r="K66">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" t="s">
+        <v>197</v>
       </c>
       <c r="N66" t="s">
         <v>65</v>
@@ -3542,8 +3539,8 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="12"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
+        <f t="shared" ref="A67" si="13">CONCATENATE(D67,".",F67)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
       </c>
       <c r="B67" t="s">
         <v>155</v>
@@ -3552,19 +3549,25 @@
         <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E67" t="s">
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
       <c r="J67" t="s">
         <v>193</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="L67" t="s">
+        <v>66</v>
+      </c>
+      <c r="M67" t="s">
+        <v>197</v>
       </c>
       <c r="N67" t="s">
         <v>65</v>
@@ -3573,28 +3576,28 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>CONCATENATE(D68,".",F68)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>422</v>
+        <v>242</v>
       </c>
       <c r="J68" t="s">
         <v>193</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L68" t="s">
         <v>66</v>
@@ -3602,41 +3605,32 @@
       <c r="M68" t="s">
         <v>197</v>
       </c>
-      <c r="N68" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>CONCATENATE(D69,".",F69)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
+        <f t="shared" ref="A69:A70" si="14">CONCATENATE(D69,".",F69)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E69" t="s">
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J69" t="s">
         <v>193</v>
       </c>
       <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69" t="s">
-        <v>66</v>
-      </c>
-      <c r="M69" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="N69" t="s">
         <v>65</v>
@@ -3644,32 +3638,29 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>CONCATENATE(D70,".",F70)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
+        <f t="shared" si="14"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="J70" t="s">
         <v>193</v>
       </c>
-      <c r="L70" t="s">
-        <v>66</v>
-      </c>
-      <c r="M70" t="s">
-        <v>197</v>
+      <c r="K70">
+        <v>6</v>
       </c>
       <c r="N70" t="s">
         <v>65</v>
@@ -3677,8 +3668,8 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" ref="A71:A81" si="13">CONCATENATE(D71,".",F71)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
+        <f>CONCATENATE(D71,".",F71)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
       </c>
       <c r="B71" t="s">
         <v>162</v>
@@ -3687,17 +3678,20 @@
         <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J71" t="s">
         <v>193</v>
       </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="L71" t="s">
         <v>66</v>
       </c>
@@ -3710,27 +3704,30 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
+        <f>CONCATENATE(D72,".",F72)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>206</v>
+        <v>419</v>
       </c>
       <c r="J72" t="s">
         <v>193</v>
       </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
       <c r="L72" t="s">
         <v>66</v>
       </c>
@@ -3743,23 +3740,23 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
+        <f>CONCATENATE(D73,".",F73)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E73" t="s">
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J73" t="s">
         <v>193</v>
@@ -3776,29 +3773,32 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
+        <f t="shared" ref="A74:A84" si="15">CONCATENATE(D74,".",F74)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="J74" t="s">
         <v>193</v>
       </c>
+      <c r="L74" t="s">
+        <v>66</v>
+      </c>
       <c r="M74" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N74" t="s">
         <v>65</v>
@@ -3806,29 +3806,32 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E75" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>410</v>
+        <v>206</v>
       </c>
       <c r="J75" t="s">
         <v>193</v>
       </c>
+      <c r="L75" t="s">
+        <v>66</v>
+      </c>
       <c r="M75" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N75" t="s">
         <v>65</v>
@@ -3836,29 +3839,32 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>411</v>
+        <v>207</v>
       </c>
       <c r="J76" t="s">
         <v>193</v>
       </c>
+      <c r="L76" t="s">
+        <v>66</v>
+      </c>
       <c r="M76" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N76" t="s">
         <v>65</v>
@@ -3866,8 +3872,8 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B77" t="s">
         <v>157</v>
@@ -3876,13 +3882,13 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E77" t="s">
         <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J77" t="s">
         <v>193</v>
@@ -3896,23 +3902,23 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E78" t="s">
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J78" t="s">
         <v>193</v>
@@ -3926,23 +3932,23 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -3956,30 +3962,27 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>431</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>436</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="J80" t="s">
         <v>193</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
       <c r="M80" t="s">
         <v>64</v>
       </c>
@@ -3989,30 +3992,27 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="13"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>431</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>436</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E81" t="s">
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="J81" t="s">
         <v>193</v>
       </c>
-      <c r="K81">
-        <v>2</v>
-      </c>
       <c r="M81" t="s">
         <v>64</v>
       </c>
@@ -4020,140 +4020,140 @@
         <v>65</v>
       </c>
     </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" t="s">
+        <v>438</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s">
+        <v>412</v>
+      </c>
+      <c r="J82" t="s">
+        <v>193</v>
+      </c>
+      <c r="M82" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>398</v>
-      </c>
-      <c r="B85" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" t="s">
-        <v>397</v>
-      </c>
-      <c r="D85" t="s">
-        <v>249</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="A83" t="str">
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" t="s">
+        <v>432</v>
+      </c>
+      <c r="D83" t="s">
+        <v>438</v>
+      </c>
+      <c r="E83" t="s">
         <v>85</v>
       </c>
-      <c r="F85" t="s">
-        <v>397</v>
-      </c>
-      <c r="G85" t="s">
-        <v>248</v>
-      </c>
-      <c r="H85" t="s">
-        <v>248</v>
-      </c>
-      <c r="I85" t="s">
-        <v>248</v>
-      </c>
-      <c r="J85" t="s">
-        <v>248</v>
-      </c>
-      <c r="K85" t="s">
-        <v>248</v>
-      </c>
-      <c r="L85" t="s">
-        <v>66</v>
-      </c>
-      <c r="M85" t="s">
+      <c r="F83" t="s">
+        <v>439</v>
+      </c>
+      <c r="J83" t="s">
+        <v>193</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
         <v>64</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C84" t="s">
+        <v>432</v>
+      </c>
+      <c r="D84" t="s">
+        <v>438</v>
+      </c>
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" t="s">
+        <v>440</v>
+      </c>
+      <c r="J84" t="s">
+        <v>193</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>64</v>
+      </c>
+      <c r="N84" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" t="s">
-        <v>217</v>
-      </c>
-      <c r="C86" t="s">
-        <v>404</v>
-      </c>
-      <c r="D86" t="s">
-        <v>249</v>
-      </c>
-      <c r="E86" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" t="s">
-        <v>404</v>
-      </c>
-      <c r="G86" t="s">
-        <v>248</v>
-      </c>
-      <c r="H86" t="s">
-        <v>248</v>
-      </c>
-      <c r="I86" t="s">
-        <v>248</v>
-      </c>
-      <c r="J86" t="s">
-        <v>248</v>
-      </c>
-      <c r="K86" t="s">
-        <v>248</v>
-      </c>
-      <c r="M86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" t="s">
-        <v>399</v>
-      </c>
-      <c r="D87" t="s">
-        <v>249</v>
-      </c>
-      <c r="E87" t="s">
-        <v>62</v>
-      </c>
-      <c r="F87" t="s">
-        <v>390</v>
-      </c>
-      <c r="L87" t="s">
-        <v>66</v>
-      </c>
-      <c r="M87" t="s">
-        <v>64</v>
-      </c>
-      <c r="N87" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D88" t="s">
         <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F88" t="s">
-        <v>392</v>
+        <v>397</v>
+      </c>
+      <c r="G88" t="s">
+        <v>248</v>
+      </c>
+      <c r="H88" t="s">
+        <v>248</v>
+      </c>
+      <c r="I88" t="s">
+        <v>248</v>
+      </c>
+      <c r="J88" t="s">
+        <v>248</v>
+      </c>
+      <c r="K88" t="s">
+        <v>248</v>
       </c>
       <c r="L88" t="s">
         <v>66</v>
@@ -4167,25 +4167,37 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D89" t="s">
         <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s">
-        <v>395</v>
-      </c>
-      <c r="L89" t="s">
-        <v>66</v>
+        <v>404</v>
+      </c>
+      <c r="G89" t="s">
+        <v>248</v>
+      </c>
+      <c r="H89" t="s">
+        <v>248</v>
+      </c>
+      <c r="I89" t="s">
+        <v>248</v>
+      </c>
+      <c r="J89" t="s">
+        <v>248</v>
+      </c>
+      <c r="K89" t="s">
+        <v>248</v>
       </c>
       <c r="M89" t="s">
         <v>64</v>
@@ -4193,7 +4205,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
@@ -4208,13 +4220,13 @@
         <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L90" t="s">
         <v>66</v>
       </c>
       <c r="M90" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N90" t="s">
         <v>65</v>
@@ -4222,7 +4234,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
@@ -4237,13 +4249,13 @@
         <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s">
         <v>66</v>
       </c>
       <c r="M91" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N91" t="s">
         <v>65</v>
@@ -4251,7 +4263,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
@@ -4266,15 +4278,128 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L92" t="s">
         <v>66</v>
       </c>
       <c r="M92" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>399</v>
+      </c>
+      <c r="D93" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" t="s">
+        <v>395</v>
+      </c>
+      <c r="L93" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>394</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>399</v>
+      </c>
+      <c r="D94" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" t="s">
+        <v>396</v>
+      </c>
+      <c r="L94" t="s">
+        <v>66</v>
+      </c>
+      <c r="M94" t="s">
+        <v>197</v>
+      </c>
+      <c r="N94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" t="s">
+        <v>399</v>
+      </c>
+      <c r="D95" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" t="s">
+        <v>401</v>
+      </c>
+      <c r="L95" t="s">
+        <v>66</v>
+      </c>
+      <c r="M95" t="s">
+        <v>197</v>
+      </c>
+      <c r="N95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s">
+        <v>403</v>
+      </c>
+      <c r="L96" t="s">
+        <v>66</v>
+      </c>
+      <c r="M96" t="s">
+        <v>197</v>
+      </c>
+      <c r="N96" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6695,13 +6820,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" t="s">
         <v>429</v>
-      </c>
-      <c r="C65" t="s">
-        <v>433</v>
       </c>
       <c r="D65">
         <v>900</v>
@@ -6709,13 +6834,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C66" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D66">
         <v>901</v>
@@ -6723,13 +6848,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C67" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D67">
         <v>902</v>
@@ -6737,13 +6862,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C68" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D68">
         <v>950</v>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\ErythronDBWebsite\Model\lib\wdk\ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC5EFB-BF6F-488F-8236-F47DDDD28C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82C47B4A-4BAC-428E-A7D4-C6D9F1D0B1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="474">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1305,9 +1305,6 @@
     <t>Datasets</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.Datasets</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -1323,12 +1320,6 @@
     <t>data_type</t>
   </si>
   <si>
-    <t>Searches</t>
-  </si>
-  <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.Searches</t>
-  </si>
-  <si>
     <t>## Mouse Gene Attributes ##</t>
   </si>
   <si>
@@ -1492,16 +1483,72 @@
   </si>
   <si>
     <t>study002_gene_profiles</t>
+  </si>
+  <si>
+    <t>protocol_images</t>
+  </si>
+  <si>
+    <t>search_expression</t>
+  </si>
+  <si>
+    <t>protocol_description</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3934</t>
+  </si>
+  <si>
+    <t>Cytometry</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3914</t>
+  </si>
+  <si>
+    <t>Quality Control Report</t>
+  </si>
+  <si>
+    <t>QC Report</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3518</t>
+  </si>
+  <si>
+    <t>Microarray Experiment</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3520</t>
+  </si>
+  <si>
+    <t>Proteomics Experiment</t>
+  </si>
+  <si>
+    <t>microarray_datasets</t>
+  </si>
+  <si>
+    <t>proteomics_datasets</t>
+  </si>
+  <si>
+    <t>search_comparison</t>
+  </si>
+  <si>
+    <t>record_taxon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1524,14 +1571,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1822,13 +1872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1970,13 +2020,13 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -1994,13 +2044,13 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2018,13 +2068,13 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -2042,13 +2092,13 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -2066,13 +2116,13 @@
         <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -2090,13 +2140,13 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
@@ -2108,19 +2158,19 @@
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_questions.study003_comparison</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L16" t="s">
         <v>27</v>
@@ -2132,19 +2182,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_comparison</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2159,19 +2209,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_expression</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2186,19 +2236,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_comparison</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2213,19 +2263,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_expression</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2240,19 +2290,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_comparison</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2267,19 +2317,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_expression</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2290,7 +2340,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2305,7 +2355,7 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
@@ -2335,7 +2385,7 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
@@ -2371,7 +2421,7 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
@@ -2407,7 +2457,7 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -2443,7 +2493,7 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
@@ -2479,7 +2529,7 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
@@ -2515,7 +2565,7 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -2548,13 +2598,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J33" t="s">
         <v>193</v>
@@ -2578,13 +2628,13 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J34" t="s">
         <v>193</v>
@@ -2608,13 +2658,13 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J35" t="s">
         <v>193</v>
@@ -2644,13 +2694,13 @@
         <v>162</v>
       </c>
       <c r="D36" t="s">
+        <v>413</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>416</v>
-      </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
-        <v>419</v>
       </c>
       <c r="J36" t="s">
         <v>193</v>
@@ -2680,7 +2730,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
@@ -2713,13 +2763,13 @@
         <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J38" t="s">
         <v>193</v>
@@ -2746,7 +2796,7 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -2779,7 +2829,7 @@
         <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E40" t="s">
         <v>62</v>
@@ -2812,13 +2862,13 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J41" t="s">
         <v>193</v>
@@ -2842,13 +2892,13 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J42" t="s">
         <v>193</v>
@@ -2872,13 +2922,13 @@
         <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E43" t="s">
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J43" t="s">
         <v>193</v>
@@ -2902,13 +2952,13 @@
         <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J44" t="s">
         <v>193</v>
@@ -2932,13 +2982,13 @@
         <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
         <v>193</v>
@@ -2962,13 +3012,13 @@
         <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E46" t="s">
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
@@ -2986,19 +3036,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C47" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D47" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J47" t="s">
         <v>193</v>
@@ -3019,19 +3069,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s">
         <v>193</v>
@@ -3052,19 +3102,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_reporter_profiles</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C49" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D49" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J49" t="s">
         <v>193</v>
@@ -3082,19 +3132,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_gene_profiles</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C50" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D50" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J50" t="s">
         <v>193</v>
@@ -3112,19 +3162,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D51" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
         <v>193</v>
@@ -3145,19 +3195,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J52" t="s">
         <v>193</v>
@@ -3178,19 +3228,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_reporter_profiles</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D53" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
         <v>193</v>
@@ -3208,19 +3258,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_gene_profiles</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D54" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E54" t="s">
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J54" t="s">
         <v>193</v>
@@ -3238,19 +3288,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E55" t="s">
         <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
         <v>193</v>
@@ -3271,19 +3321,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C56" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D56" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
         <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J56" t="s">
         <v>193</v>
@@ -3304,19 +3354,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_reporter_profiles</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C57" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D57" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
         <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J57" t="s">
         <v>193</v>
@@ -3334,19 +3384,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_gene_profiles</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D58" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E58" t="s">
         <v>85</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J58" t="s">
         <v>193</v>
@@ -3360,7 +3410,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3375,7 +3425,7 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E62" t="s">
         <v>62</v>
@@ -3405,7 +3455,7 @@
         <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E63" t="s">
         <v>62</v>
@@ -3441,7 +3491,7 @@
         <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -3477,7 +3527,7 @@
         <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E65" t="s">
         <v>62</v>
@@ -3513,7 +3563,7 @@
         <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
@@ -3549,7 +3599,7 @@
         <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E67" t="s">
         <v>62</v>
@@ -3585,7 +3635,7 @@
         <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
@@ -3618,13 +3668,13 @@
         <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E69" t="s">
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J69" t="s">
         <v>193</v>
@@ -3648,13 +3698,13 @@
         <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J70" t="s">
         <v>193</v>
@@ -3678,13 +3728,13 @@
         <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J71" t="s">
         <v>193</v>
@@ -3714,13 +3764,13 @@
         <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J72" t="s">
         <v>193</v>
@@ -3750,7 +3800,7 @@
         <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E73" t="s">
         <v>62</v>
@@ -3783,13 +3833,13 @@
         <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E74" t="s">
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J74" t="s">
         <v>193</v>
@@ -3816,7 +3866,7 @@
         <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E75" t="s">
         <v>62</v>
@@ -3849,7 +3899,7 @@
         <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E76" t="s">
         <v>62</v>
@@ -3882,13 +3932,13 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E77" t="s">
         <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J77" t="s">
         <v>193</v>
@@ -3912,13 +3962,13 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E78" t="s">
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J78" t="s">
         <v>193</v>
@@ -3942,13 +3992,13 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -3972,13 +4022,13 @@
         <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J80" t="s">
         <v>193</v>
@@ -4002,13 +4052,13 @@
         <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E81" t="s">
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J81" t="s">
         <v>193</v>
@@ -4032,13 +4082,13 @@
         <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E82" t="s">
         <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J82" t="s">
         <v>193</v>
@@ -4056,19 +4106,19 @@
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E83" t="s">
         <v>85</v>
       </c>
       <c r="F83" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J83" t="s">
         <v>193</v>
@@ -4089,19 +4139,19 @@
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C84" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D84" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E84" t="s">
         <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J84" t="s">
         <v>193</v>
@@ -4122,23 +4172,24 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="str">
+        <f>CONCATENATE(D88,".",F88)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.search_expression</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
         <v>398</v>
-      </c>
-      <c r="B88" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" t="s">
-        <v>397</v>
       </c>
       <c r="D88" t="s">
         <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="G88" t="s">
         <v>248</v>
@@ -4155,34 +4206,29 @@
       <c r="K88" t="s">
         <v>248</v>
       </c>
-      <c r="L88" t="s">
-        <v>66</v>
-      </c>
       <c r="M88" t="s">
-        <v>64</v>
-      </c>
-      <c r="N88" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>405</v>
+      <c r="A89" t="str">
+        <f>CONCATENATE(D89,".",F89)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.search_comparison</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
         <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="G89" t="s">
         <v>248</v>
@@ -4200,7 +4246,7 @@
         <v>248</v>
       </c>
       <c r="M89" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4211,7 +4257,7 @@
         <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D90" t="s">
         <v>249</v>
@@ -4240,7 +4286,7 @@
         <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D91" t="s">
         <v>249</v>
@@ -4263,13 +4309,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
         <v>249</v>
@@ -4278,7 +4324,7 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L92" t="s">
         <v>66</v>
@@ -4292,13 +4338,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D93" t="s">
         <v>249</v>
@@ -4307,7 +4353,7 @@
         <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L93" t="s">
         <v>66</v>
@@ -4315,16 +4361,19 @@
       <c r="M93" t="s">
         <v>197</v>
       </c>
+      <c r="N93" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D94" t="s">
         <v>249</v>
@@ -4333,7 +4382,7 @@
         <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L94" t="s">
         <v>66</v>
@@ -4346,43 +4395,42 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>400</v>
-      </c>
-      <c r="B95" t="s">
-        <v>204</v>
+      <c r="A95" t="str">
+        <f t="shared" ref="A95:A96" si="16">CONCATENATE(D95,".",F95)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.protocol_images</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D95" t="s">
         <v>249</v>
       </c>
       <c r="E95" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F95" t="s">
-        <v>401</v>
-      </c>
-      <c r="L95" t="s">
-        <v>66</v>
+        <v>458</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
       </c>
       <c r="M95" t="s">
-        <v>197</v>
-      </c>
-      <c r="N95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>402</v>
-      </c>
-      <c r="B96" t="s">
-        <v>204</v>
+      <c r="A96" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.protocol_description</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D96" t="s">
         <v>249</v>
@@ -4391,19 +4439,142 @@
         <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>403</v>
-      </c>
-      <c r="L96" t="s">
+        <v>460</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="M96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>451</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="s">
+        <v>392</v>
+      </c>
+      <c r="L97" t="s">
         <v>66</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M97" t="s">
         <v>197</v>
       </c>
-      <c r="N96" t="s">
-        <v>65</v>
+      <c r="N97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>CONCATENATE(D98,".",F98)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.microarray_datasets</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98" t="s">
+        <v>467</v>
+      </c>
+      <c r="D98" t="s">
+        <v>249</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98" t="s">
+        <v>470</v>
+      </c>
+      <c r="M98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>CONCATENATE(D99,".",F99)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.proteomics_datasets</v>
+      </c>
+      <c r="B99" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" t="s">
+        <v>469</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C100" t="s">
+        <v>467</v>
+      </c>
+      <c r="D100" t="s">
+        <v>249</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" t="s">
+        <v>395</v>
+      </c>
+      <c r="M100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>389</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>398</v>
+      </c>
+      <c r="D101" t="s">
+        <v>249</v>
+      </c>
+      <c r="E101" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101" t="s">
+        <v>473</v>
+      </c>
+      <c r="M101" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B96" r:id="rId1" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{04B9D51A-0900-4B93-B368-0849FF381F1D}"/>
+    <hyperlink ref="B95" r:id="rId2" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{D64BE6B9-0C24-4330-9E69-59D2AFAB68FD}"/>
+    <hyperlink ref="B98" r:id="rId3" xr:uid="{E33DF20E-8197-497E-ACBC-9A7D8C6B61E9}"/>
+    <hyperlink ref="B100" r:id="rId4" xr:uid="{7BEA3C84-8210-4D98-BC03-B17F03A7A315}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4412,7 +4583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5920,10 +6091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0452A-4FB9-4500-9B58-DC3A1BF00BD2}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A46" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6042,7 +6213,7 @@
         <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -6820,13 +6991,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="C65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D65">
         <v>900</v>
@@ -6834,13 +7005,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>420</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C66" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D66">
         <v>901</v>
@@ -6848,13 +7019,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D67">
         <v>902</v>
@@ -6862,24 +7033,85 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D68">
         <v>950</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C69" t="s">
+        <v>462</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>465</v>
+      </c>
+      <c r="D70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" t="s">
+        <v>467</v>
+      </c>
+      <c r="D71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>469</v>
+      </c>
+      <c r="B72" t="s">
+        <v>468</v>
+      </c>
+      <c r="C72" t="s">
+        <v>469</v>
+      </c>
+      <c r="D72">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D65">
     <sortCondition ref="D4:D65"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B69" r:id="rId1" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{9E6C3671-82C4-4F16-86E2-612C23192D72}"/>
+    <hyperlink ref="B70" r:id="rId2" location="http://edamontology.org/data_3914" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/data_3914" xr:uid="{BB18E0CF-A130-4EC5-89C0-58B477D9DAEE}"/>
+    <hyperlink ref="B71" r:id="rId3" xr:uid="{83175DAB-304A-4D35-8F9F-CAD4A09A4957}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\ErythronDBWebsite\Model\lib\wdk\ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82C47B4A-4BAC-428E-A7D4-C6D9F1D0B1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3306506D-36A1-4CEC-9972-0F42503FC847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="6" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="472">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1278,24 +1278,12 @@
     <t>exp_technique</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.primary_contact</t>
-  </si>
-  <si>
     <t>primary_contact</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.primary_publication</t>
-  </si>
-  <si>
     <t>primary_publication</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</t>
-  </si>
-  <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.organism</t>
-  </si>
-  <si>
     <t>bulk_download_url</t>
   </si>
   <si>
@@ -1308,15 +1296,9 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.full_description</t>
-  </si>
-  <si>
     <t>full_description</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.data_type</t>
-  </si>
-  <si>
     <t>data_type</t>
   </si>
   <si>
@@ -1464,9 +1446,6 @@
     <t>study005_questions.study005_expression</t>
   </si>
   <si>
-    <t>DatasetRecordClasses.DatasetRecordClass.primary_publication_pubmed_url</t>
-  </si>
-  <si>
     <t>study001_gene_profiles</t>
   </si>
   <si>
@@ -1531,6 +1510,21 @@
   </si>
   <si>
     <t>record_taxon</t>
+  </si>
+  <si>
+    <t>study_access</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study003_q</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study001_q</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study002_q</t>
+  </si>
+  <si>
+    <t>http://www.cbil.upenn.edu/ErythronDB/study005_q</t>
   </si>
 </sst>
 </file>
@@ -1575,10 +1569,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1872,13 +1867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N101" sqref="N101"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2020,16 +2015,22 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
         <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2044,16 +2045,22 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
         <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2068,16 +2075,22 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
         <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2092,16 +2105,22 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
         <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2116,16 +2135,22 @@
         <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
         <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2140,16 +2165,22 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
         <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2157,23 +2188,29 @@
         <f>CONCATENATE(D16,".",F16)</f>
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_questions.study003_comparison</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>424</v>
+      <c r="B16" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" t="s">
         <v>429</v>
-      </c>
-      <c r="D16" t="s">
-        <v>435</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
         <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2181,26 +2218,32 @@
         <f t="shared" si="0"/>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_comparison</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>422</v>
+      <c r="B17" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
         <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2208,26 +2251,32 @@
         <f t="shared" si="0"/>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_expression</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>422</v>
+      <c r="B18" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="C18" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" t="s">
         <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2235,26 +2284,32 @@
         <f t="shared" si="0"/>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_comparison</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>423</v>
+      <c r="B19" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s">
         <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2262,26 +2317,32 @@
         <f t="shared" si="0"/>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_expression</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>423</v>
+      <c r="B20" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" t="s">
         <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2289,26 +2350,32 @@
         <f t="shared" si="0"/>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_comparison</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>428</v>
+      <c r="B21" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
       <c r="L21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" t="s">
         <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2316,31 +2383,37 @@
         <f>CONCATENATE(D22,".",F22)</f>
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_expression</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>428</v>
+      <c r="B22" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D22" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
       <c r="L22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" t="s">
         <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2355,7 +2428,7 @@
         <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
@@ -2385,13 +2458,13 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J27" t="s">
         <v>193</v>
@@ -2421,7 +2494,7 @@
         <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E28" t="s">
         <v>62</v>
@@ -2457,7 +2530,7 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
@@ -2493,7 +2566,7 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
@@ -2529,7 +2602,7 @@
         <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
@@ -2565,7 +2638,7 @@
         <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -2598,13 +2671,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J33" t="s">
         <v>193</v>
@@ -2628,13 +2701,13 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J34" t="s">
         <v>193</v>
@@ -2658,13 +2731,13 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J35" t="s">
         <v>193</v>
@@ -2694,13 +2767,13 @@
         <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J36" t="s">
         <v>193</v>
@@ -2730,7 +2803,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
@@ -2763,13 +2836,13 @@
         <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J38" t="s">
         <v>193</v>
@@ -2796,7 +2869,7 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -2829,7 +2902,7 @@
         <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E40" t="s">
         <v>62</v>
@@ -2862,13 +2935,13 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J41" t="s">
         <v>193</v>
@@ -2892,13 +2965,13 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J42" t="s">
         <v>193</v>
@@ -2922,13 +2995,13 @@
         <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E43" t="s">
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J43" t="s">
         <v>193</v>
@@ -2952,13 +3025,13 @@
         <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
         <v>193</v>
@@ -2982,13 +3055,13 @@
         <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
         <v>193</v>
@@ -3012,13 +3085,13 @@
         <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E46" t="s">
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
@@ -3036,19 +3109,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D47" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J47" t="s">
         <v>193</v>
@@ -3069,19 +3142,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D48" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
         <v>193</v>
@@ -3102,19 +3175,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_reporter_profiles</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D49" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J49" t="s">
         <v>193</v>
@@ -3132,19 +3205,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_gene_profiles</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
         <v>193</v>
@@ -3162,19 +3235,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C51" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D51" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J51" t="s">
         <v>193</v>
@@ -3195,19 +3268,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C52" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J52" t="s">
         <v>193</v>
@@ -3228,19 +3301,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_reporter_profiles</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D53" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
         <v>193</v>
@@ -3258,19 +3331,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_gene_profiles</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D54" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E54" t="s">
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J54" t="s">
         <v>193</v>
@@ -3288,19 +3361,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D55" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E55" t="s">
         <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J55" t="s">
         <v>193</v>
@@ -3321,19 +3394,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C56" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D56" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E56" t="s">
         <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J56" t="s">
         <v>193</v>
@@ -3354,19 +3427,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_reporter_profiles</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C57" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D57" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E57" t="s">
         <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
         <v>193</v>
@@ -3384,19 +3457,19 @@
         <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_gene_profiles</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C58" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D58" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E58" t="s">
         <v>85</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J58" t="s">
         <v>193</v>
@@ -3410,7 +3483,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3425,7 +3498,7 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E62" t="s">
         <v>62</v>
@@ -3455,13 +3528,13 @@
         <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E63" t="s">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J63" t="s">
         <v>193</v>
@@ -3491,7 +3564,7 @@
         <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -3527,7 +3600,7 @@
         <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E65" t="s">
         <v>62</v>
@@ -3563,7 +3636,7 @@
         <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
@@ -3599,7 +3672,7 @@
         <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E67" t="s">
         <v>62</v>
@@ -3635,7 +3708,7 @@
         <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
@@ -3668,13 +3741,13 @@
         <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E69" t="s">
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J69" t="s">
         <v>193</v>
@@ -3698,13 +3771,13 @@
         <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J70" t="s">
         <v>193</v>
@@ -3728,13 +3801,13 @@
         <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J71" t="s">
         <v>193</v>
@@ -3764,13 +3837,13 @@
         <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J72" t="s">
         <v>193</v>
@@ -3800,7 +3873,7 @@
         <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E73" t="s">
         <v>62</v>
@@ -3833,13 +3906,13 @@
         <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E74" t="s">
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J74" t="s">
         <v>193</v>
@@ -3866,7 +3939,7 @@
         <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E75" t="s">
         <v>62</v>
@@ -3899,7 +3972,7 @@
         <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E76" t="s">
         <v>62</v>
@@ -3932,13 +4005,13 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E77" t="s">
         <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J77" t="s">
         <v>193</v>
@@ -3962,13 +4035,13 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E78" t="s">
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J78" t="s">
         <v>193</v>
@@ -3992,13 +4065,13 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -4022,13 +4095,13 @@
         <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J80" t="s">
         <v>193</v>
@@ -4052,13 +4125,13 @@
         <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E81" t="s">
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J81" t="s">
         <v>193</v>
@@ -4082,13 +4155,13 @@
         <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E82" t="s">
         <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J82" t="s">
         <v>193</v>
@@ -4106,19 +4179,19 @@
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C83" t="s">
+        <v>423</v>
+      </c>
+      <c r="D83" t="s">
         <v>429</v>
-      </c>
-      <c r="D83" t="s">
-        <v>435</v>
       </c>
       <c r="E83" t="s">
         <v>85</v>
       </c>
       <c r="F83" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J83" t="s">
         <v>193</v>
@@ -4139,19 +4212,19 @@
         <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
+        <v>423</v>
+      </c>
+      <c r="D84" t="s">
         <v>429</v>
-      </c>
-      <c r="D84" t="s">
-        <v>435</v>
       </c>
       <c r="E84" t="s">
         <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J84" t="s">
         <v>193</v>
@@ -4180,7 +4253,7 @@
         <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D88" t="s">
         <v>249</v>
@@ -4189,7 +4262,7 @@
         <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G88" t="s">
         <v>248</v>
@@ -4212,14 +4285,14 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>CONCATENATE(D89,".",F89)</f>
+        <f t="shared" ref="A89:A102" si="16">CONCATENATE(D89,".",F89)</f>
         <v>DatasetRecordClasses.DatasetRecordClass.search_comparison</v>
       </c>
       <c r="B89" t="s">
         <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D89" t="s">
         <v>249</v>
@@ -4228,7 +4301,7 @@
         <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G89" t="s">
         <v>248</v>
@@ -4250,14 +4323,15 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>389</v>
+      <c r="A90" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_contact</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
         <v>249</v>
@@ -4266,7 +4340,7 @@
         <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s">
         <v>66</v>
@@ -4279,14 +4353,15 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>391</v>
+      <c r="A91" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D91" t="s">
         <v>249</v>
@@ -4295,7 +4370,7 @@
         <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L91" t="s">
         <v>66</v>
@@ -4308,14 +4383,15 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>394</v>
+      <c r="A92" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.organism</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
         <v>249</v>
@@ -4324,7 +4400,7 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L92" t="s">
         <v>66</v>
@@ -4337,14 +4413,15 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>399</v>
+      <c r="A93" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.full_description</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D93" t="s">
         <v>249</v>
@@ -4353,7 +4430,7 @@
         <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L93" t="s">
         <v>66</v>
@@ -4366,14 +4443,15 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>401</v>
+      <c r="A94" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.data_type</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D94" t="s">
         <v>249</v>
@@ -4382,7 +4460,7 @@
         <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L94" t="s">
         <v>66</v>
@@ -4396,14 +4474,14 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" ref="A95:A96" si="16">CONCATENATE(D95,".",F95)</f>
+        <f t="shared" si="16"/>
         <v>DatasetRecordClasses.DatasetRecordClass.protocol_images</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C95" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D95" t="s">
         <v>249</v>
@@ -4412,7 +4490,7 @@
         <v>85</v>
       </c>
       <c r="F95" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -4427,10 +4505,10 @@
         <v>DatasetRecordClasses.DatasetRecordClass.protocol_description</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C96" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D96" t="s">
         <v>249</v>
@@ -4439,7 +4517,7 @@
         <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -4449,14 +4527,15 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>451</v>
+      <c r="A97" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
       </c>
       <c r="B97" t="s">
         <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D97" t="s">
         <v>249</v>
@@ -4465,7 +4544,7 @@
         <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L97" t="s">
         <v>66</v>
@@ -4479,14 +4558,14 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>CONCATENATE(D98,".",F98)</f>
+        <f t="shared" si="16"/>
         <v>DatasetRecordClasses.DatasetRecordClass.microarray_datasets</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C98" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D98" t="s">
         <v>249</v>
@@ -4495,7 +4574,7 @@
         <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M98" t="s">
         <v>197</v>
@@ -4503,14 +4582,14 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>CONCATENATE(D99,".",F99)</f>
+        <f t="shared" si="16"/>
         <v>DatasetRecordClasses.DatasetRecordClass.proteomics_datasets</v>
       </c>
       <c r="B99" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C99" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D99" t="s">
         <v>249</v>
@@ -4519,18 +4598,19 @@
         <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>393</v>
+      <c r="A100" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C100" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D100" t="s">
         <v>249</v>
@@ -4539,21 +4619,22 @@
         <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M100" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>389</v>
+      <c r="A101" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.record_taxon</v>
       </c>
       <c r="B101" t="s">
         <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D101" t="s">
         <v>249</v>
@@ -4562,10 +4643,31 @@
         <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M101" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.study_access</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" t="s">
+        <v>249</v>
+      </c>
+      <c r="E102" t="s">
+        <v>62</v>
+      </c>
+      <c r="F102" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4574,6 +4676,13 @@
     <hyperlink ref="B95" r:id="rId2" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{D64BE6B9-0C24-4330-9E69-59D2AFAB68FD}"/>
     <hyperlink ref="B98" r:id="rId3" xr:uid="{E33DF20E-8197-497E-ACBC-9A7D8C6B61E9}"/>
     <hyperlink ref="B100" r:id="rId4" xr:uid="{7BEA3C84-8210-4D98-BC03-B17F03A7A315}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{77374C50-9DA7-4029-86EA-90D1EAEB2CD8}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{6A8B9933-A376-4B67-AEA0-F78BE733288C}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{134E537B-1ED0-44E3-9238-5DBC0B83B820}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{8BB624E1-F50C-404E-9011-F65592F215C3}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{A52DFD08-1FC0-4210-9576-DDDC1C0DE9B9}"/>
+    <hyperlink ref="B21" r:id="rId10" xr:uid="{DFA1871A-B92C-4090-A7A3-04AC5E96B789}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{11978A85-F4C4-4280-AD6C-AEEF995C1E86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6213,7 +6322,7 @@
         <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -6465,7 +6574,7 @@
         <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -6991,13 +7100,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C65" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D65">
         <v>900</v>
@@ -7005,13 +7114,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C66" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D66">
         <v>901</v>
@@ -7019,13 +7128,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C67" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D67">
         <v>902</v>
@@ -7033,13 +7142,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C68" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D68">
         <v>950</v>
@@ -7047,13 +7156,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C69" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D69">
         <v>50</v>
@@ -7061,13 +7170,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C70" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D70">
         <v>55</v>
@@ -7075,13 +7184,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C71" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D71">
         <v>52</v>
@@ -7089,13 +7198,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C72" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D72">
         <v>53</v>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\ErythronDBWebsite\Model\lib\wdk\ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3306506D-36A1-4CEC-9972-0F42503FC847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F5095-58A5-455B-99D8-31FD2C03822C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="commonIndividuals" localSheetId="3">common!$A$1:$N$36</definedName>
-    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$62</definedName>
+    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$63</definedName>
     <definedName name="individuals" localSheetId="1">orthomcl!$A$1:$N$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="473">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1525,6 +1525,9 @@
   </si>
   <si>
     <t>http://www.cbil.upenn.edu/ErythronDB/study005_q</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1867,13 +1870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3481,45 +3484,48 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" ref="A59" si="11">CONCATENATE(D59,".",F59)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.note</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>193</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>197</v>
+      </c>
+      <c r="N59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" ref="A62:A63" si="11">CONCATENATE(D62,".",F62)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" t="s">
-        <v>429</v>
-      </c>
-      <c r="E62" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J62" t="s">
-        <v>193</v>
-      </c>
-      <c r="M62" t="s">
-        <v>197</v>
-      </c>
-      <c r="N62" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="11"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
+        <f t="shared" ref="A63:A64" si="12">CONCATENATE(D63,".",F63)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
       </c>
       <c r="B63" t="s">
         <v>155</v>
@@ -3534,17 +3540,11 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>127</v>
       </c>
       <c r="J63" t="s">
         <v>193</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>66</v>
-      </c>
       <c r="M63" t="s">
         <v>197</v>
       </c>
@@ -3554,8 +3554,8 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>CONCATENATE(D64,".",F64)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
+        <f t="shared" si="12"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
       </c>
       <c r="B64" t="s">
         <v>155</v>
@@ -3570,13 +3570,13 @@
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="J64" t="s">
         <v>193</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="s">
         <v>66</v>
@@ -3590,8 +3590,8 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" ref="A65" si="12">CONCATENATE(D65,".",F65)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
+        <f>CONCATENATE(D65,".",F65)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -3606,13 +3606,13 @@
         <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="J65" t="s">
         <v>193</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L65" t="s">
         <v>66</v>
@@ -3626,8 +3626,8 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>CONCATENATE(D66,".",F66)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
+        <f t="shared" ref="A66" si="13">CONCATENATE(D66,".",F66)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
       </c>
       <c r="B66" t="s">
         <v>155</v>
@@ -3642,13 +3642,13 @@
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="J66" t="s">
         <v>193</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L66" t="s">
         <v>66</v>
@@ -3662,8 +3662,8 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67" si="13">CONCATENATE(D67,".",F67)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
+        <f>CONCATENATE(D67,".",F67)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
       </c>
       <c r="B67" t="s">
         <v>155</v>
@@ -3678,13 +3678,13 @@
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="J67" t="s">
         <v>193</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L67" t="s">
         <v>66</v>
@@ -3698,8 +3698,8 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>CONCATENATE(D68,".",F68)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
+        <f t="shared" ref="A68" si="14">CONCATENATE(D68,".",F68)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
       </c>
       <c r="B68" t="s">
         <v>155</v>
@@ -3714,13 +3714,13 @@
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="J68" t="s">
         <v>193</v>
       </c>
       <c r="K68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L68" t="s">
         <v>66</v>
@@ -3728,11 +3728,14 @@
       <c r="M68" t="s">
         <v>197</v>
       </c>
+      <c r="N68" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A70" si="14">CONCATENATE(D69,".",F69)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
+        <f>CONCATENATE(D69,".",F69)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B69" t="s">
         <v>155</v>
@@ -3747,7 +3750,7 @@
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>411</v>
+        <v>242</v>
       </c>
       <c r="J69" t="s">
         <v>193</v>
@@ -3755,14 +3758,17 @@
       <c r="K69">
         <v>6</v>
       </c>
-      <c r="N69" t="s">
-        <v>65</v>
+      <c r="L69" t="s">
+        <v>66</v>
+      </c>
+      <c r="M69" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="14"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
+        <f t="shared" ref="A70:A71" si="15">CONCATENATE(D70,".",F70)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B70" t="s">
         <v>155</v>
@@ -3777,7 +3783,7 @@
         <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J70" t="s">
         <v>193</v>
@@ -3791,14 +3797,14 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>CONCATENATE(D71,".",F71)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
         <v>429</v>
@@ -3807,19 +3813,13 @@
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J71" t="s">
         <v>193</v>
       </c>
       <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>66</v>
-      </c>
-      <c r="M71" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="N71" t="s">
         <v>65</v>
@@ -3828,7 +3828,7 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>CONCATENATE(D72,".",F72)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
       </c>
       <c r="B72" t="s">
         <v>162</v>
@@ -3843,13 +3843,13 @@
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J72" t="s">
         <v>193</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" t="s">
         <v>66</v>
@@ -3864,7 +3864,7 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>CONCATENATE(D73,".",F73)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
       </c>
       <c r="B73" t="s">
         <v>162</v>
@@ -3879,11 +3879,14 @@
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="J73" t="s">
         <v>193</v>
       </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
       <c r="L73" t="s">
         <v>66</v>
       </c>
@@ -3896,8 +3899,8 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" ref="A74:A84" si="15">CONCATENATE(D74,".",F74)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
+        <f>CONCATENATE(D74,".",F74)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
       </c>
       <c r="B74" t="s">
         <v>162</v>
@@ -3912,7 +3915,7 @@
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="J74" t="s">
         <v>193</v>
@@ -3929,14 +3932,14 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
+        <f t="shared" ref="A75:A85" si="16">CONCATENATE(D75,".",F75)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
         <v>429</v>
@@ -3945,7 +3948,7 @@
         <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
       <c r="J75" t="s">
         <v>193</v>
@@ -3962,8 +3965,8 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
       </c>
       <c r="B76" t="s">
         <v>174</v>
@@ -3978,7 +3981,7 @@
         <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J76" t="s">
         <v>193</v>
@@ -3995,29 +3998,32 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
         <v>429</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>399</v>
+        <v>207</v>
       </c>
       <c r="J77" t="s">
         <v>193</v>
       </c>
+      <c r="L77" t="s">
+        <v>66</v>
+      </c>
       <c r="M77" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
@@ -4025,8 +4031,8 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B78" t="s">
         <v>157</v>
@@ -4041,7 +4047,7 @@
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J78" t="s">
         <v>193</v>
@@ -4055,8 +4061,8 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
@@ -4071,7 +4077,7 @@
         <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -4085,8 +4091,8 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B80" t="s">
         <v>157</v>
@@ -4101,7 +4107,7 @@
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J80" t="s">
         <v>193</v>
@@ -4115,14 +4121,14 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
         <v>429</v>
@@ -4131,7 +4137,7 @@
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J81" t="s">
         <v>193</v>
@@ -4145,8 +4151,8 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
       </c>
       <c r="B82" t="s">
         <v>172</v>
@@ -4161,7 +4167,7 @@
         <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J82" t="s">
         <v>193</v>
@@ -4175,14 +4181,14 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>418</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="D83" t="s">
         <v>429</v>
@@ -4191,14 +4197,11 @@
         <v>85</v>
       </c>
       <c r="F83" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="J83" t="s">
         <v>193</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
       <c r="M83" t="s">
         <v>64</v>
       </c>
@@ -4208,8 +4211,8 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>418</v>
@@ -4224,13 +4227,13 @@
         <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J84" t="s">
         <v>193</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" t="s">
         <v>64</v>
@@ -4239,54 +4242,48 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="16"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
+        <v>423</v>
+      </c>
+      <c r="D85" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" t="s">
+        <v>431</v>
+      </c>
+      <c r="J85" t="s">
+        <v>193</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="M85" t="s">
+        <v>64</v>
+      </c>
+      <c r="N85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f>CONCATENATE(D88,".",F88)</f>
-        <v>DatasetRecordClasses.DatasetRecordClass.search_expression</v>
-      </c>
-      <c r="B88" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" t="s">
-        <v>394</v>
-      </c>
-      <c r="D88" t="s">
-        <v>249</v>
-      </c>
-      <c r="E88" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" t="s">
-        <v>452</v>
-      </c>
-      <c r="G88" t="s">
-        <v>248</v>
-      </c>
-      <c r="H88" t="s">
-        <v>248</v>
-      </c>
-      <c r="I88" t="s">
-        <v>248</v>
-      </c>
-      <c r="J88" t="s">
-        <v>248</v>
-      </c>
-      <c r="K88" t="s">
-        <v>248</v>
-      </c>
-      <c r="M88" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" ref="A89:A102" si="16">CONCATENATE(D89,".",F89)</f>
-        <v>DatasetRecordClasses.DatasetRecordClass.search_comparison</v>
+        <f>CONCATENATE(D89,".",F89)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.search_expression</v>
       </c>
       <c r="B89" t="s">
         <v>204</v>
@@ -4301,7 +4298,7 @@
         <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G89" t="s">
         <v>248</v>
@@ -4324,8 +4321,8 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.primary_contact</v>
+        <f t="shared" ref="A90:A103" si="17">CONCATENATE(D90,".",F90)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.search_comparison</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
@@ -4340,22 +4337,31 @@
         <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>389</v>
-      </c>
-      <c r="L90" t="s">
-        <v>66</v>
+        <v>465</v>
+      </c>
+      <c r="G90" t="s">
+        <v>248</v>
+      </c>
+      <c r="H90" t="s">
+        <v>248</v>
+      </c>
+      <c r="I90" t="s">
+        <v>248</v>
+      </c>
+      <c r="J90" t="s">
+        <v>248</v>
+      </c>
+      <c r="K90" t="s">
+        <v>248</v>
       </c>
       <c r="M90" t="s">
         <v>197</v>
       </c>
-      <c r="N90" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_contact</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
@@ -4370,7 +4376,7 @@
         <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L91" t="s">
         <v>66</v>
@@ -4384,8 +4390,8 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.organism</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
@@ -4400,7 +4406,7 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L92" t="s">
         <v>66</v>
@@ -4414,8 +4420,8 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.full_description</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.organism</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
@@ -4430,7 +4436,7 @@
         <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L93" t="s">
         <v>66</v>
@@ -4444,8 +4450,8 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.data_type</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.full_description</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
@@ -4460,7 +4466,7 @@
         <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L94" t="s">
         <v>66</v>
@@ -4474,35 +4480,38 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.protocol_images</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>454</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.data_type</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="D95" t="s">
         <v>249</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s">
-        <v>451</v>
-      </c>
-      <c r="K95">
-        <v>2</v>
+        <v>396</v>
+      </c>
+      <c r="L95" t="s">
+        <v>66</v>
       </c>
       <c r="M95" t="s">
-        <v>64</v>
+        <v>197</v>
+      </c>
+      <c r="N95" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.protocol_description</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.protocol_images</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>454</v>
@@ -4514,13 +4523,13 @@
         <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F96" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" t="s">
         <v>64</v>
@@ -4528,14 +4537,14 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
-      </c>
-      <c r="B97" t="s">
-        <v>204</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.protocol_description</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="D97" t="s">
         <v>249</v>
@@ -4544,28 +4553,25 @@
         <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>390</v>
-      </c>
-      <c r="L97" t="s">
-        <v>66</v>
+        <v>453</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>197</v>
-      </c>
-      <c r="N97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.microarray_datasets</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>459</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="D98" t="s">
         <v>249</v>
@@ -4574,22 +4580,28 @@
         <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>463</v>
+        <v>390</v>
+      </c>
+      <c r="L98" t="s">
+        <v>66</v>
       </c>
       <c r="M98" t="s">
         <v>197</v>
       </c>
+      <c r="N98" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.proteomics_datasets</v>
-      </c>
-      <c r="B99" t="s">
-        <v>461</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.microarray_datasets</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="C99" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D99" t="s">
         <v>249</v>
@@ -4598,19 +4610,22 @@
         <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>464</v>
+        <v>463</v>
+      </c>
+      <c r="M99" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>459</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.proteomics_datasets</v>
+      </c>
+      <c r="B100" t="s">
+        <v>461</v>
       </c>
       <c r="C100" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D100" t="s">
         <v>249</v>
@@ -4619,22 +4634,19 @@
         <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>391</v>
-      </c>
-      <c r="M100" t="s">
-        <v>197</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.record_taxon</v>
-      </c>
-      <c r="B101" t="s">
-        <v>204</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="C101" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D101" t="s">
         <v>249</v>
@@ -4643,7 +4655,7 @@
         <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="M101" t="s">
         <v>197</v>
@@ -4651,8 +4663,8 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="16"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.study_access</v>
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.record_taxon</v>
       </c>
       <c r="B102" t="s">
         <v>204</v>
@@ -4667,15 +4679,39 @@
         <v>62</v>
       </c>
       <c r="F102" t="s">
+        <v>466</v>
+      </c>
+      <c r="M102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="17"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.study_access</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
+        <v>394</v>
+      </c>
+      <c r="D103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F103" t="s">
         <v>467</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B96" r:id="rId1" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{04B9D51A-0900-4B93-B368-0849FF381F1D}"/>
-    <hyperlink ref="B95" r:id="rId2" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{D64BE6B9-0C24-4330-9E69-59D2AFAB68FD}"/>
-    <hyperlink ref="B98" r:id="rId3" xr:uid="{E33DF20E-8197-497E-ACBC-9A7D8C6B61E9}"/>
-    <hyperlink ref="B100" r:id="rId4" xr:uid="{7BEA3C84-8210-4D98-BC03-B17F03A7A315}"/>
+    <hyperlink ref="B97" r:id="rId1" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{04B9D51A-0900-4B93-B368-0849FF381F1D}"/>
+    <hyperlink ref="B96" r:id="rId2" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{D64BE6B9-0C24-4330-9E69-59D2AFAB68FD}"/>
+    <hyperlink ref="B99" r:id="rId3" xr:uid="{E33DF20E-8197-497E-ACBC-9A7D8C6B61E9}"/>
+    <hyperlink ref="B101" r:id="rId4" xr:uid="{7BEA3C84-8210-4D98-BC03-B17F03A7A315}"/>
     <hyperlink ref="B16" r:id="rId5" xr:uid="{77374C50-9DA7-4029-86EA-90D1EAEB2CD8}"/>
     <hyperlink ref="B17" r:id="rId6" xr:uid="{6A8B9933-A376-4B67-AEA0-F78BE733288C}"/>
     <hyperlink ref="B18" r:id="rId7" xr:uid="{134E537B-1ED0-44E3-9238-5DBC0B83B820}"/>

--- a/Model/lib/wdk/ontology/individuals.xlsx
+++ b/Model/lib/wdk/ontology/individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\wsl_share\ErythronDBWebsite\Model\lib\wdk\ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F5095-58A5-455B-99D8-31FD2C03822C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0AD7F796-4173-413A-BBB6-DCC96B308AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34260" yWindow="5670" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="commonIndividuals" localSheetId="3">common!$A$1:$N$36</definedName>
-    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$63</definedName>
+    <definedName name="individuals" localSheetId="0">individuals!$A$1:$N$61</definedName>
     <definedName name="individuals" localSheetId="1">orthomcl!$A$1:$N$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="471">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1407,24 +1407,6 @@
     <t>study003_comparisons</t>
   </si>
   <si>
-    <t>MouseGeneQuestions.go</t>
-  </si>
-  <si>
-    <t>HumanGeneQuestions.go</t>
-  </si>
-  <si>
-    <t>MouseGeneQuestions.upload</t>
-  </si>
-  <si>
-    <t>HumanGeneQuestions.upload</t>
-  </si>
-  <si>
-    <t>MouseGeneQuestions.pathways</t>
-  </si>
-  <si>
-    <t>HumanGeneQuestions.pathways</t>
-  </si>
-  <si>
     <t>study003_questions.study003_comparison</t>
   </si>
   <si>
@@ -1528,6 +1510,18 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>hs_questions.hs_gene_keyword</t>
+  </si>
+  <si>
+    <t>mm_questions.mm_gene_keyword</t>
+  </si>
+  <si>
+    <t>mm_questions.mm_upload</t>
+  </si>
+  <si>
+    <t>hs_questions.hs_upload</t>
   </si>
 </sst>
 </file>
@@ -1870,13 +1864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B57DF8-3481-BA45-B7D4-B0110941E0EF}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2009,13 +2003,13 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(D10,".",F10)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.HumanGeneQuestions.upload</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.hs_questions.hs_upload</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>429</v>
@@ -2024,7 +2018,10 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>435</v>
+        <v>470</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -2038,14 +2035,14 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" ref="A11:A21" si="0">CONCATENATE(D11,".",F11)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.upload</v>
+        <f t="shared" ref="A11:A19" si="0">CONCATENATE(D11,".",F11)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.mm_questions.mm_upload</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>407</v>
@@ -2054,7 +2051,10 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>469</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -2068,14 +2068,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.go</v>
+        <f>CONCATENATE(D12,".",F12)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.mm_questions.mm_gene_keyword</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>407</v>
@@ -2084,7 +2084,10 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>432</v>
+        <v>468</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>66</v>
@@ -2098,14 +2101,14 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" ref="A13:A14" si="1">CONCATENATE(D13,".",F13)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.HumanGeneQuestions.go</v>
+        <f t="shared" ref="A13" si="1">CONCATENATE(D13,".",F13)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.hs_questions.hs_gene_keyword</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>429</v>
@@ -2114,7 +2117,10 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>433</v>
+        <v>467</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>66</v>
@@ -2128,23 +2134,23 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.MouseGeneQuestions.pathways</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+        <f>CONCATENATE(D14,".",F14)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_questions.study003_comparison</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>423</v>
       </c>
       <c r="D14" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L14" t="s">
         <v>66</v>
@@ -2158,23 +2164,26 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" ref="A15" si="2">CONCATENATE(D15,".",F15)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.HumanGeneQuestions.pathways</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_comparison</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>420</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>433</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -2188,23 +2197,26 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>CONCATENATE(D16,".",F16)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_questions.study003_comparison</v>
+        <f t="shared" si="0"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_expression</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
       <c r="L16" t="s">
         <v>66</v>
@@ -2219,13 +2231,13 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_comparison</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_comparison</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D17" t="s">
         <v>407</v>
@@ -2234,10 +2246,10 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
         <v>66</v>
@@ -2252,13 +2264,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_questions.study001_expression</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_expression</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
         <v>407</v>
@@ -2267,10 +2279,10 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18" t="s">
         <v>66</v>
@@ -2285,13 +2297,13 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_comparison</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_comparison</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D19" t="s">
         <v>407</v>
@@ -2300,10 +2312,10 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" t="s">
         <v>66</v>
@@ -2317,14 +2329,14 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_questions.study002_expression</v>
+        <f>CONCATENATE(D20,".",F20)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_expression</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D20" t="s">
         <v>407</v>
@@ -2333,10 +2345,10 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
         <v>66</v>
@@ -2348,81 +2360,81 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_comparison</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE(D24,".",F24)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.source_id</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
         <v>407</v>
       </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>443</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="s">
+        <v>197</v>
+      </c>
+      <c r="N24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:A45" si="2">CONCATENATE(D25,".",F25)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.organism</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>392</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>66</v>
       </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>CONCATENATE(D22,".",F22)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_questions.study005_expression</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" t="s">
-        <v>424</v>
-      </c>
-      <c r="D22" t="s">
-        <v>407</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>444</v>
-      </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>397</v>
+      <c r="M25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(D26,".",F26)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.source_id</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.symbol</v>
       </c>
       <c r="B26" t="s">
         <v>155</v>
@@ -2437,11 +2449,17 @@
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
         <v>193</v>
       </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
       <c r="M26" t="s">
         <v>197</v>
       </c>
@@ -2451,8 +2469,8 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" ref="A27:A47" si="3">CONCATENATE(D27,".",F27)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.organism</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.product</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
@@ -2467,13 +2485,13 @@
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
         <v>193</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="s">
         <v>66</v>
@@ -2488,7 +2506,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>CONCATENATE(D28,".",F28)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.symbol</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.synonym</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -2503,13 +2521,13 @@
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
         <v>193</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28" t="s">
         <v>66</v>
@@ -2523,8 +2541,8 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.product</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_type</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -2539,13 +2557,13 @@
         <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
         <v>193</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L29" t="s">
         <v>66</v>
@@ -2560,7 +2578,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>CONCATENATE(D30,".",F30)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.synonym</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -2575,13 +2593,13 @@
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
         <v>193</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
@@ -2589,14 +2607,11 @@
       <c r="M30" t="s">
         <v>197</v>
       </c>
-      <c r="N30" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_type</v>
+        <f t="shared" ref="A31:A32" si="3">CONCATENATE(D31,".",F31)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B31" t="s">
         <v>155</v>
@@ -2611,19 +2626,13 @@
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="J31" t="s">
         <v>193</v>
       </c>
       <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
@@ -2631,8 +2640,8 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>CONCATENATE(D32,".",F32)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_record_link</v>
+        <f t="shared" si="3"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B32" t="s">
         <v>155</v>
@@ -2647,7 +2656,7 @@
         <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>412</v>
       </c>
       <c r="J32" t="s">
         <v>193</v>
@@ -2655,23 +2664,20 @@
       <c r="K32">
         <v>6</v>
       </c>
-      <c r="L32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" ref="A33:A34" si="4">CONCATENATE(D33,".",F33)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_source_id</v>
+        <f>CONCATENATE(D33,".",F33)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.locus</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
         <v>407</v>
@@ -2680,13 +2686,19 @@
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J33" t="s">
         <v>193</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" t="s">
+        <v>197</v>
       </c>
       <c r="N33" t="s">
         <v>65</v>
@@ -2694,14 +2706,14 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="4"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.ortholog_symbol</v>
+        <f>CONCATENATE(D34,".",F34)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.location</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
         <v>407</v>
@@ -2710,22 +2722,28 @@
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J34" t="s">
         <v>193</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" t="s">
+        <v>197</v>
       </c>
       <c r="N34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>CONCATENATE(D35,".",F35)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.locus</v>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.chromosome</v>
       </c>
       <c r="B35" t="s">
         <v>162</v>
@@ -2740,14 +2758,11 @@
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>409</v>
+        <v>208</v>
       </c>
       <c r="J35" t="s">
         <v>193</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
       <c r="L35" t="s">
         <v>66</v>
       </c>
@@ -2760,8 +2775,8 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>CONCATENATE(D36,".",F36)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.location</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.strand</v>
       </c>
       <c r="B36" t="s">
         <v>162</v>
@@ -2776,14 +2791,11 @@
         <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J36" t="s">
         <v>193</v>
       </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
       <c r="L36" t="s">
         <v>66</v>
       </c>
@@ -2796,14 +2808,14 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>CONCATENATE(D37,".",F37)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.chromosome</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.start_min</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
         <v>407</v>
@@ -2812,7 +2824,7 @@
         <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J37" t="s">
         <v>193</v>
@@ -2829,14 +2841,14 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.strand</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.end_max</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
         <v>407</v>
@@ -2845,7 +2857,7 @@
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>408</v>
+        <v>207</v>
       </c>
       <c r="J38" t="s">
         <v>193</v>
@@ -2862,32 +2874,29 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.start_min</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>407</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>399</v>
       </c>
       <c r="J39" t="s">
         <v>193</v>
       </c>
-      <c r="L39" t="s">
-        <v>66</v>
-      </c>
       <c r="M39" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="N39" t="s">
         <v>65</v>
@@ -2895,32 +2904,29 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.end_max</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
         <v>407</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>400</v>
       </c>
       <c r="J40" t="s">
         <v>193</v>
       </c>
-      <c r="L40" t="s">
-        <v>66</v>
-      </c>
       <c r="M40" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="N40" t="s">
         <v>65</v>
@@ -2928,8 +2934,8 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.gene_link_outs</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B41" t="s">
         <v>157</v>
@@ -2944,7 +2950,7 @@
         <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J41" t="s">
         <v>193</v>
@@ -2958,8 +2964,8 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.protein_link_outs</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B42" t="s">
         <v>157</v>
@@ -2974,7 +2980,7 @@
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J42" t="s">
         <v>193</v>
@@ -2988,14 +2994,14 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.clinical_link_outs</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.pathways</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
         <v>407</v>
@@ -3004,7 +3010,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J43" t="s">
         <v>193</v>
@@ -3018,14 +3024,14 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.sequence_link_outs</v>
+        <f t="shared" ref="A44" si="4">CONCATENATE(D44,".",F44)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.go_terms</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
         <v>407</v>
@@ -3034,7 +3040,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J44" t="s">
         <v>193</v>
@@ -3048,14 +3054,14 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.pathways</v>
-      </c>
-      <c r="B45" t="s">
-        <v>172</v>
+        <f t="shared" si="2"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
         <v>407</v>
@@ -3064,11 +3070,14 @@
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
         <v>193</v>
       </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
       <c r="M45" t="s">
         <v>64</v>
       </c>
@@ -3078,14 +3087,14 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" ref="A46" si="5">CONCATENATE(D46,".",F46)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.go_terms</v>
-      </c>
-      <c r="B46" t="s">
-        <v>172</v>
+        <f t="shared" ref="A46:A49" si="5">CONCATENATE(D46,".",F46)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="D46" t="s">
         <v>407</v>
@@ -3094,11 +3103,14 @@
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
       </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
       <c r="M46" t="s">
         <v>64</v>
       </c>
@@ -3108,8 +3120,8 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="3"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_within_lineage_comparisons</v>
+        <f>CONCATENATE(D47,".",F47)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_reporter_profiles</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>416</v>
@@ -3124,25 +3136,22 @@
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="J47" t="s">
         <v>193</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="s">
         <v>64</v>
       </c>
-      <c r="N47" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" ref="A48:A51" si="6">CONCATENATE(D48,".",F48)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_across_lineage_comparisons</v>
+        <f t="shared" si="5"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_gene_profiles</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>416</v>
@@ -3157,31 +3166,28 @@
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="J48" t="s">
         <v>193</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M48" t="s">
         <v>64</v>
       </c>
-      <c r="N48" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>CONCATENATE(D49,".",F49)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_reporter_profiles</v>
+        <f t="shared" si="5"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D49" t="s">
         <v>407</v>
@@ -3190,28 +3196,31 @@
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="J49" t="s">
         <v>193</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="s">
         <v>64</v>
       </c>
+      <c r="N49" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="6"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study001_gene_profiles</v>
+        <f t="shared" ref="A50" si="6">CONCATENATE(D50,".",F50)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D50" t="s">
         <v>407</v>
@@ -3220,22 +3229,25 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
         <v>193</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50" t="s">
         <v>64</v>
       </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="6"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_lineage_comparisons</v>
+        <f t="shared" ref="A51:A55" si="7">CONCATENATE(D51,".",F51)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_reporter_profiles</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>417</v>
@@ -3250,25 +3262,22 @@
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="J51" t="s">
         <v>193</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="s">
         <v>64</v>
       </c>
-      <c r="N51" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" ref="A52" si="7">CONCATENATE(D52,".",F52)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_treatment_comparisons</v>
+        <f t="shared" ref="A52" si="8">CONCATENATE(D52,".",F52)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_gene_profiles</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>417</v>
@@ -3283,31 +3292,28 @@
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
         <v>193</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
       </c>
-      <c r="N52" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" ref="A53:A57" si="8">CONCATENATE(D53,".",F53)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_reporter_profiles</v>
+        <f t="shared" si="7"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C53" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D53" t="s">
         <v>407</v>
@@ -3316,28 +3322,31 @@
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="J53" t="s">
         <v>193</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="s">
         <v>64</v>
       </c>
+      <c r="N53" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" ref="A54" si="9">CONCATENATE(D54,".",F54)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study002_gene_profiles</v>
+        <f>CONCATENATE(D54,".",F54)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C54" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
         <v>407</v>
@@ -3346,22 +3355,25 @@
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="J54" t="s">
         <v>193</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54" t="s">
         <v>64</v>
       </c>
+      <c r="N54" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="8"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_genotype_comparisons</v>
+        <f t="shared" si="7"/>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_reporter_profiles</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>422</v>
@@ -3376,25 +3388,22 @@
         <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="J55" t="s">
         <v>193</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55" t="s">
         <v>64</v>
       </c>
-      <c r="N55" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>CONCATENATE(D56,".",F56)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_treatment_comparisons</v>
+        <f t="shared" ref="A56" si="9">CONCATENATE(D56,".",F56)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_gene_profiles</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>422</v>
@@ -3409,123 +3418,126 @@
         <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="J56" t="s">
         <v>193</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56" t="s">
         <v>64</v>
       </c>
-      <c r="N56" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="8"/>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_reporter_profiles</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>422</v>
+        <f t="shared" ref="A57" si="10">CONCATENATE(D57,".",F57)</f>
+        <v>MouseGeneRecordClasses.MouseGeneRecordClass.note</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
         <v>407</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="J57" t="s">
         <v>193</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f t="shared" ref="A58" si="10">CONCATENATE(D58,".",F58)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.study005_gene_profiles</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C58" t="s">
-        <v>424</v>
-      </c>
-      <c r="D58" t="s">
-        <v>407</v>
-      </c>
-      <c r="E58" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" t="s">
-        <v>448</v>
-      </c>
-      <c r="J58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" ref="A61:A62" si="11">CONCATENATE(D61,".",F61)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>429</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" t="s">
         <v>193</v>
       </c>
-      <c r="K58">
+      <c r="M61" t="s">
+        <v>197</v>
+      </c>
+      <c r="N61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="11"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
+        <v>429</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J62" t="s">
+        <v>193</v>
+      </c>
+      <c r="K62">
         <v>1</v>
       </c>
-      <c r="M58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" ref="A59" si="11">CONCATENATE(D59,".",F59)</f>
-        <v>MouseGeneRecordClasses.MouseGeneRecordClass.note</v>
-      </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" t="s">
-        <v>407</v>
-      </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" t="s">
-        <v>472</v>
-      </c>
-      <c r="J59" t="s">
-        <v>193</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="L62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" t="s">
         <v>197</v>
       </c>
-      <c r="N59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>398</v>
+      <c r="N62" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" ref="A63:A64" si="12">CONCATENATE(D63,".",F63)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.source_id</v>
+        <f>CONCATENATE(D63,".",F63)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
       </c>
       <c r="B63" t="s">
         <v>155</v>
@@ -3540,11 +3552,17 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="J63" t="s">
         <v>193</v>
       </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" t="s">
+        <v>66</v>
+      </c>
       <c r="M63" t="s">
         <v>197</v>
       </c>
@@ -3554,8 +3572,8 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="12"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.organism</v>
+        <f t="shared" ref="A64" si="12">CONCATENATE(D64,".",F64)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
       </c>
       <c r="B64" t="s">
         <v>155</v>
@@ -3570,13 +3588,13 @@
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="J64" t="s">
         <v>193</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" t="s">
         <v>66</v>
@@ -3591,7 +3609,7 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>CONCATENATE(D65,".",F65)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.symbol</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -3606,13 +3624,13 @@
         <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J65" t="s">
         <v>193</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L65" t="s">
         <v>66</v>
@@ -3627,7 +3645,7 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" ref="A66" si="13">CONCATENATE(D66,".",F66)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.product</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
       </c>
       <c r="B66" t="s">
         <v>155</v>
@@ -3642,13 +3660,13 @@
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="J66" t="s">
         <v>193</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L66" t="s">
         <v>66</v>
@@ -3663,7 +3681,7 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>CONCATENATE(D67,".",F67)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.synonym</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
       </c>
       <c r="B67" t="s">
         <v>155</v>
@@ -3678,13 +3696,13 @@
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J67" t="s">
         <v>193</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L67" t="s">
         <v>66</v>
@@ -3692,14 +3710,11 @@
       <c r="M67" t="s">
         <v>197</v>
       </c>
-      <c r="N67" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" ref="A68" si="14">CONCATENATE(D68,".",F68)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_type</v>
+        <f t="shared" ref="A68:A69" si="14">CONCATENATE(D68,".",F68)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
       </c>
       <c r="B68" t="s">
         <v>155</v>
@@ -3714,19 +3729,13 @@
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="J68" t="s">
         <v>193</v>
       </c>
       <c r="K68">
-        <v>5</v>
-      </c>
-      <c r="L68" t="s">
-        <v>66</v>
-      </c>
-      <c r="M68" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="N68" t="s">
         <v>65</v>
@@ -3734,8 +3743,8 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>CONCATENATE(D69,".",F69)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_record_link</v>
+        <f t="shared" si="14"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
       </c>
       <c r="B69" t="s">
         <v>155</v>
@@ -3750,7 +3759,7 @@
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>412</v>
       </c>
       <c r="J69" t="s">
         <v>193</v>
@@ -3758,23 +3767,20 @@
       <c r="K69">
         <v>6</v>
       </c>
-      <c r="L69" t="s">
-        <v>66</v>
-      </c>
-      <c r="M69" t="s">
-        <v>197</v>
+      <c r="N69" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" ref="A70:A71" si="15">CONCATENATE(D70,".",F70)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_source_id</v>
+        <f>CONCATENATE(D70,".",F70)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
         <v>429</v>
@@ -3783,13 +3789,19 @@
         <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J70" t="s">
         <v>193</v>
       </c>
       <c r="K70">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" t="s">
+        <v>197</v>
       </c>
       <c r="N70" t="s">
         <v>65</v>
@@ -3797,14 +3809,14 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="15"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.ortholog_symbol</v>
+        <f>CONCATENATE(D71,".",F71)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
         <v>429</v>
@@ -3813,13 +3825,19 @@
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J71" t="s">
         <v>193</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="L71" t="s">
+        <v>66</v>
+      </c>
+      <c r="M71" t="s">
+        <v>197</v>
       </c>
       <c r="N71" t="s">
         <v>65</v>
@@ -3828,7 +3846,7 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>CONCATENATE(D72,".",F72)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.locus</v>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
       </c>
       <c r="B72" t="s">
         <v>162</v>
@@ -3843,14 +3861,11 @@
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>409</v>
+        <v>208</v>
       </c>
       <c r="J72" t="s">
         <v>193</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
       <c r="L72" t="s">
         <v>66</v>
       </c>
@@ -3863,8 +3878,8 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>CONCATENATE(D73,".",F73)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.location</v>
+        <f t="shared" ref="A73:A83" si="15">CONCATENATE(D73,".",F73)</f>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
       </c>
       <c r="B73" t="s">
         <v>162</v>
@@ -3879,14 +3894,11 @@
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J73" t="s">
         <v>193</v>
       </c>
-      <c r="K73">
-        <v>2</v>
-      </c>
       <c r="L73" t="s">
         <v>66</v>
       </c>
@@ -3899,14 +3911,14 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>CONCATENATE(D74,".",F74)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.chromosome</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
         <v>429</v>
@@ -3915,7 +3927,7 @@
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J74" t="s">
         <v>193</v>
@@ -3932,14 +3944,14 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" ref="A75:A85" si="16">CONCATENATE(D75,".",F75)</f>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.strand</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>429</v>
@@ -3948,7 +3960,7 @@
         <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>408</v>
+        <v>207</v>
       </c>
       <c r="J75" t="s">
         <v>193</v>
@@ -3965,32 +3977,29 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.start_min</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
         <v>429</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>399</v>
       </c>
       <c r="J76" t="s">
         <v>193</v>
       </c>
-      <c r="L76" t="s">
-        <v>66</v>
-      </c>
       <c r="M76" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="N76" t="s">
         <v>65</v>
@@ -3998,32 +4007,29 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.end_max</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
         <v>429</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>400</v>
       </c>
       <c r="J77" t="s">
         <v>193</v>
       </c>
-      <c r="L77" t="s">
-        <v>66</v>
-      </c>
       <c r="M77" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="N77" t="s">
         <v>65</v>
@@ -4031,8 +4037,8 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.gene_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
       </c>
       <c r="B78" t="s">
         <v>157</v>
@@ -4047,7 +4053,7 @@
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J78" t="s">
         <v>193</v>
@@ -4061,8 +4067,8 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.protein_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
@@ -4077,7 +4083,7 @@
         <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -4091,14 +4097,14 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.clinical_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
         <v>429</v>
@@ -4107,7 +4113,7 @@
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J80" t="s">
         <v>193</v>
@@ -4121,14 +4127,14 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.sequence_link_outs</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
         <v>429</v>
@@ -4137,7 +4143,7 @@
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J81" t="s">
         <v>193</v>
@@ -4151,14 +4157,14 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.pathways</v>
-      </c>
-      <c r="B82" t="s">
-        <v>172</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="D82" t="s">
         <v>429</v>
@@ -4167,11 +4173,14 @@
         <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="J82" t="s">
         <v>193</v>
       </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
       <c r="M82" t="s">
         <v>64</v>
       </c>
@@ -4181,14 +4190,14 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.go_terms</v>
-      </c>
-      <c r="B83" t="s">
-        <v>172</v>
+        <f t="shared" si="15"/>
+        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="D83" t="s">
         <v>429</v>
@@ -4197,11 +4206,14 @@
         <v>85</v>
       </c>
       <c r="F83" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="J83" t="s">
         <v>193</v>
       </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
       <c r="M83" t="s">
         <v>64</v>
       </c>
@@ -4209,81 +4221,93 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_ptm</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C84" t="s">
-        <v>423</v>
-      </c>
-      <c r="D84" t="s">
-        <v>429</v>
-      </c>
-      <c r="E84" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" t="s">
-        <v>430</v>
-      </c>
-      <c r="J84" t="s">
-        <v>193</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="M84" t="s">
-        <v>64</v>
-      </c>
-      <c r="N84" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f t="shared" si="16"/>
-        <v>HumanGeneRecordClasses.HumanGeneRecordClass.study003_comparisons</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C85" t="s">
-        <v>423</v>
-      </c>
-      <c r="D85" t="s">
-        <v>429</v>
-      </c>
-      <c r="E85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" t="s">
-        <v>431</v>
-      </c>
-      <c r="J85" t="s">
-        <v>193</v>
-      </c>
-      <c r="K85">
-        <v>2</v>
-      </c>
-      <c r="M85" t="s">
-        <v>64</v>
-      </c>
-      <c r="N85" t="s">
-        <v>65</v>
+      <c r="A85" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>247</v>
+      <c r="A87" t="str">
+        <f>CONCATENATE(D87,".",F87)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.search_expression</v>
+      </c>
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" t="s">
+        <v>446</v>
+      </c>
+      <c r="G87" t="s">
+        <v>248</v>
+      </c>
+      <c r="H87" t="s">
+        <v>248</v>
+      </c>
+      <c r="I87" t="s">
+        <v>248</v>
+      </c>
+      <c r="J87" t="s">
+        <v>248</v>
+      </c>
+      <c r="K87" t="s">
+        <v>248</v>
+      </c>
+      <c r="M87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" ref="A88:A101" si="16">CONCATENATE(D88,".",F88)</f>
+        <v>DatasetRecordClasses.DatasetRecordClass.search_comparison</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>394</v>
+      </c>
+      <c r="D88" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" t="s">
+        <v>248</v>
+      </c>
+      <c r="H88" t="s">
+        <v>248</v>
+      </c>
+      <c r="I88" t="s">
+        <v>248</v>
+      </c>
+      <c r="J88" t="s">
+        <v>248</v>
+      </c>
+      <c r="K88" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>CONCATENATE(D89,".",F89)</f>
-        <v>DatasetRecordClasses.DatasetRecordClass.search_expression</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_contact</v>
       </c>
       <c r="B89" t="s">
         <v>204</v>
@@ -4298,31 +4322,22 @@
         <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>452</v>
-      </c>
-      <c r="G89" t="s">
-        <v>248</v>
-      </c>
-      <c r="H89" t="s">
-        <v>248</v>
-      </c>
-      <c r="I89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K89" t="s">
-        <v>248</v>
+        <v>389</v>
+      </c>
+      <c r="L89" t="s">
+        <v>66</v>
       </c>
       <c r="M89" t="s">
         <v>197</v>
       </c>
+      <c r="N89" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" ref="A90:A103" si="17">CONCATENATE(D90,".",F90)</f>
-        <v>DatasetRecordClasses.DatasetRecordClass.search_comparison</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
@@ -4337,31 +4352,22 @@
         <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>465</v>
-      </c>
-      <c r="G90" t="s">
-        <v>248</v>
-      </c>
-      <c r="H90" t="s">
-        <v>248</v>
-      </c>
-      <c r="I90" t="s">
-        <v>248</v>
-      </c>
-      <c r="J90" t="s">
-        <v>248</v>
-      </c>
-      <c r="K90" t="s">
-        <v>248</v>
+        <v>390</v>
+      </c>
+      <c r="L90" t="s">
+        <v>66</v>
       </c>
       <c r="M90" t="s">
         <v>197</v>
       </c>
+      <c r="N90" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.primary_contact</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.organism</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
@@ -4376,7 +4382,7 @@
         <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s">
         <v>66</v>
@@ -4390,8 +4396,8 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.full_description</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
@@ -4406,7 +4412,7 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L92" t="s">
         <v>66</v>
@@ -4420,8 +4426,8 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.organism</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.data_type</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
@@ -4436,7 +4442,7 @@
         <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L93" t="s">
         <v>66</v>
@@ -4450,44 +4456,41 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.full_description</v>
-      </c>
-      <c r="B94" t="s">
-        <v>204</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.protocol_images</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C94" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="D94" t="s">
         <v>249</v>
       </c>
       <c r="E94" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
-        <v>395</v>
-      </c>
-      <c r="L94" t="s">
-        <v>66</v>
+        <v>445</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>197</v>
-      </c>
-      <c r="N94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.data_type</v>
-      </c>
-      <c r="B95" t="s">
-        <v>204</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.protocol_description</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="D95" t="s">
         <v>249</v>
@@ -4496,55 +4499,55 @@
         <v>62</v>
       </c>
       <c r="F95" t="s">
-        <v>396</v>
-      </c>
-      <c r="L95" t="s">
-        <v>66</v>
+        <v>447</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>197</v>
-      </c>
-      <c r="N95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.protocol_images</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>454</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
       </c>
       <c r="C96" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="D96" t="s">
         <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>451</v>
-      </c>
-      <c r="K96">
-        <v>2</v>
+        <v>390</v>
+      </c>
+      <c r="L96" t="s">
+        <v>66</v>
       </c>
       <c r="M96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="N96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.protocol_description</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.microarray_datasets</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C97" t="s">
         <v>454</v>
-      </c>
-      <c r="C97" t="s">
-        <v>455</v>
       </c>
       <c r="D97" t="s">
         <v>249</v>
@@ -4553,25 +4556,22 @@
         <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>453</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="M97" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.primary_publication</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.proteomics_datasets</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>455</v>
       </c>
       <c r="C98" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="D98" t="s">
         <v>249</v>
@@ -4580,28 +4580,19 @@
         <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>390</v>
-      </c>
-      <c r="L98" t="s">
-        <v>66</v>
-      </c>
-      <c r="M98" t="s">
-        <v>197</v>
-      </c>
-      <c r="N98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.microarray_datasets</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C99" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D99" t="s">
         <v>249</v>
@@ -4610,22 +4601,22 @@
         <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="M99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.proteomics_datasets</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.record_taxon</v>
       </c>
       <c r="B100" t="s">
-        <v>461</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="D100" t="s">
         <v>249</v>
@@ -4634,19 +4625,22 @@
         <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="M100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.bulk_download_url</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>459</v>
+        <f t="shared" si="16"/>
+        <v>DatasetRecordClasses.DatasetRecordClass.study_access</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="D101" t="s">
         <v>249</v>
@@ -4655,70 +4649,22 @@
         <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>391</v>
-      </c>
-      <c r="M101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.record_taxon</v>
-      </c>
-      <c r="B102" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" t="s">
-        <v>394</v>
-      </c>
-      <c r="D102" t="s">
-        <v>249</v>
-      </c>
-      <c r="E102" t="s">
-        <v>62</v>
-      </c>
-      <c r="F102" t="s">
-        <v>466</v>
-      </c>
-      <c r="M102" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f t="shared" si="17"/>
-        <v>DatasetRecordClasses.DatasetRecordClass.study_access</v>
-      </c>
-      <c r="B103" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" t="s">
-        <v>394</v>
-      </c>
-      <c r="D103" t="s">
-        <v>249</v>
-      </c>
-      <c r="E103" t="s">
-        <v>62</v>
-      </c>
-      <c r="F103" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B97" r:id="rId1" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{04B9D51A-0900-4B93-B368-0849FF381F1D}"/>
-    <hyperlink ref="B96" r:id="rId2" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{D64BE6B9-0C24-4330-9E69-59D2AFAB68FD}"/>
-    <hyperlink ref="B99" r:id="rId3" xr:uid="{E33DF20E-8197-497E-ACBC-9A7D8C6B61E9}"/>
-    <hyperlink ref="B101" r:id="rId4" xr:uid="{7BEA3C84-8210-4D98-BC03-B17F03A7A315}"/>
-    <hyperlink ref="B16" r:id="rId5" xr:uid="{77374C50-9DA7-4029-86EA-90D1EAEB2CD8}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{6A8B9933-A376-4B67-AEA0-F78BE733288C}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{134E537B-1ED0-44E3-9238-5DBC0B83B820}"/>
-    <hyperlink ref="B19" r:id="rId8" xr:uid="{8BB624E1-F50C-404E-9011-F65592F215C3}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{A52DFD08-1FC0-4210-9576-DDDC1C0DE9B9}"/>
-    <hyperlink ref="B21" r:id="rId10" xr:uid="{DFA1871A-B92C-4090-A7A3-04AC5E96B789}"/>
-    <hyperlink ref="B22" r:id="rId11" xr:uid="{11978A85-F4C4-4280-AD6C-AEEF995C1E86}"/>
+    <hyperlink ref="B95" r:id="rId1" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{04B9D51A-0900-4B93-B368-0849FF381F1D}"/>
+    <hyperlink ref="B94" r:id="rId2" location="http://edamontology.org/topic_3934" display="https://ifb-elixirfr.github.io/edam-browser/ - http://edamontology.org/topic_3934" xr:uid="{D64BE6B9-0C24-4330-9E69-59D2AFAB68FD}"/>
+    <hyperlink ref="B97" r:id="rId3" xr:uid="{E33DF20E-8197-497E-ACBC-9A7D8C6B61E9}"/>
+    <hyperlink ref="B99" r:id="rId4" xr:uid="{7BEA3C84-8210-4D98-BC03-B17F03A7A315}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{77374C50-9DA7-4029-86EA-90D1EAEB2CD8}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{6A8B9933-A376-4B67-AEA0-F78BE733288C}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{134E537B-1ED0-44E3-9238-5DBC0B83B820}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{8BB624E1-F50C-404E-9011-F65592F215C3}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{A52DFD08-1FC0-4210-9576-DDDC1C0DE9B9}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{DFA1871A-B92C-4090-A7A3-04AC5E96B789}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{11978A85-F4C4-4280-AD6C-AEEF995C1E86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7192,13 +7138,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C69" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D69">
         <v>50</v>
@@ -7206,13 +7152,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C70" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D70">
         <v>55</v>
@@ -7220,13 +7166,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C71" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D71">
         <v>52</v>
@@ -7234,13 +7180,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C72" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D72">
         <v>53</v>
